--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF41DEBB-1CD8-49E3-A225-61A81680CCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751AC4C-CDE6-460F-A218-82BF834179D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -25,17 +25,28 @@
     <sheet name="MCC" sheetId="14" r:id="rId10"/>
     <sheet name="F1S" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="35">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -129,6 +140,18 @@
   <si>
     <t>Cervical Cancer DataSet 02 - hold 02 - F1-Score (Macro-Averaged)</t>
   </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Comparison: Sparsification Method</t>
+  </si>
+  <si>
+    <t>Comparison: Design Method</t>
+  </si>
+  <si>
+    <t>Comparison: NN x KNN</t>
+  </si>
 </sst>
 </file>
 
@@ -140,8 +163,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -518,11 +549,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,9 +829,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,6 +902,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1095,19 +1280,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,19 +2201,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2619,19 +2804,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3208,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,32 +3404,62 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111"/>
+      <c r="M3" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="111"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3278,8 +3493,41 @@
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3289,62 +3537,140 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="90">
         <v>0.85267702936096701</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="91">
         <v>0.83644214162348896</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="91">
         <v>0.85630397236614897</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="91">
         <v>0.836096718480138</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="91">
         <v>0.83367875647668399</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="92">
         <v>0.85405872193437005</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="92">
         <v>0.87789291882556098</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="93">
         <v>0.83402417962003506</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="50">
+        <f t="shared" ref="P5:W8" si="0">D5-MAX(D5,D9,D13,D17)</f>
+        <v>-1.1398963730570033E-2</v>
+      </c>
+      <c r="Q5" s="50">
+        <f t="shared" si="0"/>
+        <v>-4.145077720207202E-2</v>
+      </c>
+      <c r="R5" s="50">
+        <f t="shared" si="0"/>
+        <v>-2.3143350604490021E-2</v>
+      </c>
+      <c r="S5" s="50">
+        <f t="shared" si="0"/>
+        <v>-2.2279792746114024E-2</v>
+      </c>
+      <c r="T5" s="50">
+        <f t="shared" si="0"/>
+        <v>-8.6355785837649579E-3</v>
+      </c>
+      <c r="U5" s="50">
+        <f t="shared" si="0"/>
+        <v>-2.8497409326424972E-2</v>
+      </c>
+      <c r="V5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="112">
+        <f t="shared" si="0"/>
+        <v>-2.4870466321242901E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="94">
         <v>0.89119170984455998</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="95">
         <v>0.86943005181347099</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="96">
         <v>0.89378238341968896</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="95">
         <v>0.88618307426597598</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="96">
         <v>0.90449050086355798</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="96">
         <v>0.92245250431778902</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="95">
         <v>0.86960276338514697</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="97">
         <v>0.86252158894646003</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="47">
+        <f t="shared" si="0"/>
+        <v>-8.4628670120899807E-3</v>
+      </c>
+      <c r="R6" s="47">
+        <f t="shared" si="0"/>
+        <v>-5.5267702936100394E-3</v>
+      </c>
+      <c r="S6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="47">
+        <f t="shared" si="0"/>
+        <v>-1.3298791018998002E-2</v>
+      </c>
+      <c r="W6" s="113">
+        <f t="shared" si="0"/>
+        <v>-5.5267702936089291E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -3352,63 +3678,139 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="94">
         <v>0.85906735751295304</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="95">
         <v>0.84594127806563102</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="96">
         <v>0.87046632124352297</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="95">
         <v>0.82970639032815197</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="95">
         <v>0.84473229706390296</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="96">
         <v>0.89775474956822099</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="96">
         <v>0.87702936096718498</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="97">
         <v>0.81623488773747799</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="47">
+        <f t="shared" si="0"/>
+        <v>-9.3264248704669761E-3</v>
+      </c>
+      <c r="Q7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="113">
+        <f t="shared" si="0"/>
+        <v>-4.0069084628670981E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="98">
         <v>0.90587219343696002</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="99">
         <v>0.89240069084628704</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="99">
         <v>0.89430051813471501</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="99">
         <v>0.85561312607944695</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="99">
         <v>0.88013816925734001</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="100">
         <v>0.92867012089809997</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="100">
         <v>0.90189982728842799</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="101">
         <v>0.89050086355785796</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="48">
+        <f t="shared" si="0"/>
+        <v>-1.7616580310881091E-2</v>
+      </c>
+      <c r="T8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="48">
+        <f t="shared" si="0"/>
+        <v>-9.8445595854930179E-3</v>
+      </c>
+      <c r="W8" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3418,62 +3820,140 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="102">
         <v>0.86407599309153704</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="103">
         <v>0.85146804835923995</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="104">
         <v>0.87944732297063899</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="103">
         <v>0.85837651122625203</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="103">
         <v>0.83385146804835897</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="103">
         <v>0.42521588946459399</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="104">
         <v>0.86183074265975801</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="105">
         <v>0.85889464594127796</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="50">
+        <f t="shared" ref="P9:W12" si="1">D9-MAX(D5,D9,D13,D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="50">
+        <f t="shared" si="1"/>
+        <v>-2.6424870466321027E-2</v>
+      </c>
+      <c r="R9" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="50">
+        <f t="shared" si="1"/>
+        <v>-8.4628670120899807E-3</v>
+      </c>
+      <c r="U9" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.45734024179620103</v>
+      </c>
+      <c r="V9" s="50">
+        <f t="shared" si="1"/>
+        <v>-1.6062176165802966E-2</v>
+      </c>
+      <c r="W9" s="112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="106">
         <v>0.87512953367875701</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="95">
         <v>0.86822107081174504</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="96">
         <v>0.87806563039723695</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="95">
         <v>0.86234887737478405</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="96">
         <v>0.87495682210708103</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="95">
         <v>0.5</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="95">
         <v>0.86113989637305699</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="97">
         <v>0.86217616580310896</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="47">
+        <f t="shared" si="1"/>
+        <v>-1.6062176165802966E-2</v>
+      </c>
+      <c r="Q10" s="47">
+        <f t="shared" si="1"/>
+        <v>-9.6718480138159313E-3</v>
+      </c>
+      <c r="R10" s="47">
+        <f t="shared" si="1"/>
+        <v>-2.1243523316062052E-2</v>
+      </c>
+      <c r="S10" s="47">
+        <f t="shared" si="1"/>
+        <v>-2.3834196891191928E-2</v>
+      </c>
+      <c r="T10" s="47">
+        <f t="shared" si="1"/>
+        <v>-2.9533678756476944E-2</v>
+      </c>
+      <c r="U10" s="47">
+        <f t="shared" si="1"/>
+        <v>-0.42245250431778902</v>
+      </c>
+      <c r="V10" s="47">
+        <f t="shared" si="1"/>
+        <v>-2.1761658031087983E-2</v>
+      </c>
+      <c r="W10" s="113">
+        <f t="shared" si="1"/>
+        <v>-5.8721934369599937E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3481,63 +3961,139 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="106">
         <v>0.86839378238342002</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="95">
         <v>0.80328151986183105</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="96">
         <v>0.85164075993091604</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="95">
         <v>0.82037996545768599</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="95">
         <v>0.81191709844559601</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="95">
         <v>0.83816925734024195</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="96">
         <v>0.86459412780656297</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="107">
         <v>0.85630397236614897</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="47">
+        <f t="shared" si="1"/>
+        <v>-4.2659758203799969E-2</v>
+      </c>
+      <c r="R11" s="47">
+        <f t="shared" si="1"/>
+        <v>-1.8825561312606931E-2</v>
+      </c>
+      <c r="S11" s="47">
+        <f t="shared" si="1"/>
+        <v>-9.3264248704659769E-3</v>
+      </c>
+      <c r="T11" s="47">
+        <f t="shared" si="1"/>
+        <v>-3.2815198618306951E-2</v>
+      </c>
+      <c r="U11" s="47">
+        <f t="shared" si="1"/>
+        <v>-5.9585492227979042E-2</v>
+      </c>
+      <c r="V11" s="47">
+        <f t="shared" si="1"/>
+        <v>-1.2435233160622006E-2</v>
+      </c>
+      <c r="W11" s="113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="98">
         <v>0.90172711571675301</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="99">
         <v>0.86390328151986195</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="100">
         <v>0.88531951640759898</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="99">
         <v>0.86683937823834201</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="99">
         <v>0.84283246977547499</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="99">
         <v>0.78480138169257296</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="100">
         <v>0.899309153713299</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="101">
         <v>0.85958549222797898</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="48">
+        <f t="shared" si="1"/>
+        <v>-4.1450777202070022E-3</v>
+      </c>
+      <c r="Q12" s="48">
+        <f t="shared" si="1"/>
+        <v>-2.8497409326425083E-2</v>
+      </c>
+      <c r="R12" s="48">
+        <f t="shared" si="1"/>
+        <v>-8.9810017271160225E-3</v>
+      </c>
+      <c r="S12" s="48">
+        <f t="shared" si="1"/>
+        <v>-6.3903281519860355E-3</v>
+      </c>
+      <c r="T12" s="48">
+        <f t="shared" si="1"/>
+        <v>-3.7305699481865018E-2</v>
+      </c>
+      <c r="U12" s="48">
+        <f t="shared" si="1"/>
+        <v>-0.14386873920552701</v>
+      </c>
+      <c r="V12" s="48">
+        <f t="shared" si="1"/>
+        <v>-1.2435233160622006E-2</v>
+      </c>
+      <c r="W12" s="114">
+        <f t="shared" si="1"/>
+        <v>-3.0915371329878982E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3547,62 +4103,140 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="102">
         <v>0.86027633851467999</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="103">
         <v>0.81312607944732296</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="103">
         <v>0.82746113989637304</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="103">
         <v>0.82348877374784102</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="104">
         <v>0.84231433506044895</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="104">
         <v>0.84231433506044895</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="103">
         <v>0.83903281519861805</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="105">
         <v>0.84075993091537105</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="50">
+        <f t="shared" ref="P13:W16" si="2">D13-MAX(D5,D9,D13,D17)</f>
+        <v>-3.7996545768570478E-3</v>
+      </c>
+      <c r="Q13" s="50">
+        <f t="shared" si="2"/>
+        <v>-6.4766839378238017E-2</v>
+      </c>
+      <c r="R13" s="50">
+        <f t="shared" si="2"/>
+        <v>-5.1986183074265946E-2</v>
+      </c>
+      <c r="S13" s="50">
+        <f t="shared" si="2"/>
+        <v>-3.4887737478411007E-2</v>
+      </c>
+      <c r="T13" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="50">
+        <f t="shared" si="2"/>
+        <v>-4.0241796200346069E-2</v>
+      </c>
+      <c r="V13" s="50">
+        <f t="shared" si="2"/>
+        <v>-3.8860103626942921E-2</v>
+      </c>
+      <c r="W13" s="112">
+        <f t="shared" si="2"/>
+        <v>-1.8134715025906911E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="106">
         <v>0.87858376511226299</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="95">
         <v>0.86701208981001698</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="95">
         <v>0.87150259067357505</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="96">
         <v>0.88480138169257305</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="96">
         <v>0.88549222797927496</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="95">
         <v>0.841968911917098</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="95">
         <v>0.85993091537133004</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="97">
         <v>0.86804835924006896</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.2607944732296983E-2</v>
+      </c>
+      <c r="Q14" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.0880829015543991E-2</v>
+      </c>
+      <c r="R14" s="47">
+        <f t="shared" si="2"/>
+        <v>-2.7806563039723953E-2</v>
+      </c>
+      <c r="S14" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.3816925734029262E-3</v>
+      </c>
+      <c r="T14" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.8998272884283018E-2</v>
+      </c>
+      <c r="U14" s="47">
+        <f t="shared" si="2"/>
+        <v>-8.0483592400691029E-2</v>
+      </c>
+      <c r="V14" s="47">
+        <f t="shared" si="2"/>
+        <v>-2.2970639032814932E-2</v>
+      </c>
+      <c r="W14" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -3610,63 +4244,139 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="106">
         <v>0.76355785837651102</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="95">
         <v>0.34507772020725402</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="95">
         <v>0.28238341968911901</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="95">
         <v>0.51295336787564805</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="96">
         <v>0.77443868739205501</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="96">
         <v>0.791191709844559</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="95">
         <v>0.55975820379965502</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="97">
         <v>0.56027633851468095</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.104835924006909</v>
+      </c>
+      <c r="Q15" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.500863557858377</v>
+      </c>
+      <c r="R15" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.58808290155440401</v>
+      </c>
+      <c r="S15" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.31675302245250392</v>
+      </c>
+      <c r="T15" s="47">
+        <f t="shared" si="2"/>
+        <v>-7.0293609671847945E-2</v>
+      </c>
+      <c r="U15" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.10656303972366199</v>
+      </c>
+      <c r="V15" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.31727115716752996</v>
+      </c>
+      <c r="W15" s="113">
+        <f t="shared" si="2"/>
+        <v>-0.29602763385146802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="98">
         <v>0.77409326424870495</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="99">
         <v>0.61139896373057001</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="100">
         <v>0.79689119170984501</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="99">
         <v>0.46683937823834198</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="99">
         <v>0.76597582037996503</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="100">
         <v>0.77962003454231399</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="99">
         <v>0.717962003454231</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="101">
         <v>0.48134715025906699</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.13177892918825507</v>
+      </c>
+      <c r="Q16" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.28100172711571703</v>
+      </c>
+      <c r="R16" s="48">
+        <f t="shared" si="2"/>
+        <v>-9.7409326424869991E-2</v>
+      </c>
+      <c r="S16" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.40639032815198606</v>
+      </c>
+      <c r="T16" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.11416234887737498</v>
+      </c>
+      <c r="U16" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.14905008635578598</v>
+      </c>
+      <c r="V16" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.19378238341969001</v>
+      </c>
+      <c r="W16" s="114">
+        <f t="shared" si="2"/>
+        <v>-0.40915371329879097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3676,62 +4386,140 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="108">
         <v>0.790328151986183</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="104">
         <v>0.87789291882556098</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="104">
         <v>0.87806563039723695</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="103">
         <v>0.82348877374784102</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="103">
         <v>0.83229706390328095</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="104">
         <v>0.88255613126079502</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="103">
         <v>0.85198618307426599</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="105">
         <v>0.844386873920553</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="50">
+        <f t="shared" ref="P17:W20" si="3">D17-MAX(D5,D9,D13,D17)</f>
+        <v>-7.3747841105354039E-2</v>
+      </c>
+      <c r="Q17" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="50">
+        <f t="shared" si="3"/>
+        <v>-1.381692573402038E-3</v>
+      </c>
+      <c r="S17" s="50">
+        <f t="shared" si="3"/>
+        <v>-3.4887737478411007E-2</v>
+      </c>
+      <c r="T17" s="50">
+        <f t="shared" si="3"/>
+        <v>-1.0017271157167995E-2</v>
+      </c>
+      <c r="U17" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="50">
+        <f t="shared" si="3"/>
+        <v>-2.5906735751294985E-2</v>
+      </c>
+      <c r="W17" s="112">
+        <f t="shared" si="3"/>
+        <v>-1.4507772020724952E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="94">
         <v>0.79274611398963701</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="95">
         <v>0.87789291882556098</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="96">
         <v>0.899309153713299</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="95">
         <v>0.87754749568221102</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="95">
         <v>0.88151986183074305</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="96">
         <v>0.88842832469775501</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="96">
         <v>0.88290155440414497</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="97">
         <v>0.86563039723661495</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="4"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="47">
+        <f t="shared" si="3"/>
+        <v>-9.8445595854922963E-2</v>
+      </c>
+      <c r="Q18" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="47">
+        <f t="shared" si="3"/>
+        <v>-8.6355785837649579E-3</v>
+      </c>
+      <c r="T18" s="47">
+        <f t="shared" si="3"/>
+        <v>-2.2970639032814932E-2</v>
+      </c>
+      <c r="U18" s="47">
+        <f t="shared" si="3"/>
+        <v>-3.4024179620034012E-2</v>
+      </c>
+      <c r="V18" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="113">
+        <f t="shared" si="3"/>
+        <v>-2.4179620034540106E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3739,63 +4527,139 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="106">
         <v>0.85181347150259101</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="95">
         <v>0.82918825561312604</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="96">
         <v>0.85457685664939498</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="95">
         <v>0.81053540587219397</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="95">
         <v>0.83005181347150303</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="96">
         <v>0.88981001727115705</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="95">
         <v>0.83471502590673596</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="97">
         <v>0.82797927461139897</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="47">
+        <f t="shared" si="3"/>
+        <v>-1.6580310880829008E-2</v>
+      </c>
+      <c r="Q19" s="47">
+        <f t="shared" si="3"/>
+        <v>-1.6753022452504984E-2</v>
+      </c>
+      <c r="R19" s="47">
+        <f t="shared" si="3"/>
+        <v>-1.5889464594127989E-2</v>
+      </c>
+      <c r="S19" s="47">
+        <f t="shared" si="3"/>
+        <v>-1.9170984455957996E-2</v>
+      </c>
+      <c r="T19" s="47">
+        <f t="shared" si="3"/>
+        <v>-1.4680483592399929E-2</v>
+      </c>
+      <c r="U19" s="47">
+        <f t="shared" si="3"/>
+        <v>-7.9447322970639389E-3</v>
+      </c>
+      <c r="V19" s="47">
+        <f t="shared" si="3"/>
+        <v>-4.2314335060449015E-2</v>
+      </c>
+      <c r="W19" s="113">
+        <f t="shared" si="3"/>
+        <v>-2.8324697754749995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="98">
         <v>0.88255613126079402</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="100">
         <v>0.88013816925734001</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="99">
         <v>0.84490500863557905</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="99">
         <v>0.87322970639032804</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="99">
         <v>0.87409326424870504</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="100">
         <v>0.90241796200345403</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="100">
         <v>0.91174438687392101</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="101">
         <v>0.86943005181347099</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="48">
+        <f t="shared" si="3"/>
+        <v>-2.3316062176165997E-2</v>
+      </c>
+      <c r="Q20" s="48">
+        <f t="shared" si="3"/>
+        <v>-1.2262521588947028E-2</v>
+      </c>
+      <c r="R20" s="48">
+        <f t="shared" si="3"/>
+        <v>-4.9395509499135959E-2</v>
+      </c>
+      <c r="S20" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="48">
+        <f t="shared" si="3"/>
+        <v>-6.0449050086349709E-3</v>
+      </c>
+      <c r="U20" s="48">
+        <f t="shared" si="3"/>
+        <v>-2.6252158894645938E-2</v>
+      </c>
+      <c r="V20" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="114">
+        <f t="shared" si="3"/>
+        <v>-2.1070811744386964E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -3805,188 +4669,1363 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="111"/>
+      <c r="M22" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="111"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="45">
+        <f>D5-MAX(D5,D7)</f>
+        <v>-6.3903281519860355E-3</v>
+      </c>
+      <c r="E24" s="45">
+        <f t="shared" ref="E24:K25" si="4">E5-MAX(E5,E7)</f>
+        <v>-9.4991364421420643E-3</v>
+      </c>
+      <c r="F24" s="45">
+        <f t="shared" si="4"/>
+        <v>-1.4162348877373998E-2</v>
+      </c>
+      <c r="G24" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="45">
+        <f t="shared" si="4"/>
+        <v>-1.1053540587218968E-2</v>
+      </c>
+      <c r="I24" s="45">
+        <f t="shared" si="4"/>
+        <v>-4.3696027633850942E-2</v>
+      </c>
+      <c r="J24" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="45">
+        <f>D5-MAX(D5,D6)</f>
+        <v>-3.8514680483592967E-2</v>
+      </c>
+      <c r="Q24" s="45">
+        <f t="shared" ref="Q24:W24" si="5">E5-MAX(E5,E6)</f>
+        <v>-3.2987910189982039E-2</v>
+      </c>
+      <c r="R24" s="45">
+        <f t="shared" si="5"/>
+        <v>-3.7478411053539995E-2</v>
+      </c>
+      <c r="S24" s="45">
+        <f t="shared" si="5"/>
+        <v>-5.0086355785837977E-2</v>
+      </c>
+      <c r="T24" s="45">
+        <f t="shared" si="5"/>
+        <v>-7.0811744386873987E-2</v>
+      </c>
+      <c r="U24" s="45">
+        <f t="shared" si="5"/>
+        <v>-6.8393782383418977E-2</v>
+      </c>
+      <c r="V24" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="45">
+        <f t="shared" si="5"/>
+        <v>-2.8497409326424972E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="47">
+        <f>D6-MAX(D6,D8)</f>
+        <v>-1.468048359240004E-2</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" si="4"/>
+        <v>-2.2970639032816043E-2</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" si="4"/>
+        <v>-5.181347150260418E-4</v>
+      </c>
+      <c r="G25" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" si="4"/>
+        <v>-6.2176165803109473E-3</v>
+      </c>
+      <c r="J25" s="47">
+        <f t="shared" si="4"/>
+        <v>-3.229706390328102E-2</v>
+      </c>
+      <c r="K25" s="47">
+        <f t="shared" si="4"/>
+        <v>-2.7979274611397931E-2</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="47">
+        <f>D6-MAX(D5,D6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="47">
+        <f t="shared" ref="Q25:W25" si="6">E6-MAX(E5,E6)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="47">
+        <f t="shared" si="6"/>
+        <v>-8.2901554404140043E-3</v>
+      </c>
+      <c r="W25" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="47">
+        <f>D7-MAX(D5,D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" ref="E26:K27" si="7">E7-MAX(E5,E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="47">
+        <f t="shared" si="7"/>
+        <v>-6.3903281519860355E-3</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="47">
+        <f t="shared" si="7"/>
+        <v>-8.6355785837599619E-4</v>
+      </c>
+      <c r="K26" s="47">
+        <f t="shared" si="7"/>
+        <v>-1.7789291882557068E-2</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="45">
+        <f>D7-MAX(D7,D8)</f>
+        <v>-4.6804835924006971E-2</v>
+      </c>
+      <c r="Q26" s="45">
+        <f t="shared" ref="Q26:W26" si="8">E7-MAX(E7,E8)</f>
+        <v>-4.6459412780656018E-2</v>
+      </c>
+      <c r="R26" s="45">
+        <f t="shared" si="8"/>
+        <v>-2.3834196891192039E-2</v>
+      </c>
+      <c r="S26" s="45">
+        <f t="shared" si="8"/>
+        <v>-2.5906735751294985E-2</v>
+      </c>
+      <c r="T26" s="45">
+        <f t="shared" si="8"/>
+        <v>-3.5405872193437049E-2</v>
+      </c>
+      <c r="U26" s="45">
+        <f t="shared" si="8"/>
+        <v>-3.0915371329878982E-2</v>
+      </c>
+      <c r="V26" s="45">
+        <f t="shared" si="8"/>
+        <v>-2.4870466321243012E-2</v>
+      </c>
+      <c r="W26" s="45">
+        <f t="shared" si="8"/>
+        <v>-7.426597582037997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="48">
+        <f>D8-MAX(D6,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" si="7"/>
+        <v>-3.0569948186529028E-2</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="7"/>
+        <v>-2.435233160621797E-2</v>
+      </c>
+      <c r="I27" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="47">
+        <f>D8-MAX(D7,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="47">
+        <f t="shared" ref="Q27:W27" si="9">E8-MAX(E7,E8)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="45">
+        <f>D9-MAX(D9,D11)</f>
+        <v>-4.3177892918829786E-3</v>
+      </c>
+      <c r="E28" s="45">
+        <f t="shared" ref="E28:K29" si="10">E9-MAX(E9,E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.41295336787564796</v>
+      </c>
+      <c r="J28" s="45">
+        <f t="shared" si="10"/>
+        <v>-2.7633851468049642E-3</v>
+      </c>
+      <c r="K28" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="45">
+        <f>D9-MAX(D9,D10)</f>
+        <v>-1.1053540587219968E-2</v>
+      </c>
+      <c r="Q28" s="45">
+        <f t="shared" ref="Q28:W28" si="11">E9-MAX(E9,E10)</f>
+        <v>-1.6753022452505095E-2</v>
+      </c>
+      <c r="R28" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="45">
+        <f t="shared" si="11"/>
+        <v>-3.972366148532025E-3</v>
+      </c>
+      <c r="T28" s="45">
+        <f t="shared" si="11"/>
+        <v>-4.1105354058722066E-2</v>
+      </c>
+      <c r="U28" s="45">
+        <f t="shared" si="11"/>
+        <v>-7.4784110535406012E-2</v>
+      </c>
+      <c r="V28" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="45">
+        <f t="shared" si="11"/>
+        <v>-3.281519861831006E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="47">
+        <f>D10-MAX(D10,D12)</f>
+        <v>-2.6597582037996004E-2</v>
+      </c>
+      <c r="E29" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" si="10"/>
+        <v>-7.2538860103620317E-3</v>
+      </c>
+      <c r="G29" s="47">
+        <f t="shared" si="10"/>
+        <v>-4.4905008635579557E-3</v>
+      </c>
+      <c r="H29" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="47">
+        <f t="shared" si="10"/>
+        <v>-0.28480138169257296</v>
+      </c>
+      <c r="J29" s="47">
+        <f t="shared" si="10"/>
+        <v>-3.8169257340242013E-2</v>
+      </c>
+      <c r="K29" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="47">
+        <f>D10-MAX(D9,D10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="47">
+        <f t="shared" ref="Q29:W29" si="12">E10-MAX(E9,E10)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="47">
+        <f t="shared" si="12"/>
+        <v>-1.381692573402038E-3</v>
+      </c>
+      <c r="S29" s="47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="47">
+        <f t="shared" si="12"/>
+        <v>-6.90846286701019E-4</v>
+      </c>
+      <c r="W29" s="47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47">
+        <f>D11-MAX(D9,D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="47">
+        <f t="shared" ref="E30:K31" si="13">E11-MAX(E9,E11)</f>
+        <v>-4.8186528497408898E-2</v>
+      </c>
+      <c r="F30" s="47">
+        <f t="shared" si="13"/>
+        <v>-2.7806563039722954E-2</v>
+      </c>
+      <c r="G30" s="47">
+        <f t="shared" si="13"/>
+        <v>-3.7996545768566037E-2</v>
+      </c>
+      <c r="H30" s="47">
+        <f t="shared" si="13"/>
+        <v>-2.193436960276296E-2</v>
+      </c>
+      <c r="I30" s="47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="47">
+        <f t="shared" si="13"/>
+        <v>-2.5906735751289878E-3</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="45">
+        <f>D11-MAX(D11,D12)</f>
+        <v>-3.3333333333332993E-2</v>
+      </c>
+      <c r="Q30" s="45">
+        <f t="shared" ref="Q30:W30" si="14">E11-MAX(E11,E12)</f>
+        <v>-6.0621761658030904E-2</v>
+      </c>
+      <c r="R30" s="45">
+        <f t="shared" si="14"/>
+        <v>-3.3678756476682947E-2</v>
+      </c>
+      <c r="S30" s="45">
+        <f t="shared" si="14"/>
+        <v>-4.6459412780656018E-2</v>
+      </c>
+      <c r="T30" s="45">
+        <f t="shared" si="14"/>
+        <v>-3.0915371329878982E-2</v>
+      </c>
+      <c r="U30" s="45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="45">
+        <f t="shared" si="14"/>
+        <v>-3.471502590673603E-2</v>
+      </c>
+      <c r="W30" s="45">
+        <f t="shared" si="14"/>
+        <v>-3.2815198618300068E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="48">
+        <f>D12-MAX(D10,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="13"/>
+        <v>-4.3177892918830896E-3</v>
+      </c>
+      <c r="F31" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="13"/>
+        <v>-3.2124352331606043E-2</v>
+      </c>
+      <c r="I31" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="48">
+        <f t="shared" si="13"/>
+        <v>-2.590673575129987E-3</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="47">
+        <f>D12-MAX(D11,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="47">
+        <f t="shared" ref="Q31:W31" si="15">E12-MAX(E11,E12)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="47">
+        <f t="shared" si="15"/>
+        <v>-5.3367875647668983E-2</v>
+      </c>
+      <c r="V31" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="45">
+        <f>D13-MAX(D13,D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="45">
+        <f t="shared" ref="E32:K33" si="16">E13-MAX(E13,E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="45">
+        <f>D13-MAX(D13,D14)</f>
+        <v>-1.8307426597582999E-2</v>
+      </c>
+      <c r="Q32" s="45">
+        <f t="shared" ref="Q32:W32" si="17">E13-MAX(E13,E14)</f>
+        <v>-5.3886010362694026E-2</v>
+      </c>
+      <c r="R32" s="45">
+        <f t="shared" si="17"/>
+        <v>-4.4041450777202007E-2</v>
+      </c>
+      <c r="S32" s="45">
+        <f t="shared" si="17"/>
+        <v>-6.1312607944732034E-2</v>
+      </c>
+      <c r="T32" s="45">
+        <f t="shared" si="17"/>
+        <v>-4.3177892918826011E-2</v>
+      </c>
+      <c r="U32" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="45">
+        <f t="shared" si="17"/>
+        <v>-2.0898100172711986E-2</v>
+      </c>
+      <c r="W32" s="45">
+        <f t="shared" si="17"/>
+        <v>-2.7288428324697911E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="47">
+        <f>D14-MAX(D14,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="47">
+        <f>D14-MAX(D13,D14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="47">
+        <f t="shared" ref="Q33:W33" si="18">E14-MAX(E13,E14)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="47">
+        <f t="shared" si="18"/>
+        <v>-3.4542314335095359E-4</v>
+      </c>
+      <c r="V33" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="47">
+        <f>D15-MAX(D13,D15)</f>
+        <v>-9.6718480138168972E-2</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" ref="E34:K35" si="19">E15-MAX(E13,E15)</f>
+        <v>-0.46804835924006893</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" si="19"/>
+        <v>-0.54507772020725409</v>
+      </c>
+      <c r="G34" s="47">
+        <f t="shared" si="19"/>
+        <v>-0.31053540587219297</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" si="19"/>
+        <v>-6.7875647668393935E-2</v>
+      </c>
+      <c r="I34" s="47">
+        <f t="shared" si="19"/>
+        <v>-5.112262521588995E-2</v>
+      </c>
+      <c r="J34" s="47">
+        <f t="shared" si="19"/>
+        <v>-0.27927461139896304</v>
+      </c>
+      <c r="K34" s="47">
+        <f t="shared" si="19"/>
+        <v>-0.2804835924006901</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="45">
+        <f>D15-MAX(D15,D16)</f>
+        <v>-1.0535405872193926E-2</v>
+      </c>
+      <c r="Q34" s="45">
+        <f t="shared" ref="Q34:W34" si="20">E15-MAX(E15,E16)</f>
+        <v>-0.26632124352331599</v>
+      </c>
+      <c r="R34" s="45">
+        <f t="shared" si="20"/>
+        <v>-0.51450777202072606</v>
+      </c>
+      <c r="S34" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="45">
+        <f t="shared" si="20"/>
+        <v>-0.15820379965457598</v>
+      </c>
+      <c r="W34" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="48">
+        <f>D16-MAX(D14,D16)</f>
+        <v>-0.10449050086355804</v>
+      </c>
+      <c r="E35" s="48">
+        <f t="shared" si="19"/>
+        <v>-0.25561312607944697</v>
+      </c>
+      <c r="F35" s="48">
+        <f t="shared" si="19"/>
+        <v>-7.4611398963730036E-2</v>
+      </c>
+      <c r="G35" s="48">
+        <f t="shared" si="19"/>
+        <v>-0.41796200345423107</v>
+      </c>
+      <c r="H35" s="48">
+        <f t="shared" si="19"/>
+        <v>-0.11951640759930993</v>
+      </c>
+      <c r="I35" s="48">
+        <f t="shared" si="19"/>
+        <v>-6.2348877374784006E-2</v>
+      </c>
+      <c r="J35" s="48">
+        <f t="shared" si="19"/>
+        <v>-0.14196891191709904</v>
+      </c>
+      <c r="K35" s="48">
+        <f t="shared" si="19"/>
+        <v>-0.38670120898100196</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="47">
+        <f>D16-MAX(D15,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="47">
+        <f t="shared" ref="Q35:W35" si="21">E16-MAX(E15,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="47">
+        <f t="shared" si="21"/>
+        <v>-4.6113989637306063E-2</v>
+      </c>
+      <c r="T35" s="47">
+        <f t="shared" si="21"/>
+        <v>-8.4628670120899807E-3</v>
+      </c>
+      <c r="U35" s="47">
+        <f t="shared" si="21"/>
+        <v>-1.157167530224501E-2</v>
+      </c>
+      <c r="V35" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="47">
+        <f t="shared" si="21"/>
+        <v>-7.8929188255613958E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="45">
+        <f>D17-MAX(D17,D19)</f>
+        <v>-6.148531951640801E-2</v>
+      </c>
+      <c r="E36" s="45">
+        <f t="shared" ref="E36:K37" si="22">E17-MAX(E17,E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="45">
+        <f t="shared" si="22"/>
+        <v>-7.2538860103620317E-3</v>
+      </c>
+      <c r="J36" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="45">
+        <f>D17-MAX(D17,D18)</f>
+        <v>-2.4179620034540106E-3</v>
+      </c>
+      <c r="Q36" s="45">
+        <f t="shared" ref="Q36:W36" si="23">E17-MAX(E17,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="45">
+        <f t="shared" si="23"/>
+        <v>-2.1243523316062052E-2</v>
+      </c>
+      <c r="S36" s="45">
+        <f t="shared" si="23"/>
+        <v>-5.4058721934370002E-2</v>
+      </c>
+      <c r="T36" s="45">
+        <f t="shared" si="23"/>
+        <v>-4.9222797927462092E-2</v>
+      </c>
+      <c r="U36" s="45">
+        <f t="shared" si="23"/>
+        <v>-5.8721934369599937E-3</v>
+      </c>
+      <c r="V36" s="45">
+        <f t="shared" si="23"/>
+        <v>-3.0915371329878982E-2</v>
+      </c>
+      <c r="W36" s="45">
+        <f t="shared" si="23"/>
+        <v>-2.1243523316061941E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="47">
+        <f>D18-MAX(D18,D20)</f>
+        <v>-8.9810017271157006E-2</v>
+      </c>
+      <c r="E37" s="47">
+        <f t="shared" si="22"/>
+        <v>-2.2452504317790334E-3</v>
+      </c>
+      <c r="F37" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="47">
+        <f t="shared" si="22"/>
+        <v>-1.3989637305699021E-2</v>
+      </c>
+      <c r="J37" s="47">
+        <f t="shared" si="22"/>
+        <v>-2.8842832469776036E-2</v>
+      </c>
+      <c r="K37" s="47">
+        <f t="shared" si="22"/>
+        <v>-3.7996545768560486E-3</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="47">
+        <f>D18-MAX(D17,D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="47">
+        <f t="shared" ref="Q37:W37" si="24">E18-MAX(E17,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="47">
+        <f>D19-MAX(D17,D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" ref="E38:K39" si="25">E19-MAX(E17,E19)</f>
+        <v>-4.870466321243494E-2</v>
+      </c>
+      <c r="F38" s="47">
+        <f t="shared" si="25"/>
+        <v>-2.3488773747841973E-2</v>
+      </c>
+      <c r="G38" s="47">
+        <f t="shared" si="25"/>
+        <v>-1.2953367875647048E-2</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="25"/>
+        <v>-2.2452504317779232E-3</v>
+      </c>
+      <c r="I38" s="47">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="47">
+        <f t="shared" si="25"/>
+        <v>-1.7271157167530027E-2</v>
+      </c>
+      <c r="K38" s="47">
+        <f t="shared" si="25"/>
+        <v>-1.6407599309154031E-2</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="45">
+        <f>D19-MAX(D19,D20)</f>
+        <v>-3.0742659758203006E-2</v>
+      </c>
+      <c r="Q38" s="45">
+        <f t="shared" ref="Q38:W38" si="26">E19-MAX(E19,E20)</f>
+        <v>-5.0949913644213973E-2</v>
+      </c>
+      <c r="R38" s="45">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="45">
+        <f t="shared" si="26"/>
+        <v>-6.2694300518134072E-2</v>
+      </c>
+      <c r="T38" s="45">
+        <f t="shared" si="26"/>
+        <v>-4.4041450777202007E-2</v>
+      </c>
+      <c r="U38" s="45">
+        <f t="shared" si="26"/>
+        <v>-1.2607944732296983E-2</v>
+      </c>
+      <c r="V38" s="45">
+        <f t="shared" si="26"/>
+        <v>-7.7029360967185045E-2</v>
+      </c>
+      <c r="W38" s="45">
+        <f t="shared" si="26"/>
+        <v>-4.145077720207202E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="48">
+        <f>D20-MAX(D18,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="48">
+        <f t="shared" si="25"/>
+        <v>-5.4404145077719956E-2</v>
+      </c>
+      <c r="G39" s="48">
+        <f t="shared" si="25"/>
+        <v>-4.3177892918829786E-3</v>
+      </c>
+      <c r="H39" s="48">
+        <f t="shared" si="25"/>
+        <v>-7.4265975820380081E-3</v>
+      </c>
+      <c r="I39" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="47">
+        <f>D20-MAX(D19,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="47">
+        <f t="shared" ref="Q39:W39" si="27">E20-MAX(E19,E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="47">
+        <f t="shared" si="27"/>
+        <v>-9.6718480138159313E-3</v>
+      </c>
+      <c r="S39" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3996,7 +6035,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -4006,7 +6045,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -4016,7 +6055,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -4026,7 +6065,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4036,7 +6075,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -4046,7 +6085,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -4056,7 +6095,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -4066,7 +6105,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -4127,8 +6166,12 @@
       <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4157,19 +6200,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4928,19 +6971,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4988,10 +7031,10 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="65">
         <v>16</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="66">
         <v>19</v>
       </c>
       <c r="F5" s="54">
@@ -5003,13 +7046,13 @@
       <c r="H5" s="54">
         <v>46</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="66">
         <v>6</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="66">
         <v>7</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="67">
         <v>22</v>
       </c>
     </row>
@@ -5018,7 +7061,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>24</v>
       </c>
       <c r="E6" s="19">
@@ -5030,16 +7073,16 @@
       <c r="G6" s="19">
         <v>3</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="69">
         <v>4</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="69">
         <v>270</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="69">
         <v>14</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="70">
         <v>9</v>
       </c>
     </row>
@@ -5051,28 +7094,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="71">
         <v>11</v>
       </c>
       <c r="E7" s="19">
         <v>12</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <v>17</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="69">
         <v>15</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <v>6</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="69">
         <v>19</v>
       </c>
       <c r="J7" s="19">
         <v>5</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="70">
         <v>12</v>
       </c>
     </row>
@@ -5082,13 +7125,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <v>20</v>
       </c>
       <c r="E8" s="42">
         <v>23</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <v>19</v>
       </c>
       <c r="G8" s="42">
@@ -5097,13 +7140,13 @@
       <c r="H8" s="42">
         <v>13</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="73">
         <v>109</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>16</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>38</v>
       </c>
     </row>
@@ -5117,28 +7160,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <v>46</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="76">
         <v>4</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="76">
         <v>13</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="76">
         <v>18</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="77">
         <v>8</v>
       </c>
-      <c r="I9" s="77">
-        <v>1</v>
-      </c>
-      <c r="J9" s="78">
+      <c r="I9" s="76">
+        <v>1</v>
+      </c>
+      <c r="J9" s="77">
         <v>3</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="78">
         <v>10</v>
       </c>
     </row>
@@ -5147,19 +7190,19 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="71">
         <v>18</v>
       </c>
       <c r="E10" s="19">
         <v>9</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <v>89</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="69">
         <v>49</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="69">
         <v>48</v>
       </c>
       <c r="I10" s="19">
@@ -5168,7 +7211,7 @@
       <c r="J10" s="19">
         <v>49</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="70">
         <v>27</v>
       </c>
     </row>
@@ -5180,7 +7223,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>3</v>
       </c>
       <c r="E11" s="19">
@@ -5195,13 +7238,13 @@
       <c r="H11" s="19">
         <v>9</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="69">
         <v>2</v>
       </c>
       <c r="J11" s="19">
         <v>4</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="79">
         <v>4</v>
       </c>
     </row>
@@ -5211,7 +7254,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <v>18</v>
       </c>
       <c r="E12" s="42">
@@ -5226,13 +7269,13 @@
       <c r="H12" s="42">
         <v>4</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="73">
         <v>2</v>
       </c>
       <c r="J12" s="42">
         <v>11</v>
       </c>
-      <c r="K12" s="81">
+      <c r="K12" s="80">
         <v>23</v>
       </c>
     </row>
@@ -5246,28 +7289,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <v>4</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="76">
         <v>61</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="76">
         <v>9</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="77">
         <v>11</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <v>32</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="76">
         <v>11</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="77">
         <v>9</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="82">
         <v>10</v>
       </c>
     </row>
@@ -5276,7 +7319,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="71">
         <v>11</v>
       </c>
       <c r="E14" s="19">
@@ -5288,16 +7331,16 @@
       <c r="G14" s="19">
         <v>9</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <v>9</v>
       </c>
       <c r="I14" s="19">
         <v>25</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="69">
         <v>14</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="79">
         <v>59</v>
       </c>
     </row>
@@ -5309,7 +7352,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>2</v>
       </c>
       <c r="E15" s="19">
@@ -5321,16 +7364,16 @@
       <c r="G15" s="19">
         <v>2</v>
       </c>
-      <c r="H15" s="70">
-        <v>2</v>
-      </c>
-      <c r="I15" s="70">
+      <c r="H15" s="69">
+        <v>2</v>
+      </c>
+      <c r="I15" s="69">
         <v>2</v>
       </c>
       <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="70">
         <v>2</v>
       </c>
     </row>
@@ -5340,10 +7383,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="84">
-        <v>2</v>
-      </c>
-      <c r="E16" s="74">
+      <c r="D16" s="83">
+        <v>2</v>
+      </c>
+      <c r="E16" s="73">
         <v>2</v>
       </c>
       <c r="F16" s="42">
@@ -5352,7 +7395,7 @@
       <c r="G16" s="42">
         <v>2</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="73">
         <v>2</v>
       </c>
       <c r="I16" s="42">
@@ -5361,7 +7404,7 @@
       <c r="J16" s="42">
         <v>2</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="80">
         <v>2</v>
       </c>
     </row>
@@ -5375,28 +7418,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>3</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="77">
         <v>168</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="76">
         <v>10</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="76">
         <v>101</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <v>134</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="77">
         <v>41</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="77">
         <v>11</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="82">
         <v>150</v>
       </c>
     </row>
@@ -5405,13 +7448,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>260</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <v>139</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>26</v>
       </c>
       <c r="G18" s="19">
@@ -5423,10 +7466,10 @@
       <c r="I18" s="19">
         <v>67</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="69">
         <v>11</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="70">
         <v>137</v>
       </c>
     </row>
@@ -5438,28 +7481,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="71">
         <v>4</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="69">
         <v>8</v>
       </c>
       <c r="F19" s="19">
         <v>42</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="69">
         <v>6</v>
       </c>
       <c r="H19" s="19">
         <v>5</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="69">
         <v>4</v>
       </c>
       <c r="J19" s="19">
         <v>8</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="70">
         <v>14</v>
       </c>
     </row>
@@ -5469,10 +7512,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="83">
         <v>20</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <v>15</v>
       </c>
       <c r="F20" s="42">
@@ -5481,16 +7524,16 @@
       <c r="G20" s="42">
         <v>3</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <v>4</v>
       </c>
       <c r="I20" s="42">
         <v>6</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="73">
         <v>22</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="74">
         <v>26</v>
       </c>
     </row>
@@ -5698,19 +7741,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5758,10 +7801,10 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="65">
         <v>10.6</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="66">
         <v>16.899999999999999</v>
       </c>
       <c r="F5" s="54">
@@ -5773,13 +7816,13 @@
       <c r="H5" s="54">
         <v>19.7</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="66">
         <v>142.1</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="66">
         <v>10.9</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="67">
         <v>19.2</v>
       </c>
     </row>
@@ -5788,7 +7831,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>21.3</v>
       </c>
       <c r="E6" s="19">
@@ -5800,16 +7843,16 @@
       <c r="G6" s="19">
         <v>30</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="69">
         <v>24.7</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="69">
         <v>162.69999999999999</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="69">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="70">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -5821,28 +7864,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="71">
         <v>12.4</v>
       </c>
       <c r="E7" s="19">
         <v>22.1</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <v>21.1</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="69">
         <v>19.600000000000001</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <v>20.399999999999999</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="69">
         <v>145.5</v>
       </c>
       <c r="J7" s="19">
         <v>10.3</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="70">
         <v>15.4</v>
       </c>
     </row>
@@ -5852,13 +7895,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <v>19.3</v>
       </c>
       <c r="E8" s="42">
         <v>22.9</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <v>18.399999999999999</v>
       </c>
       <c r="G8" s="42">
@@ -5867,13 +7910,13 @@
       <c r="H8" s="42">
         <v>26</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="73">
         <v>145.80000000000001</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>12.2</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>27.5</v>
       </c>
     </row>
@@ -5887,28 +7930,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <v>20.3</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="76">
         <v>19</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="76">
         <v>22.6</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="76">
         <v>19.5</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="77">
         <v>22.1</v>
       </c>
-      <c r="I9" s="77">
-        <v>1</v>
-      </c>
-      <c r="J9" s="78">
+      <c r="I9" s="76">
+        <v>1</v>
+      </c>
+      <c r="J9" s="77">
         <v>11.8</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="78">
         <v>24</v>
       </c>
     </row>
@@ -5917,19 +7960,19 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="71">
         <v>20.6</v>
       </c>
       <c r="E10" s="19">
         <v>12.9</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <v>37</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="69">
         <v>31.6</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="69">
         <v>27.2</v>
       </c>
       <c r="I10" s="19">
@@ -5938,7 +7981,7 @@
       <c r="J10" s="19">
         <v>24.2</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="70">
         <v>31.3</v>
       </c>
     </row>
@@ -5950,7 +7993,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>7.9</v>
       </c>
       <c r="E11" s="19">
@@ -5965,13 +8008,13 @@
       <c r="H11" s="19">
         <v>17.3</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="69">
         <v>2</v>
       </c>
       <c r="J11" s="19">
         <v>8</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="79">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -5981,7 +8024,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <v>11.6</v>
       </c>
       <c r="E12" s="42">
@@ -5996,13 +8039,13 @@
       <c r="H12" s="42">
         <v>21.8</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="73">
         <v>2</v>
       </c>
       <c r="J12" s="42">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K12" s="81">
+      <c r="K12" s="80">
         <v>17.8</v>
       </c>
     </row>
@@ -6016,28 +8059,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <v>22.7</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="76">
         <v>17.899999999999999</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="76">
         <v>29.4</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="77">
         <v>18.899999999999999</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <v>25.2</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="76">
         <v>25.3</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="77">
         <v>14.3</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="82">
         <v>30.6</v>
       </c>
     </row>
@@ -6046,7 +8089,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="71">
         <v>18.399999999999999</v>
       </c>
       <c r="E14" s="19">
@@ -6058,16 +8101,16 @@
       <c r="G14" s="19">
         <v>31.6</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <v>26.7</v>
       </c>
       <c r="I14" s="19">
         <v>32.299999999999997</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="69">
         <v>16.600000000000001</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="79">
         <v>37.6</v>
       </c>
     </row>
@@ -6079,7 +8122,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>2</v>
       </c>
       <c r="E15" s="19">
@@ -6091,16 +8134,16 @@
       <c r="G15" s="19">
         <v>2</v>
       </c>
-      <c r="H15" s="70">
-        <v>2</v>
-      </c>
-      <c r="I15" s="70">
+      <c r="H15" s="69">
+        <v>2</v>
+      </c>
+      <c r="I15" s="69">
         <v>2</v>
       </c>
       <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="70">
         <v>2</v>
       </c>
     </row>
@@ -6110,10 +8153,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="84">
-        <v>2</v>
-      </c>
-      <c r="E16" s="74">
+      <c r="D16" s="83">
+        <v>2</v>
+      </c>
+      <c r="E16" s="73">
         <v>2</v>
       </c>
       <c r="F16" s="42">
@@ -6122,7 +8165,7 @@
       <c r="G16" s="42">
         <v>2</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="73">
         <v>2</v>
       </c>
       <c r="I16" s="42">
@@ -6131,7 +8174,7 @@
       <c r="J16" s="42">
         <v>2</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="80">
         <v>2</v>
       </c>
     </row>
@@ -6145,28 +8188,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>134.80000000000001</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="77">
         <v>132.9</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="76">
         <v>21.7</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="76">
         <v>75.5</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <v>89.5</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="77">
         <v>24.7</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="77">
         <v>13.5</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="82">
         <v>107.1</v>
       </c>
     </row>
@@ -6175,13 +8218,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>117.6</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <v>123.9</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>18.3</v>
       </c>
       <c r="G18" s="19">
@@ -6193,10 +8236,10 @@
       <c r="I18" s="19">
         <v>31.8</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="69">
         <v>16.5</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="70">
         <v>90</v>
       </c>
     </row>
@@ -6208,28 +8251,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="71">
         <v>21.6</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="69">
         <v>17.5</v>
       </c>
       <c r="F19" s="19">
         <v>29.5</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="69">
         <v>22.7</v>
       </c>
       <c r="H19" s="19">
         <v>24.6</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="69">
         <v>13.1</v>
       </c>
       <c r="J19" s="19">
         <v>16</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="70">
         <v>34</v>
       </c>
     </row>
@@ -6239,10 +8282,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="83">
         <v>26.8</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <v>22.5</v>
       </c>
       <c r="F20" s="42">
@@ -6251,16 +8294,16 @@
       <c r="G20" s="42">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <v>9.3000000000000007</v>
       </c>
       <c r="I20" s="42">
         <v>14</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="73">
         <v>16.100000000000001</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="74">
         <v>22.7</v>
       </c>
     </row>
@@ -6468,19 +8511,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6528,10 +8571,10 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="66">
-        <v>1</v>
-      </c>
-      <c r="E5" s="67">
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="66">
         <v>1</v>
       </c>
       <c r="F5" s="54">
@@ -6543,13 +8586,13 @@
       <c r="H5" s="54">
         <v>1</v>
       </c>
-      <c r="I5" s="67">
-        <v>1</v>
-      </c>
-      <c r="J5" s="67">
-        <v>1</v>
-      </c>
-      <c r="K5" s="68">
+      <c r="I5" s="66">
+        <v>1</v>
+      </c>
+      <c r="J5" s="66">
+        <v>1</v>
+      </c>
+      <c r="K5" s="67">
         <v>1</v>
       </c>
     </row>
@@ -6558,7 +8601,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>2</v>
       </c>
       <c r="E6" s="19">
@@ -6570,16 +8613,16 @@
       <c r="G6" s="19">
         <v>4</v>
       </c>
-      <c r="H6" s="70">
-        <v>2</v>
-      </c>
-      <c r="I6" s="70">
+      <c r="H6" s="69">
+        <v>2</v>
+      </c>
+      <c r="I6" s="69">
         <v>7</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="69">
         <v>4</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="70">
         <v>8</v>
       </c>
     </row>
@@ -6591,28 +8634,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="71">
         <v>1</v>
       </c>
       <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="70">
-        <v>1</v>
-      </c>
-      <c r="G7" s="70">
-        <v>1</v>
-      </c>
-      <c r="H7" s="70">
-        <v>1</v>
-      </c>
-      <c r="I7" s="70">
+      <c r="F7" s="69">
+        <v>1</v>
+      </c>
+      <c r="G7" s="69">
+        <v>1</v>
+      </c>
+      <c r="H7" s="69">
+        <v>1</v>
+      </c>
+      <c r="I7" s="69">
         <v>1</v>
       </c>
       <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="70">
         <v>1</v>
       </c>
     </row>
@@ -6622,13 +8665,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <v>7</v>
       </c>
       <c r="E8" s="42">
         <v>5</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <v>3</v>
       </c>
       <c r="G8" s="42">
@@ -6637,13 +8680,13 @@
       <c r="H8" s="42">
         <v>10</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="73">
         <v>5</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>9</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>9</v>
       </c>
     </row>
@@ -6657,28 +8700,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="76">
-        <v>1</v>
-      </c>
-      <c r="E9" s="77">
-        <v>1</v>
-      </c>
-      <c r="F9" s="77">
-        <v>1</v>
-      </c>
-      <c r="G9" s="77">
-        <v>1</v>
-      </c>
-      <c r="H9" s="78">
-        <v>1</v>
-      </c>
-      <c r="I9" s="77">
-        <v>1</v>
-      </c>
-      <c r="J9" s="78">
-        <v>1</v>
-      </c>
-      <c r="K9" s="79">
+      <c r="D9" s="75">
+        <v>1</v>
+      </c>
+      <c r="E9" s="76">
+        <v>1</v>
+      </c>
+      <c r="F9" s="76">
+        <v>1</v>
+      </c>
+      <c r="G9" s="76">
+        <v>1</v>
+      </c>
+      <c r="H9" s="77">
+        <v>1</v>
+      </c>
+      <c r="I9" s="76">
+        <v>1</v>
+      </c>
+      <c r="J9" s="77">
+        <v>1</v>
+      </c>
+      <c r="K9" s="78">
         <v>1</v>
       </c>
     </row>
@@ -6687,19 +8730,19 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="71">
         <v>6</v>
       </c>
       <c r="E10" s="19">
         <v>5</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <v>9</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="69">
         <v>10</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="69">
         <v>7</v>
       </c>
       <c r="I10" s="19">
@@ -6708,7 +8751,7 @@
       <c r="J10" s="19">
         <v>6</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="70">
         <v>5</v>
       </c>
     </row>
@@ -6720,7 +8763,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>1</v>
       </c>
       <c r="E11" s="19">
@@ -6735,13 +8778,13 @@
       <c r="H11" s="19">
         <v>1</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="69">
         <v>1</v>
       </c>
       <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="79">
         <v>1</v>
       </c>
     </row>
@@ -6751,7 +8794,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <v>7</v>
       </c>
       <c r="E12" s="42">
@@ -6766,13 +8809,13 @@
       <c r="H12" s="42">
         <v>8</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="73">
         <v>2</v>
       </c>
       <c r="J12" s="42">
         <v>8</v>
       </c>
-      <c r="K12" s="81">
+      <c r="K12" s="80">
         <v>6</v>
       </c>
     </row>
@@ -6786,28 +8829,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="82">
-        <v>1</v>
-      </c>
-      <c r="E13" s="77">
-        <v>1</v>
-      </c>
-      <c r="F13" s="77">
-        <v>1</v>
-      </c>
-      <c r="G13" s="78">
-        <v>1</v>
-      </c>
-      <c r="H13" s="77">
-        <v>1</v>
-      </c>
-      <c r="I13" s="77">
-        <v>1</v>
-      </c>
-      <c r="J13" s="78">
-        <v>1</v>
-      </c>
-      <c r="K13" s="83">
+      <c r="D13" s="81">
+        <v>1</v>
+      </c>
+      <c r="E13" s="76">
+        <v>1</v>
+      </c>
+      <c r="F13" s="76">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77">
+        <v>1</v>
+      </c>
+      <c r="H13" s="76">
+        <v>1</v>
+      </c>
+      <c r="I13" s="76">
+        <v>1</v>
+      </c>
+      <c r="J13" s="77">
+        <v>1</v>
+      </c>
+      <c r="K13" s="82">
         <v>1</v>
       </c>
     </row>
@@ -6816,7 +8859,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="71">
         <v>3</v>
       </c>
       <c r="E14" s="19">
@@ -6828,16 +8871,16 @@
       <c r="G14" s="19">
         <v>9</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <v>3</v>
       </c>
       <c r="I14" s="19">
         <v>7</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="69">
         <v>6</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="79">
         <v>9</v>
       </c>
     </row>
@@ -6849,7 +8892,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>1</v>
       </c>
       <c r="E15" s="19">
@@ -6861,16 +8904,16 @@
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="70">
-        <v>1</v>
-      </c>
-      <c r="I15" s="70">
+      <c r="H15" s="69">
+        <v>1</v>
+      </c>
+      <c r="I15" s="69">
         <v>1</v>
       </c>
       <c r="J15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="70">
         <v>1</v>
       </c>
     </row>
@@ -6880,10 +8923,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="83">
         <v>6</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="73">
         <v>10</v>
       </c>
       <c r="F16" s="42">
@@ -6892,7 +8935,7 @@
       <c r="G16" s="42">
         <v>6</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="73">
         <v>2</v>
       </c>
       <c r="I16" s="42">
@@ -6901,7 +8944,7 @@
       <c r="J16" s="42">
         <v>10</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="80">
         <v>4</v>
       </c>
     </row>
@@ -6915,28 +8958,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="76">
-        <v>1</v>
-      </c>
-      <c r="E17" s="78">
-        <v>1</v>
-      </c>
-      <c r="F17" s="77">
-        <v>1</v>
-      </c>
-      <c r="G17" s="77">
-        <v>1</v>
-      </c>
-      <c r="H17" s="77">
-        <v>1</v>
-      </c>
-      <c r="I17" s="78">
-        <v>1</v>
-      </c>
-      <c r="J17" s="78">
-        <v>1</v>
-      </c>
-      <c r="K17" s="83">
+      <c r="D17" s="75">
+        <v>1</v>
+      </c>
+      <c r="E17" s="77">
+        <v>1</v>
+      </c>
+      <c r="F17" s="76">
+        <v>1</v>
+      </c>
+      <c r="G17" s="76">
+        <v>1</v>
+      </c>
+      <c r="H17" s="76">
+        <v>1</v>
+      </c>
+      <c r="I17" s="77">
+        <v>1</v>
+      </c>
+      <c r="J17" s="77">
+        <v>1</v>
+      </c>
+      <c r="K17" s="82">
         <v>1</v>
       </c>
     </row>
@@ -6945,13 +8988,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>6</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <v>10</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>8</v>
       </c>
       <c r="G18" s="19">
@@ -6963,10 +9006,10 @@
       <c r="I18" s="19">
         <v>7</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="69">
         <v>7</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="70">
         <v>5</v>
       </c>
     </row>
@@ -6978,28 +9021,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="72">
-        <v>1</v>
-      </c>
-      <c r="E19" s="70">
+      <c r="D19" s="71">
+        <v>1</v>
+      </c>
+      <c r="E19" s="69">
         <v>1</v>
       </c>
       <c r="F19" s="19">
         <v>1</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="69">
         <v>1</v>
       </c>
       <c r="H19" s="19">
         <v>1</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="69">
         <v>1</v>
       </c>
       <c r="J19" s="19">
         <v>1</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="70">
         <v>1</v>
       </c>
     </row>
@@ -7009,10 +9052,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="83">
         <v>9</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <v>4</v>
       </c>
       <c r="F20" s="42">
@@ -7021,16 +9064,16 @@
       <c r="G20" s="42">
         <v>2</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <v>3</v>
       </c>
       <c r="I20" s="42">
         <v>6</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="73">
         <v>6</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="74">
         <v>10</v>
       </c>
     </row>
@@ -7238,19 +9281,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7298,10 +9341,10 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="66">
-        <v>1</v>
-      </c>
-      <c r="E5" s="67">
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="66">
         <v>1</v>
       </c>
       <c r="F5" s="54">
@@ -7313,13 +9356,13 @@
       <c r="H5" s="54">
         <v>1</v>
       </c>
-      <c r="I5" s="67">
-        <v>1</v>
-      </c>
-      <c r="J5" s="67">
-        <v>1</v>
-      </c>
-      <c r="K5" s="68">
+      <c r="I5" s="66">
+        <v>1</v>
+      </c>
+      <c r="J5" s="66">
+        <v>1</v>
+      </c>
+      <c r="K5" s="67">
         <v>1</v>
       </c>
     </row>
@@ -7328,7 +9371,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>3.8</v>
       </c>
       <c r="E6" s="19">
@@ -7340,16 +9383,16 @@
       <c r="G6" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="69">
         <v>6.4</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="69">
         <v>5.7</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="69">
         <v>4.2</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="70">
         <v>5</v>
       </c>
     </row>
@@ -7361,28 +9404,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="71">
         <v>1</v>
       </c>
       <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="70">
-        <v>1</v>
-      </c>
-      <c r="G7" s="70">
-        <v>1</v>
-      </c>
-      <c r="H7" s="70">
-        <v>1</v>
-      </c>
-      <c r="I7" s="70">
+      <c r="F7" s="69">
+        <v>1</v>
+      </c>
+      <c r="G7" s="69">
+        <v>1</v>
+      </c>
+      <c r="H7" s="69">
+        <v>1</v>
+      </c>
+      <c r="I7" s="69">
         <v>1</v>
       </c>
       <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="70">
         <v>1</v>
       </c>
     </row>
@@ -7392,13 +9435,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <v>6.3</v>
       </c>
       <c r="E8" s="42">
         <v>6.1</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <v>5.9</v>
       </c>
       <c r="G8" s="42">
@@ -7407,13 +9450,13 @@
       <c r="H8" s="42">
         <v>6.1</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="73">
         <v>6.5</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>7.4</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>7.1</v>
       </c>
     </row>
@@ -7427,28 +9470,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="76">
-        <v>1</v>
-      </c>
-      <c r="E9" s="77">
-        <v>1</v>
-      </c>
-      <c r="F9" s="77">
-        <v>1</v>
-      </c>
-      <c r="G9" s="77">
-        <v>1</v>
-      </c>
-      <c r="H9" s="78">
-        <v>1</v>
-      </c>
-      <c r="I9" s="77">
-        <v>1</v>
-      </c>
-      <c r="J9" s="78">
-        <v>1</v>
-      </c>
-      <c r="K9" s="79">
+      <c r="D9" s="75">
+        <v>1</v>
+      </c>
+      <c r="E9" s="76">
+        <v>1</v>
+      </c>
+      <c r="F9" s="76">
+        <v>1</v>
+      </c>
+      <c r="G9" s="76">
+        <v>1</v>
+      </c>
+      <c r="H9" s="77">
+        <v>1</v>
+      </c>
+      <c r="I9" s="76">
+        <v>1</v>
+      </c>
+      <c r="J9" s="77">
+        <v>1</v>
+      </c>
+      <c r="K9" s="78">
         <v>1</v>
       </c>
     </row>
@@ -7457,19 +9500,19 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="71">
         <v>5.8</v>
       </c>
       <c r="E10" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <v>6.1</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="69">
         <v>7.4</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="69">
         <v>6.8</v>
       </c>
       <c r="I10" s="19">
@@ -7478,7 +9521,7 @@
       <c r="J10" s="19">
         <v>4.3</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="70">
         <v>6.9</v>
       </c>
     </row>
@@ -7490,7 +9533,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>1</v>
       </c>
       <c r="E11" s="19">
@@ -7505,13 +9548,13 @@
       <c r="H11" s="19">
         <v>1</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="69">
         <v>1</v>
       </c>
       <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="79">
         <v>1</v>
       </c>
     </row>
@@ -7521,7 +9564,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <v>5.3</v>
       </c>
       <c r="E12" s="42">
@@ -7536,13 +9579,13 @@
       <c r="H12" s="42">
         <v>6.5</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="73">
         <v>5</v>
       </c>
       <c r="J12" s="42">
         <v>6.4</v>
       </c>
-      <c r="K12" s="81">
+      <c r="K12" s="80">
         <v>5.9</v>
       </c>
     </row>
@@ -7556,28 +9599,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="82">
-        <v>1</v>
-      </c>
-      <c r="E13" s="77">
-        <v>1</v>
-      </c>
-      <c r="F13" s="77">
-        <v>1</v>
-      </c>
-      <c r="G13" s="78">
-        <v>1</v>
-      </c>
-      <c r="H13" s="77">
-        <v>1</v>
-      </c>
-      <c r="I13" s="77">
-        <v>1</v>
-      </c>
-      <c r="J13" s="78">
-        <v>1</v>
-      </c>
-      <c r="K13" s="83">
+      <c r="D13" s="81">
+        <v>1</v>
+      </c>
+      <c r="E13" s="76">
+        <v>1</v>
+      </c>
+      <c r="F13" s="76">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77">
+        <v>1</v>
+      </c>
+      <c r="H13" s="76">
+        <v>1</v>
+      </c>
+      <c r="I13" s="76">
+        <v>1</v>
+      </c>
+      <c r="J13" s="77">
+        <v>1</v>
+      </c>
+      <c r="K13" s="82">
         <v>1</v>
       </c>
     </row>
@@ -7586,7 +9629,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="71">
         <v>7</v>
       </c>
       <c r="E14" s="19">
@@ -7598,16 +9641,16 @@
       <c r="G14" s="19">
         <v>7.6</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <v>6.7</v>
       </c>
       <c r="I14" s="19">
         <v>7.6</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="69">
         <v>5.4</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="79">
         <v>6.4</v>
       </c>
     </row>
@@ -7619,7 +9662,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>1</v>
       </c>
       <c r="E15" s="19">
@@ -7631,16 +9674,16 @@
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="70">
-        <v>1</v>
-      </c>
-      <c r="I15" s="70">
+      <c r="H15" s="69">
+        <v>1</v>
+      </c>
+      <c r="I15" s="69">
         <v>1</v>
       </c>
       <c r="J15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="70">
         <v>1</v>
       </c>
     </row>
@@ -7650,10 +9693,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="83">
         <v>7</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="73">
         <v>5</v>
       </c>
       <c r="F16" s="42">
@@ -7662,7 +9705,7 @@
       <c r="G16" s="42">
         <v>5.5</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="73">
         <v>5.0999999999999996</v>
       </c>
       <c r="I16" s="42">
@@ -7671,7 +9714,7 @@
       <c r="J16" s="42">
         <v>7.2</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="80">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7685,28 +9728,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="76">
-        <v>1</v>
-      </c>
-      <c r="E17" s="78">
-        <v>1</v>
-      </c>
-      <c r="F17" s="77">
-        <v>1</v>
-      </c>
-      <c r="G17" s="77">
-        <v>1</v>
-      </c>
-      <c r="H17" s="77">
-        <v>1</v>
-      </c>
-      <c r="I17" s="78">
-        <v>1</v>
-      </c>
-      <c r="J17" s="78">
-        <v>1</v>
-      </c>
-      <c r="K17" s="83">
+      <c r="D17" s="75">
+        <v>1</v>
+      </c>
+      <c r="E17" s="77">
+        <v>1</v>
+      </c>
+      <c r="F17" s="76">
+        <v>1</v>
+      </c>
+      <c r="G17" s="76">
+        <v>1</v>
+      </c>
+      <c r="H17" s="76">
+        <v>1</v>
+      </c>
+      <c r="I17" s="77">
+        <v>1</v>
+      </c>
+      <c r="J17" s="77">
+        <v>1</v>
+      </c>
+      <c r="K17" s="82">
         <v>1</v>
       </c>
     </row>
@@ -7715,13 +9758,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <v>6.2</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>5.9</v>
       </c>
       <c r="G18" s="19">
@@ -7733,10 +9776,10 @@
       <c r="I18" s="19">
         <v>6.2</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="69">
         <v>4.8</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="70">
         <v>5.2</v>
       </c>
     </row>
@@ -7748,28 +9791,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="72">
-        <v>1</v>
-      </c>
-      <c r="E19" s="70">
+      <c r="D19" s="71">
+        <v>1</v>
+      </c>
+      <c r="E19" s="69">
         <v>1</v>
       </c>
       <c r="F19" s="19">
         <v>1</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="69">
         <v>1</v>
       </c>
       <c r="H19" s="19">
         <v>1</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="69">
         <v>1</v>
       </c>
       <c r="J19" s="19">
         <v>1</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="70">
         <v>1</v>
       </c>
     </row>
@@ -7779,10 +9822,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="83">
         <v>6.6</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <v>4.4000000000000004</v>
       </c>
       <c r="F20" s="42">
@@ -7791,16 +9834,16 @@
       <c r="G20" s="42">
         <v>6.4</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <v>6.6</v>
       </c>
       <c r="I20" s="42">
         <v>5.5</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="73">
         <v>6.2</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="74">
         <v>5.9</v>
       </c>
     </row>
@@ -8014,24 +10057,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8041,29 +10084,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="87" t="s">
+      <c r="L3" s="87"/>
+      <c r="M3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="87" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="89"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -9128,7 +11171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E093FD04-CF21-4625-BBAE-D18349CAAAA7}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -9153,61 +11196,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="87" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="87" t="s">
+      <c r="G3" s="87"/>
+      <c r="H3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="87" t="s">
+      <c r="I3" s="87"/>
+      <c r="J3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="87" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="87" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="87" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="89"/>
+      <c r="S3" s="88"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751AC4C-CDE6-460F-A218-82BF834179D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F857F39F-E65F-4B47-939F-7E00B2698C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="36">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>Comparison: NN x KNN</t>
   </si>
+  <si>
+    <t>Sparsification Method</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +166,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +176,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -635,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,7 +897,52 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -904,79 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1265,37 +1249,37 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1349,7 @@
         <v>0.93609671848013798</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1395,7 +1379,7 @@
         <v>0.93609671848013798</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1428,7 +1412,7 @@
         <v>0.89982728842832505</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1459,7 +1443,7 @@
         <v>0.93609671848013798</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1478,7 @@
         <v>0.93436960276338499</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1524,7 +1508,7 @@
         <v>0.94127806563039695</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -1557,7 +1541,7 @@
         <v>0.930915371329879</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1588,7 +1572,7 @@
         <v>0.95854922279792698</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1623,7 +1607,7 @@
         <v>0.89119170984455998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1653,7 +1637,7 @@
         <v>0.930915371329879</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -1686,7 +1670,7 @@
         <v>0.94300518134714995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1717,7 +1701,7 @@
         <v>0.94818652849740903</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1736,7 @@
         <v>0.90500863557858402</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1782,7 +1766,7 @@
         <v>0.92055267702936106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -1815,7 +1799,7 @@
         <v>0.92055267702936106</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -1846,7 +1830,7 @@
         <v>0.95164075993091501</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1856,7 +1840,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -1867,7 +1851,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1877,7 +1861,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1887,7 +1871,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1897,7 +1881,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1907,7 +1891,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1917,7 +1901,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -1927,7 +1911,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -1937,7 +1921,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -1947,7 +1931,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -1957,7 +1941,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -1967,7 +1951,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -1977,7 +1961,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -1987,7 +1971,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -1997,7 +1981,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -2007,7 +1991,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2017,7 +2001,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2027,7 +2011,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2037,7 +2021,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2047,7 +2031,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2057,7 +2041,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -2067,7 +2051,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -2077,7 +2061,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -2087,7 +2071,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -2097,7 +2081,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -2107,7 +2091,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -2117,7 +2101,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -2127,7 +2111,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -2137,7 +2121,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -2147,7 +2131,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -2157,7 +2141,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -2167,7 +2151,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -2193,39 +2177,39 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2295,7 +2279,7 @@
         <v>0.72617637492805698</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -2326,7 +2310,7 @@
         <v>0.74579676238197901</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2359,7 +2343,7 @@
         <v>0.59366223621815295</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2390,7 +2374,7 @@
         <v>0.75403626540477797</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2425,7 +2409,7 @@
         <v>0.70571206355126603</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -2456,7 +2440,7 @@
         <v>0.73045758835533203</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2489,7 +2473,7 @@
         <v>0.6725355924134</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2520,7 +2504,7 @@
         <v>0.80977177027299296</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2555,7 +2539,7 @@
         <v>0.61752380879604396</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -2586,7 +2570,7 @@
         <v>0.713955639863733</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2619,7 +2603,7 @@
         <v>0.71781809291601795</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2650,7 +2634,7 @@
         <v>0.74570260683253797</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2669,7 @@
         <v>0.65963046374517897</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -2716,7 +2700,7 @@
         <v>0.69815357454953897</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2749,7 +2733,7 @@
         <v>0.64803978848801502</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2796,39 +2780,39 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2898,7 +2882,7 @@
         <v>0.86220049528832898</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -2929,7 +2913,7 @@
         <v>0.86924837498855601</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2962,7 +2946,7 @@
         <v>0.79399568140550603</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2993,7 +2977,7 @@
         <v>0.87182678098132704</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3028,7 +3012,7 @@
         <v>0.85280974043350299</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -3059,7 +3043,7 @@
         <v>0.865179158448389</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3092,7 +3076,7 @@
         <v>0.83546462063086102</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -3123,7 +3107,7 @@
         <v>0.90483234714004002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3142,7 @@
         <v>0.79735562901030499</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -3189,7 +3173,7 @@
         <v>0.85495991983967901</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -3222,7 +3206,7 @@
         <v>0.85202710551790894</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3253,7 +3237,7 @@
         <v>0.85629426169832601</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3288,7 +3272,7 @@
         <v>0.81991890837324799</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -3319,7 +3303,7 @@
         <v>0.84295249775932801</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3352,7 +3336,7 @@
         <v>0.823849206349206</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3396,72 +3380,72 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
-      <c r="M3" s="109" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="M3" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="111"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -3494,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>2</v>
@@ -3527,7 +3511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3537,28 +3521,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="84">
         <v>0.85267702936096701</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="12">
         <v>0.83644214162348896</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="12">
         <v>0.85630397236614897</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="12">
         <v>0.836096718480138</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="12">
         <v>0.83367875647668399</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="85">
         <v>0.85405872193437005</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="85">
         <v>0.87789291882556098</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="46">
         <v>0.83402417962003506</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -3598,38 +3582,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="112">
+      <c r="W5" s="93">
         <f t="shared" si="0"/>
         <v>-2.4870466321242901E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="47">
         <v>0.89119170984455998</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="13">
         <v>0.86943005181347099</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="86">
         <v>0.89378238341968896</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="13">
         <v>0.88618307426597598</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="86">
         <v>0.90449050086355798</v>
       </c>
-      <c r="I6" s="96">
+      <c r="I6" s="86">
         <v>0.92245250431778902</v>
       </c>
-      <c r="J6" s="95">
+      <c r="J6" s="13">
         <v>0.86960276338514697</v>
       </c>
-      <c r="K6" s="97">
+      <c r="K6" s="15">
         <v>0.86252158894646003</v>
       </c>
       <c r="M6" s="4"/>
@@ -3665,12 +3649,12 @@
         <f t="shared" si="0"/>
         <v>-1.3298791018998002E-2</v>
       </c>
-      <c r="W6" s="113">
+      <c r="W6" s="94">
         <f t="shared" si="0"/>
         <v>-5.5267702936089291E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -3678,28 +3662,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="47">
         <v>0.85906735751295304</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="13">
         <v>0.84594127806563102</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="86">
         <v>0.87046632124352297</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="13">
         <v>0.82970639032815197</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="13">
         <v>0.84473229706390296</v>
       </c>
-      <c r="I7" s="96">
+      <c r="I7" s="86">
         <v>0.89775474956822099</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="86">
         <v>0.87702936096718498</v>
       </c>
-      <c r="K7" s="97">
+      <c r="K7" s="15">
         <v>0.81623488773747799</v>
       </c>
       <c r="M7" s="4"/>
@@ -3737,39 +3721,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="113">
+      <c r="W7" s="94">
         <f t="shared" si="0"/>
         <v>-4.0069084628670981E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="87">
         <v>0.90587219343696002</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="14">
         <v>0.89240069084628704</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="14">
         <v>0.89430051813471501</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="14">
         <v>0.85561312607944695</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="14">
         <v>0.88013816925734001</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="88">
         <v>0.92867012089809997</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="88">
         <v>0.90189982728842799</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="49">
         <v>0.89050086355785796</v>
       </c>
       <c r="M8" s="5"/>
@@ -3805,12 +3789,12 @@
         <f t="shared" si="0"/>
         <v>-9.8445595854930179E-3</v>
       </c>
-      <c r="W8" s="114">
+      <c r="W8" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3820,28 +3804,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="89">
         <v>0.86407599309153704</v>
       </c>
-      <c r="E9" s="103">
+      <c r="E9" s="51">
         <v>0.85146804835923995</v>
       </c>
-      <c r="F9" s="104">
+      <c r="F9" s="90">
         <v>0.87944732297063899</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="51">
         <v>0.85837651122625203</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="51">
         <v>0.83385146804835897</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="51">
         <v>0.42521588946459399</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="90">
         <v>0.86183074265975801</v>
       </c>
-      <c r="K9" s="105">
+      <c r="K9" s="52">
         <v>0.85889464594127796</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -3881,38 +3865,38 @@
         <f t="shared" si="1"/>
         <v>-1.6062176165802966E-2</v>
       </c>
-      <c r="W9" s="112">
+      <c r="W9" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="91">
         <v>0.87512953367875701</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="13">
         <v>0.86822107081174504</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="86">
         <v>0.87806563039723695</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="13">
         <v>0.86234887737478405</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="86">
         <v>0.87495682210708103</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="13">
         <v>0.5</v>
       </c>
-      <c r="J10" s="95">
+      <c r="J10" s="13">
         <v>0.86113989637305699</v>
       </c>
-      <c r="K10" s="97">
+      <c r="K10" s="15">
         <v>0.86217616580310896</v>
       </c>
       <c r="M10" s="4"/>
@@ -3948,12 +3932,12 @@
         <f t="shared" si="1"/>
         <v>-2.1761658031087983E-2</v>
       </c>
-      <c r="W10" s="113">
+      <c r="W10" s="94">
         <f t="shared" si="1"/>
         <v>-5.8721934369599937E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3961,28 +3945,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="91">
         <v>0.86839378238342002</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="13">
         <v>0.80328151986183105</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="86">
         <v>0.85164075993091604</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="13">
         <v>0.82037996545768599</v>
       </c>
-      <c r="H11" s="95">
+      <c r="H11" s="13">
         <v>0.81191709844559601</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="13">
         <v>0.83816925734024195</v>
       </c>
-      <c r="J11" s="96">
+      <c r="J11" s="86">
         <v>0.86459412780656297</v>
       </c>
-      <c r="K11" s="107">
+      <c r="K11" s="92">
         <v>0.85630397236614897</v>
       </c>
       <c r="M11" s="4"/>
@@ -4020,39 +4004,39 @@
         <f t="shared" si="1"/>
         <v>-1.2435233160622006E-2</v>
       </c>
-      <c r="W11" s="113">
+      <c r="W11" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="87">
         <v>0.90172711571675301</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="14">
         <v>0.86390328151986195</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="88">
         <v>0.88531951640759898</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="14">
         <v>0.86683937823834201</v>
       </c>
-      <c r="H12" s="99">
+      <c r="H12" s="14">
         <v>0.84283246977547499</v>
       </c>
-      <c r="I12" s="99">
+      <c r="I12" s="14">
         <v>0.78480138169257296</v>
       </c>
-      <c r="J12" s="100">
+      <c r="J12" s="88">
         <v>0.899309153713299</v>
       </c>
-      <c r="K12" s="101">
+      <c r="K12" s="49">
         <v>0.85958549222797898</v>
       </c>
       <c r="M12" s="5"/>
@@ -4088,12 +4072,12 @@
         <f t="shared" si="1"/>
         <v>-1.2435233160622006E-2</v>
       </c>
-      <c r="W12" s="114">
+      <c r="W12" s="95">
         <f t="shared" si="1"/>
         <v>-3.0915371329878982E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4103,28 +4087,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="89">
         <v>0.86027633851467999</v>
       </c>
-      <c r="E13" s="103">
+      <c r="E13" s="51">
         <v>0.81312607944732296</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="51">
         <v>0.82746113989637304</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="51">
         <v>0.82348877374784102</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="90">
         <v>0.84231433506044895</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="90">
         <v>0.84231433506044895</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="51">
         <v>0.83903281519861805</v>
       </c>
-      <c r="K13" s="105">
+      <c r="K13" s="52">
         <v>0.84075993091537105</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -4164,38 +4148,38 @@
         <f t="shared" si="2"/>
         <v>-3.8860103626942921E-2</v>
       </c>
-      <c r="W13" s="112">
+      <c r="W13" s="93">
         <f t="shared" si="2"/>
         <v>-1.8134715025906911E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="91">
         <v>0.87858376511226299</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="13">
         <v>0.86701208981001698</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="13">
         <v>0.87150259067357505</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="86">
         <v>0.88480138169257305</v>
       </c>
-      <c r="H14" s="96">
+      <c r="H14" s="86">
         <v>0.88549222797927496</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="13">
         <v>0.841968911917098</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="13">
         <v>0.85993091537133004</v>
       </c>
-      <c r="K14" s="97">
+      <c r="K14" s="15">
         <v>0.86804835924006896</v>
       </c>
       <c r="M14" s="4"/>
@@ -4231,12 +4215,12 @@
         <f t="shared" si="2"/>
         <v>-2.2970639032814932E-2</v>
       </c>
-      <c r="W14" s="113">
+      <c r="W14" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4244,28 +4228,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="91">
         <v>0.76355785837651102</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="13">
         <v>0.34507772020725402</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="13">
         <v>0.28238341968911901</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="13">
         <v>0.51295336787564805</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="86">
         <v>0.77443868739205501</v>
       </c>
-      <c r="I15" s="96">
+      <c r="I15" s="86">
         <v>0.791191709844559</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="13">
         <v>0.55975820379965502</v>
       </c>
-      <c r="K15" s="97">
+      <c r="K15" s="15">
         <v>0.56027633851468095</v>
       </c>
       <c r="M15" s="4"/>
@@ -4303,39 +4287,39 @@
         <f t="shared" si="2"/>
         <v>-0.31727115716752996</v>
       </c>
-      <c r="W15" s="113">
+      <c r="W15" s="94">
         <f t="shared" si="2"/>
         <v>-0.29602763385146802</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="87">
         <v>0.77409326424870495</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="14">
         <v>0.61139896373057001</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="88">
         <v>0.79689119170984501</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="14">
         <v>0.46683937823834198</v>
       </c>
-      <c r="H16" s="99">
+      <c r="H16" s="14">
         <v>0.76597582037996503</v>
       </c>
-      <c r="I16" s="100">
+      <c r="I16" s="88">
         <v>0.77962003454231399</v>
       </c>
-      <c r="J16" s="99">
+      <c r="J16" s="14">
         <v>0.717962003454231</v>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="49">
         <v>0.48134715025906699</v>
       </c>
       <c r="M16" s="5"/>
@@ -4371,12 +4355,12 @@
         <f t="shared" si="2"/>
         <v>-0.19378238341969001</v>
       </c>
-      <c r="W16" s="114">
+      <c r="W16" s="95">
         <f t="shared" si="2"/>
         <v>-0.40915371329879097</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4386,28 +4370,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="50">
         <v>0.790328151986183</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="90">
         <v>0.87789291882556098</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="90">
         <v>0.87806563039723695</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G17" s="51">
         <v>0.82348877374784102</v>
       </c>
-      <c r="H17" s="103">
+      <c r="H17" s="51">
         <v>0.83229706390328095</v>
       </c>
-      <c r="I17" s="104">
+      <c r="I17" s="90">
         <v>0.88255613126079502</v>
       </c>
-      <c r="J17" s="103">
+      <c r="J17" s="51">
         <v>0.85198618307426599</v>
       </c>
-      <c r="K17" s="105">
+      <c r="K17" s="52">
         <v>0.844386873920553</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -4447,38 +4431,38 @@
         <f t="shared" si="3"/>
         <v>-2.5906735751294985E-2</v>
       </c>
-      <c r="W17" s="112">
+      <c r="W17" s="93">
         <f t="shared" si="3"/>
         <v>-1.4507772020724952E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="47">
         <v>0.79274611398963701</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="13">
         <v>0.87789291882556098</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F18" s="86">
         <v>0.899309153713299</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="13">
         <v>0.87754749568221102</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="13">
         <v>0.88151986183074305</v>
       </c>
-      <c r="I18" s="96">
+      <c r="I18" s="86">
         <v>0.88842832469775501</v>
       </c>
-      <c r="J18" s="96">
+      <c r="J18" s="86">
         <v>0.88290155440414497</v>
       </c>
-      <c r="K18" s="97">
+      <c r="K18" s="15">
         <v>0.86563039723661495</v>
       </c>
       <c r="M18" s="4"/>
@@ -4514,12 +4498,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W18" s="113">
+      <c r="W18" s="94">
         <f t="shared" si="3"/>
         <v>-2.4179620034540106E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4527,28 +4511,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="106">
+      <c r="D19" s="91">
         <v>0.85181347150259101</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="13">
         <v>0.82918825561312604</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="86">
         <v>0.85457685664939498</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="13">
         <v>0.81053540587219397</v>
       </c>
-      <c r="H19" s="95">
+      <c r="H19" s="13">
         <v>0.83005181347150303</v>
       </c>
-      <c r="I19" s="96">
+      <c r="I19" s="86">
         <v>0.88981001727115705</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="13">
         <v>0.83471502590673596</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="15">
         <v>0.82797927461139897</v>
       </c>
       <c r="M19" s="4"/>
@@ -4586,39 +4570,39 @@
         <f t="shared" si="3"/>
         <v>-4.2314335060449015E-2</v>
       </c>
-      <c r="W19" s="113">
+      <c r="W19" s="94">
         <f t="shared" si="3"/>
         <v>-2.8324697754749995E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="87">
         <v>0.88255613126079402</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="88">
         <v>0.88013816925734001</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F20" s="14">
         <v>0.84490500863557905</v>
       </c>
-      <c r="G20" s="99">
+      <c r="G20" s="14">
         <v>0.87322970639032804</v>
       </c>
-      <c r="H20" s="99">
+      <c r="H20" s="14">
         <v>0.87409326424870504</v>
       </c>
-      <c r="I20" s="100">
+      <c r="I20" s="88">
         <v>0.90241796200345403</v>
       </c>
-      <c r="J20" s="100">
+      <c r="J20" s="88">
         <v>0.91174438687392101</v>
       </c>
-      <c r="K20" s="101">
+      <c r="K20" s="49">
         <v>0.86943005181347099</v>
       </c>
       <c r="M20" s="5"/>
@@ -4654,12 +4638,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W20" s="114">
+      <c r="W20" s="95">
         <f t="shared" si="3"/>
         <v>-2.1070811744386964E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -4669,37 +4653,37 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109" t="s">
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="111"/>
-      <c r="M22" s="109" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="M22" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="111"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="99"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -4731,8 +4715,8 @@
       <c r="K23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>0</v>
+      <c r="M23" s="105" t="s">
+        <v>35</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>2</v>
@@ -4765,7 +4749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -4849,7 +4833,7 @@
         <v>-2.8497409326424972E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -4924,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
@@ -5004,7 +4988,7 @@
         <v>-7.426597582037997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -5080,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -5164,7 +5148,7 @@
         <v>-3.281519861831006E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -5239,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1">
         <v>2</v>
@@ -5319,7 +5303,7 @@
         <v>-3.2815198618300068E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -5395,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +5463,7 @@
         <v>-2.7288428324697911E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -5554,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1">
         <v>2</v>
@@ -5634,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -5710,7 +5694,7 @@
         <v>-7.8929188255613958E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -5794,7 +5778,7 @@
         <v>-2.1243523316061941E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -5869,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="1">
         <v>2</v>
@@ -5949,7 +5933,7 @@
         <v>-4.145077720207202E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
@@ -6025,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6035,7 +6019,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6045,7 +6029,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6055,7 +6039,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6065,7 +6049,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6075,7 +6059,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6085,7 +6069,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6095,7 +6079,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6105,7 +6089,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6115,7 +6099,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6125,7 +6109,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6135,7 +6119,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6145,7 +6129,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6155,7 +6139,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6185,37 +6169,37 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6250,7 +6234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6285,7 +6269,7 @@
         <v>0.862694300518135</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -6315,7 +6299,7 @@
         <v>0.862694300518135</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6348,7 +6332,7 @@
         <v>0.81951640759930899</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6379,7 +6363,7 @@
         <v>0.89550949913644196</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6414,7 +6398,7 @@
         <v>0.86528497409326399</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -6444,7 +6428,7 @@
         <v>0.89032815198618298</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6477,7 +6461,7 @@
         <v>0.85060449050086395</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6508,7 +6492,7 @@
         <v>0.86787564766839398</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6543,7 +6527,7 @@
         <v>0.83678756476684002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -6573,7 +6557,7 @@
         <v>0.85664939550949903</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6606,7 +6590,7 @@
         <v>0.66925734024179595</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6637,7 +6621,7 @@
         <v>0.39291882556131302</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6672,7 +6656,7 @@
         <v>0.86096718480138201</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -6702,7 +6686,7 @@
         <v>0.87046632124352297</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -6735,7 +6719,7 @@
         <v>0.83851468048359201</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6766,10 +6750,10 @@
         <v>0.87564766839378205</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6779,7 +6763,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6789,7 +6773,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6799,7 +6783,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6809,7 +6793,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6819,7 +6803,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6829,7 +6813,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6839,7 +6823,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6849,7 +6833,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6859,7 +6843,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6869,7 +6853,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6879,7 +6863,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6889,7 +6873,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6899,7 +6883,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6909,7 +6893,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6919,7 +6903,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6929,7 +6913,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6955,38 +6939,38 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7021,7 +7005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7056,7 +7040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7086,7 +7070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7119,7 +7103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7150,7 +7134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7185,7 +7169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7215,7 +7199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7248,7 +7232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7279,7 +7263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7314,7 +7298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7344,7 +7328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7377,7 +7361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7408,7 +7392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7443,7 +7427,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7473,7 +7457,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7506,7 +7490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7537,10 +7521,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7550,7 +7534,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7560,7 +7544,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -7570,7 +7554,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -7580,7 +7564,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7590,7 +7574,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7600,7 +7584,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7610,7 +7594,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7620,7 +7604,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7630,7 +7614,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7640,7 +7624,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7650,7 +7634,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7660,7 +7644,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7670,7 +7654,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7680,7 +7664,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7690,7 +7674,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7700,7 +7684,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7726,37 +7710,37 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7791,7 +7775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7826,7 +7810,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7856,7 +7840,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7889,7 +7873,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7920,7 +7904,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7955,7 +7939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7985,7 +7969,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8018,7 +8002,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8049,7 +8033,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8084,7 +8068,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -8114,7 +8098,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -8147,7 +8131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8178,7 +8162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8213,7 +8197,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -8243,7 +8227,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -8276,7 +8260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -8307,10 +8291,10 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8320,7 +8304,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8330,7 +8314,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8340,7 +8324,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8350,7 +8334,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8360,7 +8344,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8370,7 +8354,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8380,7 +8364,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8390,7 +8374,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8400,7 +8384,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8410,7 +8394,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8420,7 +8404,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8430,7 +8414,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8440,7 +8424,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8450,7 +8434,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8460,7 +8444,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8470,7 +8454,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8496,37 +8480,37 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8561,7 +8545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8596,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8626,7 +8610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8659,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8690,7 +8674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8725,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8755,7 +8739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8788,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8819,7 +8803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8854,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -8884,7 +8868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -8917,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8948,7 +8932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8983,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9013,7 +8997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9046,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -9077,10 +9061,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9090,7 +9074,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9100,7 +9084,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9110,7 +9094,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9120,7 +9104,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9130,7 +9114,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9140,7 +9124,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9150,7 +9134,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9160,7 +9144,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9170,7 +9154,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9180,7 +9164,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9190,7 +9174,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9200,7 +9184,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9210,7 +9194,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9220,7 +9204,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9230,7 +9214,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9240,7 +9224,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9266,37 +9250,37 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9331,7 +9315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9366,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -9396,7 +9380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9429,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -9460,7 +9444,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9495,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -9525,7 +9509,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -9558,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -9589,7 +9573,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9624,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9654,7 +9638,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9687,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9718,7 +9702,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9753,7 +9737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9783,7 +9767,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9816,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -9847,10 +9831,10 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9860,7 +9844,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9870,7 +9854,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9880,7 +9864,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9890,7 +9874,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9900,7 +9884,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9910,7 +9894,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9920,7 +9904,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9930,7 +9914,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9940,7 +9924,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9950,7 +9934,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9960,7 +9944,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9970,7 +9954,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9980,7 +9964,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9990,7 +9974,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10000,7 +9984,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10010,7 +9994,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -10036,79 +10020,79 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="86" t="s">
+      <c r="L3" s="102"/>
+      <c r="M3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="87"/>
-      <c r="O3" s="86" t="s">
+      <c r="N3" s="102"/>
+      <c r="O3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="88"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="103"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -10158,7 +10142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10208,7 +10192,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
@@ -10253,7 +10237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10301,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
@@ -10347,7 +10331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10397,7 +10381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
@@ -10442,7 +10426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10490,7 +10474,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="23" t="s">
@@ -10536,7 +10520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10586,7 +10570,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -10631,7 +10615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -10679,7 +10663,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="23" t="s">
@@ -10725,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -10775,7 +10759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
@@ -10820,7 +10804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -10868,7 +10852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="23" t="s">
@@ -10914,10 +10898,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10931,7 +10915,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10945,7 +10929,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10959,7 +10943,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10973,7 +10957,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10987,7 +10971,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -11001,7 +10985,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -11015,7 +10999,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -11029,7 +11013,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -11043,7 +11027,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11057,7 +11041,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -11071,7 +11055,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -11085,7 +11069,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -11099,7 +11083,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -11113,7 +11097,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -11127,7 +11111,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -11141,7 +11125,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -11175,84 +11159,84 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="89" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="86" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="86" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="86" t="s">
+      <c r="I3" s="102"/>
+      <c r="J3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="86" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="86" t="s">
+      <c r="O3" s="102"/>
+      <c r="P3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="86" t="s">
+      <c r="Q3" s="102"/>
+      <c r="R3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="88"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="103"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -11311,7 +11295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -11354,7 +11338,7 @@
       </c>
       <c r="S5" s="27"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -11392,7 +11376,7 @@
       </c>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -11433,7 +11417,7 @@
       </c>
       <c r="S7" s="29"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -11472,7 +11456,7 @@
       </c>
       <c r="S8" s="29"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -11515,7 +11499,7 @@
       </c>
       <c r="S9" s="29"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -11553,7 +11537,7 @@
       </c>
       <c r="S10" s="29"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -11594,7 +11578,7 @@
       </c>
       <c r="S11" s="29"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -11633,7 +11617,7 @@
       </c>
       <c r="S12" s="29"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11692,7 +11676,7 @@
         <v>1.0009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -11746,7 +11730,7 @@
         <v>4.0009765625</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -11803,7 +11787,7 @@
         <v>6.34765625E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -11858,7 +11842,7 @@
         <v>512.0009765625</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -11917,7 +11901,7 @@
         <v>256.0009765625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -11971,7 +11955,7 @@
         <v>8.0009765625</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -12028,7 +12012,7 @@
         <v>4.0009765625</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -12083,10 +12067,10 @@
         <v>8.0009765625</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12103,7 +12087,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -12120,7 +12104,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -12137,7 +12121,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -12154,7 +12138,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -12171,7 +12155,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -12188,7 +12172,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -12205,7 +12189,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -12222,7 +12206,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -12239,7 +12223,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -12256,7 +12240,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -12273,7 +12257,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -12290,7 +12274,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -12307,7 +12291,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -12324,7 +12308,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -12341,7 +12325,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -12358,7 +12342,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>

--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F857F39F-E65F-4B47-939F-7E00B2698C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EFA0AC-121D-4B29-88DF-B7CDB32E4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
     <sheet name="acc_mean" sheetId="1" r:id="rId2"/>
-    <sheet name="acc_median" sheetId="7" r:id="rId3"/>
-    <sheet name="nprot_best" sheetId="3" r:id="rId4"/>
-    <sheet name="nprot_mean" sheetId="8" r:id="rId5"/>
-    <sheet name="K_best" sheetId="9" r:id="rId6"/>
-    <sheet name="K_mean" sheetId="10" r:id="rId7"/>
-    <sheet name="hp_best" sheetId="12" r:id="rId8"/>
-    <sheet name="v1_v2_best" sheetId="13" r:id="rId9"/>
-    <sheet name="MCC" sheetId="14" r:id="rId10"/>
-    <sheet name="F1S" sheetId="15" r:id="rId11"/>
+    <sheet name="acc_std" sheetId="16" r:id="rId3"/>
+    <sheet name="acc_median" sheetId="7" r:id="rId4"/>
+    <sheet name="nprot_best" sheetId="3" r:id="rId5"/>
+    <sheet name="nprot_mean" sheetId="8" r:id="rId6"/>
+    <sheet name="K_best" sheetId="9" r:id="rId7"/>
+    <sheet name="K_mean" sheetId="10" r:id="rId8"/>
+    <sheet name="hp_best" sheetId="12" r:id="rId9"/>
+    <sheet name="v1_v2_best" sheetId="13" r:id="rId10"/>
+    <sheet name="MCC" sheetId="14" r:id="rId11"/>
+    <sheet name="F1S" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="37">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t>Sparsification Method</t>
+  </si>
+  <si>
+    <t>Cervical Cancer DataSet 02 - hold 02 - Accuracy (std)</t>
   </si>
 </sst>
 </file>
@@ -646,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,6 +937,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,7 +967,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1286,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,19 +1304,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2170,6 +2210,1230 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E093FD04-CF21-4625-BBAE-D18349CAAAA7}">
+  <dimension ref="A1:S53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="103"/>
+      <c r="F3" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="103"/>
+      <c r="H3" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="103"/>
+      <c r="J3" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="103"/>
+      <c r="L3" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="103"/>
+      <c r="N3" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="103"/>
+      <c r="P3" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="104"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="12">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S5" s="27"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29">
+        <v>1</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="31">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="S6" s="29"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>16</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29">
+        <v>8</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="O7" s="29"/>
+      <c r="P7" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S8" s="29"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="29"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30">
+        <v>0.999</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29">
+        <v>0.999</v>
+      </c>
+      <c r="S10" s="29"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30">
+        <v>1E-4</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29">
+        <v>0.999</v>
+      </c>
+      <c r="S11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="S12" s="29"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>32</v>
+      </c>
+      <c r="E13" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="J13" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K13" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="M13" s="30">
+        <v>0.2509765625</v>
+      </c>
+      <c r="N13" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O13" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="P13" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>2.0009765625</v>
+      </c>
+      <c r="R13" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S13" s="29">
+        <v>1.0009765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="29">
+        <v>16</v>
+      </c>
+      <c r="E14" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I14" s="31">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="K14" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="L14" s="29">
+        <v>1</v>
+      </c>
+      <c r="M14" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="O14" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>0.2509765625</v>
+      </c>
+      <c r="R14" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S14" s="29">
+        <v>4.0009765625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>128</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="F15" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G15" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="H15" s="29">
+        <v>512</v>
+      </c>
+      <c r="I15" s="19">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="J15" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K15" s="13">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="L15" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M15" s="31">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="N15" s="29">
+        <v>256</v>
+      </c>
+      <c r="O15" s="13">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="P15" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="R15" s="29">
+        <v>16</v>
+      </c>
+      <c r="S15" s="13">
+        <v>6.34765625E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.5009765625</v>
+      </c>
+      <c r="F16" s="29">
+        <v>32</v>
+      </c>
+      <c r="G16" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="H16" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I16" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="L16" s="29">
+        <v>1024</v>
+      </c>
+      <c r="M16" s="31">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="N16" s="29">
+        <v>1</v>
+      </c>
+      <c r="O16" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="P16" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>0.2509765625</v>
+      </c>
+      <c r="R16" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="S16" s="29">
+        <v>512.0009765625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="J17" s="29">
+        <v>32</v>
+      </c>
+      <c r="K17" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L17" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M17" s="19">
+        <v>0.1259765625</v>
+      </c>
+      <c r="N17" s="30">
+        <v>-0.25</v>
+      </c>
+      <c r="O17" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="P17" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>0.2509765625</v>
+      </c>
+      <c r="R17" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="S17" s="29">
+        <v>256.0009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="H18" s="29">
+        <v>4</v>
+      </c>
+      <c r="I18" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="K18" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="L18" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M18" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O18" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="P18" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="R18" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="S18" s="29">
+        <v>8.0009765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>2</v>
+      </c>
+      <c r="E19" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="F19" s="30">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="H19" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I19" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="L19" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0.2509765625</v>
+      </c>
+      <c r="N19" s="29">
+        <v>-32</v>
+      </c>
+      <c r="O19" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="P19" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>0.5009765625</v>
+      </c>
+      <c r="R19" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="S19" s="29">
+        <v>4.0009765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="H20" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I20" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="J20" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K20" s="30">
+        <v>0.5009765625</v>
+      </c>
+      <c r="L20" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M20" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="N20" s="31">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="O20" s="31">
+        <v>-6.8359375E-3</v>
+      </c>
+      <c r="P20" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0.5009765625</v>
+      </c>
+      <c r="R20" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="S20" s="29">
+        <v>8.0009765625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -2185,19 +3449,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2772,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -2788,19 +4052,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3380,7 +4644,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3400,48 +4664,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="M3" s="97" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
+      <c r="M3" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="100"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -4654,32 +5918,32 @@
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="M22" s="97" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="M22" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="100"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -4715,7 +5979,7 @@
       <c r="K23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="105" t="s">
+      <c r="M23" s="96" t="s">
         <v>35</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -6162,6 +7426,627 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5CD397-A860-45CD-AB1F-382D2CA5649F}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="106">
+        <v>7.0292878838302403E-2</v>
+      </c>
+      <c r="E5" s="107">
+        <v>6.3885385472767606E-2</v>
+      </c>
+      <c r="F5" s="107">
+        <v>4.4733445495905501E-2</v>
+      </c>
+      <c r="G5" s="107">
+        <v>8.6709886175555195E-2</v>
+      </c>
+      <c r="H5" s="107">
+        <v>7.9100517117031394E-2</v>
+      </c>
+      <c r="I5" s="107">
+        <v>0.122139770667702</v>
+      </c>
+      <c r="J5" s="107">
+        <v>7.6110976062704797E-2</v>
+      </c>
+      <c r="K5" s="108">
+        <v>8.8161696538346906E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="109">
+        <v>4.2788495511944802E-2</v>
+      </c>
+      <c r="E6" s="110">
+        <v>3.5462695040305602E-2</v>
+      </c>
+      <c r="F6" s="110">
+        <v>3.25693504546265E-2</v>
+      </c>
+      <c r="G6" s="110">
+        <v>3.5993780314161797E-2</v>
+      </c>
+      <c r="H6" s="110">
+        <v>3.3786099594715603E-2</v>
+      </c>
+      <c r="I6" s="110">
+        <v>1.23058257323665E-2</v>
+      </c>
+      <c r="J6" s="110">
+        <v>6.4294961094221698E-2</v>
+      </c>
+      <c r="K6" s="111">
+        <v>7.0608786565813597E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="109">
+        <v>4.8340046085368002E-2</v>
+      </c>
+      <c r="E7" s="110">
+        <v>3.8968058326434803E-2</v>
+      </c>
+      <c r="F7" s="110">
+        <v>5.2556559774448799E-2</v>
+      </c>
+      <c r="G7" s="110">
+        <v>6.9763503820971004E-2</v>
+      </c>
+      <c r="H7" s="110">
+        <v>5.7371272929003903E-2</v>
+      </c>
+      <c r="I7" s="110">
+        <v>3.1979376676930502E-2</v>
+      </c>
+      <c r="J7" s="110">
+        <v>2.93756383587572E-2</v>
+      </c>
+      <c r="K7" s="111">
+        <v>5.2076349704757899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="112">
+        <v>3.4158780366309899E-2</v>
+      </c>
+      <c r="E8" s="113">
+        <v>3.00808053255281E-2</v>
+      </c>
+      <c r="F8" s="113">
+        <v>3.1896356348196403E-2</v>
+      </c>
+      <c r="G8" s="113">
+        <v>5.9329490470541799E-2</v>
+      </c>
+      <c r="H8" s="113">
+        <v>4.75450276627171E-2</v>
+      </c>
+      <c r="I8" s="113">
+        <v>2.1309649902165301E-2</v>
+      </c>
+      <c r="J8" s="113">
+        <v>3.01550865042849E-2</v>
+      </c>
+      <c r="K8" s="114">
+        <v>3.5945404961161803E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="115">
+        <v>2.72479531927605E-2</v>
+      </c>
+      <c r="E9" s="116">
+        <v>5.7362895599682898E-2</v>
+      </c>
+      <c r="F9" s="116">
+        <v>2.2677233246521399E-2</v>
+      </c>
+      <c r="G9" s="116">
+        <v>4.4183267367529998E-2</v>
+      </c>
+      <c r="H9" s="116">
+        <v>8.3625223719074507E-2</v>
+      </c>
+      <c r="I9" s="116">
+        <v>0.38618348621941501</v>
+      </c>
+      <c r="J9" s="116">
+        <v>3.7690011061215702E-2</v>
+      </c>
+      <c r="K9" s="117">
+        <v>4.78358745331341E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="109">
+        <v>3.5722034569767303E-2</v>
+      </c>
+      <c r="E10" s="110">
+        <v>8.7643630574284995E-2</v>
+      </c>
+      <c r="F10" s="110">
+        <v>4.59281460693012E-2</v>
+      </c>
+      <c r="G10" s="110">
+        <v>4.7123856398196301E-2</v>
+      </c>
+      <c r="H10" s="110">
+        <v>4.33058935567468E-2</v>
+      </c>
+      <c r="I10" s="110">
+        <v>0.39414687013612798</v>
+      </c>
+      <c r="J10" s="110">
+        <v>5.73756055504204E-2</v>
+      </c>
+      <c r="K10" s="111">
+        <v>7.7418121207890503E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="109">
+        <v>4.8733371962992801E-2</v>
+      </c>
+      <c r="E11" s="110">
+        <v>8.3294222931895603E-2</v>
+      </c>
+      <c r="F11" s="110">
+        <v>4.7210988843555603E-2</v>
+      </c>
+      <c r="G11" s="110">
+        <v>3.5207564424687803E-2</v>
+      </c>
+      <c r="H11" s="110">
+        <v>4.0947578948443197E-2</v>
+      </c>
+      <c r="I11" s="110">
+        <v>0.15970409909161201</v>
+      </c>
+      <c r="J11" s="110">
+        <v>5.9824611494191701E-2</v>
+      </c>
+      <c r="K11" s="111">
+        <v>5.7350182832165503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="112">
+        <v>4.5792638401643403E-2</v>
+      </c>
+      <c r="E12" s="113">
+        <v>3.6144020191137799E-2</v>
+      </c>
+      <c r="F12" s="113">
+        <v>2.3416416937499001E-2</v>
+      </c>
+      <c r="G12" s="113">
+        <v>4.4485664319080603E-2</v>
+      </c>
+      <c r="H12" s="113">
+        <v>6.2823133520800198E-2</v>
+      </c>
+      <c r="I12" s="113">
+        <v>0.22570171277814199</v>
+      </c>
+      <c r="J12" s="113">
+        <v>3.51043321099287E-2</v>
+      </c>
+      <c r="K12" s="114">
+        <v>7.2621285334136004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="115">
+        <v>2.9190583322558899E-2</v>
+      </c>
+      <c r="E13" s="116">
+        <v>5.5541683205126001E-2</v>
+      </c>
+      <c r="F13" s="116">
+        <v>3.4334917584273698E-2</v>
+      </c>
+      <c r="G13" s="116">
+        <v>5.6529446942684101E-2</v>
+      </c>
+      <c r="H13" s="116">
+        <v>4.3852341385341498E-2</v>
+      </c>
+      <c r="I13" s="116">
+        <v>3.5170360307989597E-2</v>
+      </c>
+      <c r="J13" s="116">
+        <v>5.3986296417612399E-2</v>
+      </c>
+      <c r="K13" s="117">
+        <v>3.0753654409090999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="109">
+        <v>3.4619468621401597E-2</v>
+      </c>
+      <c r="E14" s="110">
+        <v>3.75137237942312E-2</v>
+      </c>
+      <c r="F14" s="110">
+        <v>2.9199097751376302E-2</v>
+      </c>
+      <c r="G14" s="110">
+        <v>4.0217451082638501E-2</v>
+      </c>
+      <c r="H14" s="110">
+        <v>4.47427059668997E-2</v>
+      </c>
+      <c r="I14" s="110">
+        <v>5.5239210176038202E-2</v>
+      </c>
+      <c r="J14" s="110">
+        <v>7.7189385374219099E-2</v>
+      </c>
+      <c r="K14" s="111">
+        <v>4.5046497788515001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="109">
+        <v>0.24706066856558201</v>
+      </c>
+      <c r="E15" s="110">
+        <v>0.33740040389728299</v>
+      </c>
+      <c r="F15" s="110">
+        <v>0.27435027637128701</v>
+      </c>
+      <c r="G15" s="110">
+        <v>0.36488995555502002</v>
+      </c>
+      <c r="H15" s="110">
+        <v>0.27745194034564402</v>
+      </c>
+      <c r="I15" s="110">
+        <v>0.16087114350569401</v>
+      </c>
+      <c r="J15" s="110">
+        <v>0.26645694645615797</v>
+      </c>
+      <c r="K15" s="111">
+        <v>0.39284887009292502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="112">
+        <v>0.26533929071968798</v>
+      </c>
+      <c r="E16" s="113">
+        <v>0.365503463516896</v>
+      </c>
+      <c r="F16" s="113">
+        <v>0.13317394967899401</v>
+      </c>
+      <c r="G16" s="113">
+        <v>0.33252053833431999</v>
+      </c>
+      <c r="H16" s="113">
+        <v>0.21896674606156</v>
+      </c>
+      <c r="I16" s="113">
+        <v>0.185980773261017</v>
+      </c>
+      <c r="J16" s="113">
+        <v>0.25420245104004202</v>
+      </c>
+      <c r="K16" s="114">
+        <v>0.38532622989967402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="115">
+        <v>0.21162974698353201</v>
+      </c>
+      <c r="E17" s="116">
+        <v>2.34142937376756E-2</v>
+      </c>
+      <c r="F17" s="116">
+        <v>2.8533150420674398E-2</v>
+      </c>
+      <c r="G17" s="116">
+        <v>6.2531236300992402E-2</v>
+      </c>
+      <c r="H17" s="116">
+        <v>4.8321187430193202E-2</v>
+      </c>
+      <c r="I17" s="116">
+        <v>4.8215098943489E-2</v>
+      </c>
+      <c r="J17" s="116">
+        <v>6.08128428659322E-2</v>
+      </c>
+      <c r="K17" s="117">
+        <v>4.8039144037443499E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="109">
+        <v>0.19599022212167</v>
+      </c>
+      <c r="E18" s="110">
+        <v>7.1850458677384904E-2</v>
+      </c>
+      <c r="F18" s="110">
+        <v>3.8092810837237499E-2</v>
+      </c>
+      <c r="G18" s="110">
+        <v>2.9919507057879401E-2</v>
+      </c>
+      <c r="H18" s="110">
+        <v>5.0702605851674798E-2</v>
+      </c>
+      <c r="I18" s="110">
+        <v>6.8041442632727003E-2</v>
+      </c>
+      <c r="J18" s="110">
+        <v>6.1245946663548802E-2</v>
+      </c>
+      <c r="K18" s="111">
+        <v>4.8590340696011702E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="109">
+        <v>4.3195544271502198E-2</v>
+      </c>
+      <c r="E19" s="110">
+        <v>7.0609960052089499E-2</v>
+      </c>
+      <c r="F19" s="110">
+        <v>2.3439052435232199E-2</v>
+      </c>
+      <c r="G19" s="110">
+        <v>8.3216992476117302E-2</v>
+      </c>
+      <c r="H19" s="110">
+        <v>5.8001838540679002E-2</v>
+      </c>
+      <c r="I19" s="110">
+        <v>4.0420903990747499E-2</v>
+      </c>
+      <c r="J19" s="110">
+        <v>6.8142929336175301E-2</v>
+      </c>
+      <c r="K19" s="111">
+        <v>6.0469333439408898E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="112">
+        <v>4.6457664943769801E-2</v>
+      </c>
+      <c r="E20" s="113">
+        <v>4.7468284695804601E-2</v>
+      </c>
+      <c r="F20" s="113">
+        <v>6.9040477160007593E-2</v>
+      </c>
+      <c r="G20" s="113">
+        <v>6.1995729571322503E-2</v>
+      </c>
+      <c r="H20" s="113">
+        <v>7.6460288189190595E-2</v>
+      </c>
+      <c r="I20" s="113">
+        <v>6.2102826744178503E-2</v>
+      </c>
+      <c r="J20" s="113">
+        <v>2.4606937685458002E-2</v>
+      </c>
+      <c r="K20" s="114">
+        <v>5.3190927115455901E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E17B74-8A06-473F-B1B4-0C752BEBC712}">
   <dimension ref="A1:K53"/>
   <sheetViews>
@@ -6184,19 +8069,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6931,7 +8816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
@@ -6955,19 +8840,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7702,7 +9587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
@@ -7725,19 +9610,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8472,7 +10357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
@@ -8495,19 +10380,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9242,7 +11127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
@@ -9265,19 +11150,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10012,7 +11897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6E2BB-CD7E-4FA9-A81B-F3147CB217E2}">
   <dimension ref="A1:P53"/>
   <sheetViews>
@@ -10041,24 +11926,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10068,29 +11953,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="101" t="s">
+      <c r="L3" s="103"/>
+      <c r="M3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="102"/>
-      <c r="O3" s="101" t="s">
+      <c r="N3" s="103"/>
+      <c r="O3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="103"/>
+      <c r="P3" s="104"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -11149,1228 +13034,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E093FD04-CF21-4625-BBAE-D18349CAAAA7}">
-  <dimension ref="A1:S53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="103"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="12">
-        <v>0.125</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="12">
-        <v>-1.953125E-3</v>
-      </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="31">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
-        <v>1</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="13">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="31">
-        <v>-1.5625E-2</v>
-      </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="S6" s="29"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>16</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31">
-        <v>3.125E-2</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29">
-        <v>8</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="31">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="29"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="29">
-        <v>4</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29">
-        <v>1</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="31">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="31">
-        <v>3.125E-2</v>
-      </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="S8" s="29"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="S9" s="29"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30">
-        <v>0.999</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29">
-        <v>0.999</v>
-      </c>
-      <c r="S10" s="29"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29">
-        <v>0.999</v>
-      </c>
-      <c r="S11" s="29"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="S12" s="29"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29">
-        <v>32</v>
-      </c>
-      <c r="E13" s="29">
-        <v>64.0009765625</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="29">
-        <v>32.0009765625</v>
-      </c>
-      <c r="H13" s="31">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="I13" s="29">
-        <v>1024.0009765625</v>
-      </c>
-      <c r="J13" s="31">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K13" s="29">
-        <v>8.0009765625</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="M13" s="30">
-        <v>0.2509765625</v>
-      </c>
-      <c r="N13" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="O13" s="29">
-        <v>256.0009765625</v>
-      </c>
-      <c r="P13" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>2.0009765625</v>
-      </c>
-      <c r="R13" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="S13" s="29">
-        <v>1.0009765625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="29">
-        <v>16</v>
-      </c>
-      <c r="E14" s="29">
-        <v>128.0009765625</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="29">
-        <v>512.0009765625</v>
-      </c>
-      <c r="H14" s="31">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="I14" s="31">
-        <v>6.34765625E-2</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="K14" s="29">
-        <v>1.0009765625</v>
-      </c>
-      <c r="L14" s="29">
-        <v>1</v>
-      </c>
-      <c r="M14" s="29">
-        <v>1024.0009765625</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="O14" s="29">
-        <v>128.0009765625</v>
-      </c>
-      <c r="P14" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="Q14" s="30">
-        <v>0.2509765625</v>
-      </c>
-      <c r="R14" s="31">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="S14" s="29">
-        <v>4.0009765625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="29">
-        <v>128</v>
-      </c>
-      <c r="E15" s="29">
-        <v>2.0009765625</v>
-      </c>
-      <c r="F15" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="G15" s="29">
-        <v>16.0009765625</v>
-      </c>
-      <c r="H15" s="29">
-        <v>512</v>
-      </c>
-      <c r="I15" s="19">
-        <v>6.34765625E-2</v>
-      </c>
-      <c r="J15" s="31">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="K15" s="13">
-        <v>3.22265625E-2</v>
-      </c>
-      <c r="L15" s="31">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="M15" s="31">
-        <v>3.22265625E-2</v>
-      </c>
-      <c r="N15" s="29">
-        <v>256</v>
-      </c>
-      <c r="O15" s="13">
-        <v>8.7890625E-3</v>
-      </c>
-      <c r="P15" s="29">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>16.0009765625</v>
-      </c>
-      <c r="R15" s="29">
-        <v>16</v>
-      </c>
-      <c r="S15" s="13">
-        <v>6.34765625E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="31">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="E16" s="29">
-        <v>0.5009765625</v>
-      </c>
-      <c r="F16" s="29">
-        <v>32</v>
-      </c>
-      <c r="G16" s="29">
-        <v>512.0009765625</v>
-      </c>
-      <c r="H16" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="I16" s="29">
-        <v>256.0009765625</v>
-      </c>
-      <c r="J16" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="29">
-        <v>1.0009765625</v>
-      </c>
-      <c r="L16" s="29">
-        <v>1024</v>
-      </c>
-      <c r="M16" s="31">
-        <v>1.66015625E-2</v>
-      </c>
-      <c r="N16" s="29">
-        <v>1</v>
-      </c>
-      <c r="O16" s="29">
-        <v>2.0009765625</v>
-      </c>
-      <c r="P16" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>0.2509765625</v>
-      </c>
-      <c r="R16" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="S16" s="29">
-        <v>512.0009765625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29">
-        <v>2</v>
-      </c>
-      <c r="E17" s="29">
-        <v>8.0009765625</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="G17" s="29">
-        <v>1.0009765625</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="29">
-        <v>64.0009765625</v>
-      </c>
-      <c r="J17" s="29">
-        <v>32</v>
-      </c>
-      <c r="K17" s="29">
-        <v>32.0009765625</v>
-      </c>
-      <c r="L17" s="13">
-        <v>6.25E-2</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0.1259765625</v>
-      </c>
-      <c r="N17" s="30">
-        <v>-0.25</v>
-      </c>
-      <c r="O17" s="29">
-        <v>64.0009765625</v>
-      </c>
-      <c r="P17" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>0.2509765625</v>
-      </c>
-      <c r="R17" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="S17" s="29">
-        <v>256.0009765625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="29">
-        <v>1</v>
-      </c>
-      <c r="E18" s="29">
-        <v>128.0009765625</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="29">
-        <v>1.0009765625</v>
-      </c>
-      <c r="H18" s="29">
-        <v>4</v>
-      </c>
-      <c r="I18" s="29">
-        <v>32.0009765625</v>
-      </c>
-      <c r="J18" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="K18" s="29">
-        <v>4.0009765625</v>
-      </c>
-      <c r="L18" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="M18" s="29">
-        <v>16.0009765625</v>
-      </c>
-      <c r="N18" s="31">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="O18" s="29">
-        <v>16.0009765625</v>
-      </c>
-      <c r="P18" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>64.0009765625</v>
-      </c>
-      <c r="R18" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="S18" s="29">
-        <v>8.0009765625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29">
-        <v>2</v>
-      </c>
-      <c r="E19" s="29">
-        <v>4.0009765625</v>
-      </c>
-      <c r="F19" s="30">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G19" s="29">
-        <v>1024.0009765625</v>
-      </c>
-      <c r="H19" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I19" s="29">
-        <v>2.0009765625</v>
-      </c>
-      <c r="J19" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="29">
-        <v>1024.0009765625</v>
-      </c>
-      <c r="L19" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="M19" s="30">
-        <v>0.2509765625</v>
-      </c>
-      <c r="N19" s="29">
-        <v>-32</v>
-      </c>
-      <c r="O19" s="29">
-        <v>2.0009765625</v>
-      </c>
-      <c r="P19" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>0.5009765625</v>
-      </c>
-      <c r="R19" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="S19" s="29">
-        <v>4.0009765625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="29">
-        <v>16.0009765625</v>
-      </c>
-      <c r="F20" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="29">
-        <v>128.0009765625</v>
-      </c>
-      <c r="H20" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="I20" s="29">
-        <v>4.0009765625</v>
-      </c>
-      <c r="J20" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K20" s="30">
-        <v>0.5009765625</v>
-      </c>
-      <c r="L20" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="M20" s="29">
-        <v>2.0009765625</v>
-      </c>
-      <c r="N20" s="31">
-        <v>-3.125E-2</v>
-      </c>
-      <c r="O20" s="31">
-        <v>-6.8359375E-3</v>
-      </c>
-      <c r="P20" s="13">
-        <v>6.25E-2</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>0.5009765625</v>
-      </c>
-      <c r="R20" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="S20" s="29">
-        <v>8.0009765625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-    </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-    </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-    </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-    </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-    </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-    </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-    </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-    </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-    </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-    </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-    </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-    </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-    </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-    </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EFA0AC-121D-4B29-88DF-B7CDB32E4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAB9B43-1769-4FA6-8347-681744353993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -967,40 +967,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4643,8 +4643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7527,28 +7527,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="45">
         <v>7.0292878838302403E-2</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="12">
         <v>6.3885385472767606E-2</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="12">
         <v>4.4733445495905501E-2</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="12">
         <v>8.6709886175555195E-2</v>
       </c>
-      <c r="H5" s="107">
+      <c r="H5" s="12">
         <v>7.9100517117031394E-2</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="12">
         <v>0.122139770667702</v>
       </c>
-      <c r="J5" s="107">
+      <c r="J5" s="12">
         <v>7.6110976062704797E-2</v>
       </c>
-      <c r="K5" s="108">
+      <c r="K5" s="46">
         <v>8.8161696538346906E-2</v>
       </c>
     </row>
@@ -7558,28 +7558,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="47">
         <v>4.2788495511944802E-2</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="13">
         <v>3.5462695040305602E-2</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="13">
         <v>3.25693504546265E-2</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="13">
         <v>3.5993780314161797E-2</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="13">
         <v>3.3786099594715603E-2</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="13">
         <v>1.23058257323665E-2</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="13">
         <v>6.4294961094221698E-2</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="15">
         <v>7.0608786565813597E-2</v>
       </c>
     </row>
@@ -7591,28 +7591,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="47">
         <v>4.8340046085368002E-2</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="13">
         <v>3.8968058326434803E-2</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="13">
         <v>5.2556559774448799E-2</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="13">
         <v>6.9763503820971004E-2</v>
       </c>
-      <c r="H7" s="110">
+      <c r="H7" s="13">
         <v>5.7371272929003903E-2</v>
       </c>
-      <c r="I7" s="110">
+      <c r="I7" s="13">
         <v>3.1979376676930502E-2</v>
       </c>
-      <c r="J7" s="110">
+      <c r="J7" s="13">
         <v>2.93756383587572E-2</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="15">
         <v>5.2076349704757899E-2</v>
       </c>
     </row>
@@ -7622,28 +7622,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="112">
+      <c r="D8" s="48">
         <v>3.4158780366309899E-2</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="14">
         <v>3.00808053255281E-2</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="14">
         <v>3.1896356348196403E-2</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="14">
         <v>5.9329490470541799E-2</v>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="14">
         <v>4.75450276627171E-2</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="14">
         <v>2.1309649902165301E-2</v>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="14">
         <v>3.01550865042849E-2</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="49">
         <v>3.5945404961161803E-2</v>
       </c>
     </row>
@@ -7657,28 +7657,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="50">
         <v>2.72479531927605E-2</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="51">
         <v>5.7362895599682898E-2</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="51">
         <v>2.2677233246521399E-2</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="51">
         <v>4.4183267367529998E-2</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="51">
         <v>8.3625223719074507E-2</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="51">
         <v>0.38618348621941501</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="51">
         <v>3.7690011061215702E-2</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="52">
         <v>4.78358745331341E-2</v>
       </c>
     </row>
@@ -7688,28 +7688,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="47">
         <v>3.5722034569767303E-2</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="13">
         <v>8.7643630574284995E-2</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="13">
         <v>4.59281460693012E-2</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="13">
         <v>4.7123856398196301E-2</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="13">
         <v>4.33058935567468E-2</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="13">
         <v>0.39414687013612798</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="13">
         <v>5.73756055504204E-2</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="15">
         <v>7.7418121207890503E-2</v>
       </c>
     </row>
@@ -7721,28 +7721,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="47">
         <v>4.8733371962992801E-2</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="13">
         <v>8.3294222931895603E-2</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="13">
         <v>4.7210988843555603E-2</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="13">
         <v>3.5207564424687803E-2</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="13">
         <v>4.0947578948443197E-2</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="13">
         <v>0.15970409909161201</v>
       </c>
-      <c r="J11" s="110">
+      <c r="J11" s="13">
         <v>5.9824611494191701E-2</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="15">
         <v>5.7350182832165503E-2</v>
       </c>
     </row>
@@ -7752,28 +7752,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="48">
         <v>4.5792638401643403E-2</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="14">
         <v>3.6144020191137799E-2</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="14">
         <v>2.3416416937499001E-2</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="14">
         <v>4.4485664319080603E-2</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="14">
         <v>6.2823133520800198E-2</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="14">
         <v>0.22570171277814199</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="14">
         <v>3.51043321099287E-2</v>
       </c>
-      <c r="K12" s="114">
+      <c r="K12" s="49">
         <v>7.2621285334136004E-2</v>
       </c>
     </row>
@@ -7787,28 +7787,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="50">
         <v>2.9190583322558899E-2</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="51">
         <v>5.5541683205126001E-2</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="51">
         <v>3.4334917584273698E-2</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="51">
         <v>5.6529446942684101E-2</v>
       </c>
-      <c r="H13" s="116">
+      <c r="H13" s="51">
         <v>4.3852341385341498E-2</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="51">
         <v>3.5170360307989597E-2</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J13" s="51">
         <v>5.3986296417612399E-2</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="52">
         <v>3.0753654409090999E-2</v>
       </c>
     </row>
@@ -7818,28 +7818,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="109">
+      <c r="D14" s="47">
         <v>3.4619468621401597E-2</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="13">
         <v>3.75137237942312E-2</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="13">
         <v>2.9199097751376302E-2</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="13">
         <v>4.0217451082638501E-2</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="13">
         <v>4.47427059668997E-2</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="13">
         <v>5.5239210176038202E-2</v>
       </c>
-      <c r="J14" s="110">
+      <c r="J14" s="13">
         <v>7.7189385374219099E-2</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="15">
         <v>4.5046497788515001E-2</v>
       </c>
     </row>
@@ -7851,28 +7851,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="47">
         <v>0.24706066856558201</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="13">
         <v>0.33740040389728299</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="13">
         <v>0.27435027637128701</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="13">
         <v>0.36488995555502002</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="13">
         <v>0.27745194034564402</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="13">
         <v>0.16087114350569401</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="13">
         <v>0.26645694645615797</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="15">
         <v>0.39284887009292502</v>
       </c>
     </row>
@@ -7882,28 +7882,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="112">
+      <c r="D16" s="48">
         <v>0.26533929071968798</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="14">
         <v>0.365503463516896</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="14">
         <v>0.13317394967899401</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="14">
         <v>0.33252053833431999</v>
       </c>
-      <c r="H16" s="113">
+      <c r="H16" s="14">
         <v>0.21896674606156</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="14">
         <v>0.185980773261017</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="14">
         <v>0.25420245104004202</v>
       </c>
-      <c r="K16" s="114">
+      <c r="K16" s="49">
         <v>0.38532622989967402</v>
       </c>
     </row>
@@ -7917,28 +7917,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="50">
         <v>0.21162974698353201</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="51">
         <v>2.34142937376756E-2</v>
       </c>
-      <c r="F17" s="116">
+      <c r="F17" s="51">
         <v>2.8533150420674398E-2</v>
       </c>
-      <c r="G17" s="116">
+      <c r="G17" s="51">
         <v>6.2531236300992402E-2</v>
       </c>
-      <c r="H17" s="116">
+      <c r="H17" s="51">
         <v>4.8321187430193202E-2</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="51">
         <v>4.8215098943489E-2</v>
       </c>
-      <c r="J17" s="116">
+      <c r="J17" s="51">
         <v>6.08128428659322E-2</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="52">
         <v>4.8039144037443499E-2</v>
       </c>
     </row>
@@ -7948,28 +7948,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="47">
         <v>0.19599022212167</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="13">
         <v>7.1850458677384904E-2</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="13">
         <v>3.8092810837237499E-2</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="13">
         <v>2.9919507057879401E-2</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="13">
         <v>5.0702605851674798E-2</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="13">
         <v>6.8041442632727003E-2</v>
       </c>
-      <c r="J18" s="110">
+      <c r="J18" s="13">
         <v>6.1245946663548802E-2</v>
       </c>
-      <c r="K18" s="111">
+      <c r="K18" s="15">
         <v>4.8590340696011702E-2</v>
       </c>
     </row>
@@ -7981,28 +7981,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="47">
         <v>4.3195544271502198E-2</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="13">
         <v>7.0609960052089499E-2</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="13">
         <v>2.3439052435232199E-2</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="13">
         <v>8.3216992476117302E-2</v>
       </c>
-      <c r="H19" s="110">
+      <c r="H19" s="13">
         <v>5.8001838540679002E-2</v>
       </c>
-      <c r="I19" s="110">
+      <c r="I19" s="13">
         <v>4.0420903990747499E-2</v>
       </c>
-      <c r="J19" s="110">
+      <c r="J19" s="13">
         <v>6.8142929336175301E-2</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="15">
         <v>6.0469333439408898E-2</v>
       </c>
     </row>
@@ -8012,28 +8012,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="48">
         <v>4.6457664943769801E-2</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="14">
         <v>4.7468284695804601E-2</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="14">
         <v>6.9040477160007593E-2</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="14">
         <v>6.1995729571322503E-2</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="14">
         <v>7.6460288189190595E-2</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="14">
         <v>6.2102826744178503E-2</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="14">
         <v>2.4606937685458002E-2</v>
       </c>
-      <c r="K20" s="114">
+      <c r="K20" s="49">
         <v>5.3190927115455901E-2</v>
       </c>
     </row>
@@ -8820,8 +8820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8900,28 +8900,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="106">
         <v>16</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="107">
         <v>19</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="107">
         <v>19</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="107">
         <v>35</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="107">
         <v>46</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="107">
         <v>6</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="107">
         <v>7</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="108">
         <v>22</v>
       </c>
     </row>
@@ -8930,28 +8930,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="109">
         <v>24</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="110">
         <v>53</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="110">
         <v>39</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="110">
         <v>3</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="110">
         <v>4</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="110">
         <v>270</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="110">
         <v>14</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="111">
         <v>9</v>
       </c>
     </row>
@@ -8963,28 +8963,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="109">
         <v>11</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="110">
         <v>12</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="110">
         <v>17</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="110">
         <v>15</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="110">
         <v>6</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="110">
         <v>19</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="110">
         <v>5</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="111">
         <v>12</v>
       </c>
     </row>
@@ -8994,28 +8994,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="112">
         <v>20</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="113">
         <v>23</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="113">
         <v>19</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="113">
         <v>16</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="113">
         <v>13</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="113">
         <v>109</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="113">
         <v>16</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="114">
         <v>38</v>
       </c>
     </row>
@@ -9029,28 +9029,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="115">
         <v>46</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="116">
         <v>4</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="116">
         <v>13</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="116">
         <v>18</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="116">
         <v>8</v>
       </c>
-      <c r="I9" s="76">
-        <v>1</v>
-      </c>
-      <c r="J9" s="77">
+      <c r="I9" s="116">
+        <v>1</v>
+      </c>
+      <c r="J9" s="116">
         <v>3</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="117">
         <v>10</v>
       </c>
     </row>
@@ -9059,28 +9059,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="109">
         <v>18</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="110">
         <v>9</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="110">
         <v>89</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="110">
         <v>49</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="110">
         <v>48</v>
       </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="I10" s="110">
+        <v>1</v>
+      </c>
+      <c r="J10" s="110">
         <v>49</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="111">
         <v>27</v>
       </c>
     </row>
@@ -9092,28 +9092,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="109">
         <v>3</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="110">
         <v>23</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="110">
         <v>7</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="110">
         <v>19</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="110">
         <v>9</v>
       </c>
-      <c r="I11" s="69">
-        <v>2</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="I11" s="110">
+        <v>2</v>
+      </c>
+      <c r="J11" s="110">
         <v>4</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="111">
         <v>4</v>
       </c>
     </row>
@@ -9123,28 +9123,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="112">
         <v>18</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="113">
         <v>31</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="113">
         <v>15</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="113">
         <v>6</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="113">
         <v>4</v>
       </c>
-      <c r="I12" s="73">
-        <v>2</v>
-      </c>
-      <c r="J12" s="42">
+      <c r="I12" s="113">
+        <v>2</v>
+      </c>
+      <c r="J12" s="113">
         <v>11</v>
       </c>
-      <c r="K12" s="80">
+      <c r="K12" s="114">
         <v>23</v>
       </c>
     </row>
@@ -9158,28 +9158,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="115">
         <v>4</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="116">
         <v>61</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="116">
         <v>9</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="116">
         <v>11</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="116">
         <v>32</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="116">
         <v>11</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="116">
         <v>9</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="117">
         <v>10</v>
       </c>
     </row>
@@ -9188,28 +9188,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="109">
         <v>11</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="110">
         <v>17</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="110">
         <v>47</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="110">
         <v>9</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="110">
         <v>9</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="110">
         <v>25</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="110">
         <v>14</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="111">
         <v>59</v>
       </c>
     </row>
@@ -9221,28 +9221,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="68">
-        <v>2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2</v>
-      </c>
-      <c r="F15" s="19">
-        <v>2</v>
-      </c>
-      <c r="G15" s="19">
-        <v>2</v>
-      </c>
-      <c r="H15" s="69">
-        <v>2</v>
-      </c>
-      <c r="I15" s="69">
-        <v>2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>2</v>
-      </c>
-      <c r="K15" s="70">
+      <c r="D15" s="109">
+        <v>2</v>
+      </c>
+      <c r="E15" s="110">
+        <v>2</v>
+      </c>
+      <c r="F15" s="110">
+        <v>2</v>
+      </c>
+      <c r="G15" s="110">
+        <v>2</v>
+      </c>
+      <c r="H15" s="110">
+        <v>2</v>
+      </c>
+      <c r="I15" s="110">
+        <v>2</v>
+      </c>
+      <c r="J15" s="110">
+        <v>2</v>
+      </c>
+      <c r="K15" s="111">
         <v>2</v>
       </c>
     </row>
@@ -9252,28 +9252,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="83">
-        <v>2</v>
-      </c>
-      <c r="E16" s="73">
-        <v>2</v>
-      </c>
-      <c r="F16" s="42">
+      <c r="D16" s="112">
+        <v>2</v>
+      </c>
+      <c r="E16" s="113">
+        <v>2</v>
+      </c>
+      <c r="F16" s="113">
         <v>11</v>
       </c>
-      <c r="G16" s="42">
-        <v>2</v>
-      </c>
-      <c r="H16" s="73">
-        <v>2</v>
-      </c>
-      <c r="I16" s="42">
-        <v>2</v>
-      </c>
-      <c r="J16" s="42">
-        <v>2</v>
-      </c>
-      <c r="K16" s="80">
+      <c r="G16" s="113">
+        <v>2</v>
+      </c>
+      <c r="H16" s="113">
+        <v>2</v>
+      </c>
+      <c r="I16" s="113">
+        <v>2</v>
+      </c>
+      <c r="J16" s="113">
+        <v>2</v>
+      </c>
+      <c r="K16" s="114">
         <v>2</v>
       </c>
     </row>
@@ -9287,28 +9287,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="115">
         <v>3</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="116">
         <v>168</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="116">
         <v>10</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="116">
         <v>101</v>
       </c>
-      <c r="H17" s="76">
+      <c r="H17" s="116">
         <v>134</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="116">
         <v>41</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="116">
         <v>11</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="117">
         <v>150</v>
       </c>
     </row>
@@ -9317,28 +9317,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="109">
         <v>260</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="110">
         <v>139</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="110">
         <v>26</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="110">
         <v>106</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="110">
         <v>120</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="110">
         <v>67</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="110">
         <v>11</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="111">
         <v>137</v>
       </c>
     </row>
@@ -9350,28 +9350,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="109">
         <v>4</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="110">
         <v>8</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="110">
         <v>42</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="110">
         <v>6</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="110">
         <v>5</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="110">
         <v>4</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="110">
         <v>8</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="111">
         <v>14</v>
       </c>
     </row>
@@ -9381,28 +9381,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="112">
         <v>20</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="113">
         <v>15</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="113">
         <v>16</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="113">
         <v>3</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="113">
         <v>4</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="113">
         <v>6</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="113">
         <v>22</v>
       </c>
-      <c r="K20" s="74">
+      <c r="K20" s="114">
         <v>26</v>
       </c>
     </row>

--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAB9B43-1769-4FA6-8347-681744353993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FEA85B-1E53-4112-AA0B-B50616B2916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="v1_v2_best" sheetId="13" r:id="rId10"/>
     <sheet name="MCC" sheetId="14" r:id="rId11"/>
     <sheet name="F1S" sheetId="15" r:id="rId12"/>
+    <sheet name="Comp" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="37">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -650,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,40 +968,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1285,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1870,7 +1859,7 @@
         <v>0.95164075993091501</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1880,96 +1869,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -2214,7 +2271,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3435,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4028,6 +4085,168 @@
         <v>0.78882071898509598</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -4038,10 +4257,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4631,6 +4850,168 @@
         <v>0.89397823584807001</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -4639,49 +5020,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W53"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBC18DF-5B57-4AF6-87CF-C65A69CAD9B2}">
+  <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-    </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
@@ -4785,29 +5146,37 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="84">
-        <v>0.85267702936096701</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.83644214162348896</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.85630397236614897</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.836096718480138</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.83367875647668399</v>
-      </c>
-      <c r="I5" s="85">
-        <v>0.85405872193437005</v>
-      </c>
-      <c r="J5" s="85">
-        <v>0.87789291882556098</v>
-      </c>
-      <c r="K5" s="46">
-        <v>0.83402417962003506</v>
+      <c r="D5" s="45">
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D7)</f>
+        <v>-6.3903281519860355E-3</v>
+      </c>
+      <c r="E5" s="45">
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E7)</f>
+        <v>-9.4991364421420643E-3</v>
+      </c>
+      <c r="F5" s="45">
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F7)</f>
+        <v>-1.4162348877373998E-2</v>
+      </c>
+      <c r="G5" s="45">
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="45">
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H7)</f>
+        <v>-1.1053540587218968E-2</v>
+      </c>
+      <c r="I5" s="45">
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I7)</f>
+        <v>-4.3696027633850942E-2</v>
+      </c>
+      <c r="J5" s="45">
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="45">
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K7)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>1</v>
@@ -4819,66 +5188,75 @@
         <v>1</v>
       </c>
       <c r="P5" s="50">
-        <f t="shared" ref="P5:W8" si="0">D5-MAX(D5,D9,D13,D17)</f>
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
         <v>-1.1398963730570033E-2</v>
       </c>
       <c r="Q5" s="50">
-        <f t="shared" si="0"/>
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
         <v>-4.145077720207202E-2</v>
       </c>
       <c r="R5" s="50">
-        <f t="shared" si="0"/>
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
         <v>-2.3143350604490021E-2</v>
       </c>
       <c r="S5" s="50">
-        <f t="shared" si="0"/>
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
         <v>-2.2279792746114024E-2</v>
       </c>
       <c r="T5" s="50">
-        <f t="shared" si="0"/>
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
         <v>-8.6355785837649579E-3</v>
       </c>
       <c r="U5" s="50">
-        <f t="shared" si="0"/>
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
         <v>-2.8497409326424972E-2</v>
       </c>
       <c r="V5" s="50">
-        <f t="shared" si="0"/>
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
         <v>0</v>
       </c>
       <c r="W5" s="93">
-        <f t="shared" si="0"/>
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
         <v>-2.4870466321242901E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="47">
-        <v>0.89119170984455998</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.86943005181347099</v>
-      </c>
-      <c r="F6" s="86">
-        <v>0.89378238341968896</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.88618307426597598</v>
-      </c>
-      <c r="H6" s="86">
-        <v>0.90449050086355798</v>
-      </c>
-      <c r="I6" s="86">
-        <v>0.92245250431778902</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.86960276338514697</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.86252158894646003</v>
+        <f>acc_mean!D6-MAX(acc_mean!D6,acc_mean!D8)</f>
+        <v>-1.468048359240004E-2</v>
+      </c>
+      <c r="E6" s="47">
+        <f>acc_mean!E6-MAX(acc_mean!E6,acc_mean!E8)</f>
+        <v>-2.2970639032816043E-2</v>
+      </c>
+      <c r="F6" s="47">
+        <f>acc_mean!F6-MAX(acc_mean!F6,acc_mean!F8)</f>
+        <v>-5.181347150260418E-4</v>
+      </c>
+      <c r="G6" s="47">
+        <f>acc_mean!G6-MAX(acc_mean!G6,acc_mean!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <f>acc_mean!H6-MAX(acc_mean!H6,acc_mean!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="47">
+        <f>acc_mean!I6-MAX(acc_mean!I6,acc_mean!I8)</f>
+        <v>-6.2176165803109473E-3</v>
+      </c>
+      <c r="J6" s="47">
+        <f>acc_mean!J6-MAX(acc_mean!J6,acc_mean!J8)</f>
+        <v>-3.229706390328102E-2</v>
+      </c>
+      <c r="K6" s="47">
+        <f>acc_mean!K6-MAX(acc_mean!K6,acc_mean!K8)</f>
+        <v>-2.7979274611397931E-2</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
@@ -4886,35 +5264,35 @@
         <v>12</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!D6-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!E6-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
         <v>-8.4628670120899807E-3</v>
       </c>
       <c r="R6" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!F6-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
         <v>-5.5267702936100394E-3</v>
       </c>
       <c r="S6" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!G6-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
         <v>0</v>
       </c>
       <c r="T6" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!H6-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
         <v>0</v>
       </c>
       <c r="U6" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!I6-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
         <v>0</v>
       </c>
       <c r="V6" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!J6-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
         <v>-1.3298791018998002E-2</v>
       </c>
       <c r="W6" s="94">
-        <f t="shared" si="0"/>
+        <f>acc_mean!K6-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
         <v>-5.5267702936089291E-3</v>
       </c>
     </row>
@@ -4927,28 +5305,36 @@
         <v>1</v>
       </c>
       <c r="D7" s="47">
-        <v>0.85906735751295304</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.84594127806563102</v>
-      </c>
-      <c r="F7" s="86">
-        <v>0.87046632124352297</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.82970639032815197</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.84473229706390296</v>
-      </c>
-      <c r="I7" s="86">
-        <v>0.89775474956822099</v>
-      </c>
-      <c r="J7" s="86">
-        <v>0.87702936096718498</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0.81623488773747799</v>
+        <f>acc_mean!D7-MAX(acc_mean!D5,acc_mean!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="47">
+        <f>acc_mean!E7-MAX(acc_mean!E5,acc_mean!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="47">
+        <f>acc_mean!F7-MAX(acc_mean!F5,acc_mean!F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="47">
+        <f>acc_mean!G7-MAX(acc_mean!G5,acc_mean!G7)</f>
+        <v>-6.3903281519860355E-3</v>
+      </c>
+      <c r="H7" s="47">
+        <f>acc_mean!H7-MAX(acc_mean!H5,acc_mean!H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="47">
+        <f>acc_mean!I7-MAX(acc_mean!I5,acc_mean!I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="47">
+        <f>acc_mean!J7-MAX(acc_mean!J5,acc_mean!J7)</f>
+        <v>-8.6355785837599619E-4</v>
+      </c>
+      <c r="K7" s="47">
+        <f>acc_mean!K7-MAX(acc_mean!K5,acc_mean!K7)</f>
+        <v>-1.7789291882557068E-2</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="1">
@@ -4958,35 +5344,35 @@
         <v>1</v>
       </c>
       <c r="P7" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!D7-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
         <v>-9.3264248704669761E-3</v>
       </c>
       <c r="Q7" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!E7-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
         <v>0</v>
       </c>
       <c r="R7" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!F7-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
         <v>0</v>
       </c>
       <c r="S7" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!G7-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
         <v>0</v>
       </c>
       <c r="T7" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!H7-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
         <v>0</v>
       </c>
       <c r="U7" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!I7-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
         <v>0</v>
       </c>
       <c r="V7" s="47">
-        <f t="shared" si="0"/>
+        <f>acc_mean!J7-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
         <v>0</v>
       </c>
       <c r="W7" s="94">
-        <f t="shared" si="0"/>
+        <f>acc_mean!K7-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
         <v>-4.0069084628670981E-2</v>
       </c>
     </row>
@@ -4996,29 +5382,37 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="87">
-        <v>0.90587219343696002</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.89240069084628704</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.89430051813471501</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0.85561312607944695</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0.88013816925734001</v>
-      </c>
-      <c r="I8" s="88">
-        <v>0.92867012089809997</v>
-      </c>
-      <c r="J8" s="88">
-        <v>0.90189982728842799</v>
-      </c>
-      <c r="K8" s="49">
-        <v>0.89050086355785796</v>
+      <c r="D8" s="48">
+        <f>acc_mean!D8-MAX(acc_mean!D6,acc_mean!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="48">
+        <f>acc_mean!E8-MAX(acc_mean!E6,acc_mean!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <f>acc_mean!F8-MAX(acc_mean!F6,acc_mean!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
+        <f>acc_mean!G8-MAX(acc_mean!G6,acc_mean!G8)</f>
+        <v>-3.0569948186529028E-2</v>
+      </c>
+      <c r="H8" s="48">
+        <f>acc_mean!H8-MAX(acc_mean!H6,acc_mean!H8)</f>
+        <v>-2.435233160621797E-2</v>
+      </c>
+      <c r="I8" s="48">
+        <f>acc_mean!I8-MAX(acc_mean!I6,acc_mean!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="48">
+        <f>acc_mean!J8-MAX(acc_mean!J6,acc_mean!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="48">
+        <f>acc_mean!K8-MAX(acc_mean!K6,acc_mean!K8)</f>
+        <v>0</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
@@ -5026,35 +5420,35 @@
         <v>12</v>
       </c>
       <c r="P8" s="48">
-        <f t="shared" si="0"/>
+        <f>acc_mean!D8-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="48">
-        <f t="shared" si="0"/>
+        <f>acc_mean!E8-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
         <v>0</v>
       </c>
       <c r="R8" s="48">
-        <f t="shared" si="0"/>
+        <f>acc_mean!F8-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
         <v>0</v>
       </c>
       <c r="S8" s="48">
-        <f t="shared" si="0"/>
+        <f>acc_mean!G8-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
         <v>-1.7616580310881091E-2</v>
       </c>
       <c r="T8" s="48">
-        <f t="shared" si="0"/>
+        <f>acc_mean!H8-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
         <v>0</v>
       </c>
       <c r="U8" s="48">
-        <f t="shared" si="0"/>
+        <f>acc_mean!I8-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
         <v>0</v>
       </c>
       <c r="V8" s="48">
-        <f t="shared" si="0"/>
+        <f>acc_mean!J8-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
         <v>-9.8445595854930179E-3</v>
       </c>
       <c r="W8" s="95">
-        <f t="shared" si="0"/>
+        <f>acc_mean!K8-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
         <v>0</v>
       </c>
     </row>
@@ -5068,29 +5462,37 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="89">
-        <v>0.86407599309153704</v>
-      </c>
-      <c r="E9" s="51">
-        <v>0.85146804835923995</v>
-      </c>
-      <c r="F9" s="90">
-        <v>0.87944732297063899</v>
-      </c>
-      <c r="G9" s="51">
-        <v>0.85837651122625203</v>
-      </c>
-      <c r="H9" s="51">
-        <v>0.83385146804835897</v>
-      </c>
-      <c r="I9" s="51">
-        <v>0.42521588946459399</v>
-      </c>
-      <c r="J9" s="90">
-        <v>0.86183074265975801</v>
-      </c>
-      <c r="K9" s="52">
-        <v>0.85889464594127796</v>
+      <c r="D9" s="45">
+        <f>acc_mean!D9-MAX(acc_mean!D9,acc_mean!D11)</f>
+        <v>-4.3177892918829786E-3</v>
+      </c>
+      <c r="E9" s="45">
+        <f>acc_mean!E9-MAX(acc_mean!E9,acc_mean!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <f>acc_mean!F9-MAX(acc_mean!F9,acc_mean!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <f>acc_mean!G9-MAX(acc_mean!G9,acc_mean!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <f>acc_mean!H9-MAX(acc_mean!H9,acc_mean!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
+        <f>acc_mean!I9-MAX(acc_mean!I9,acc_mean!I11)</f>
+        <v>-0.41295336787564796</v>
+      </c>
+      <c r="J9" s="45">
+        <f>acc_mean!J9-MAX(acc_mean!J9,acc_mean!J11)</f>
+        <v>-2.7633851468049642E-3</v>
+      </c>
+      <c r="K9" s="45">
+        <f>acc_mean!K9-MAX(acc_mean!K9,acc_mean!K11)</f>
+        <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>3</v>
@@ -5102,66 +5504,75 @@
         <v>1</v>
       </c>
       <c r="P9" s="50">
-        <f t="shared" ref="P9:W12" si="1">D9-MAX(D5,D9,D13,D17)</f>
+        <f>acc_mean!D9-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="50">
-        <f t="shared" si="1"/>
+        <f>acc_mean!E9-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
         <v>-2.6424870466321027E-2</v>
       </c>
       <c r="R9" s="50">
-        <f t="shared" si="1"/>
+        <f>acc_mean!F9-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
         <v>0</v>
       </c>
       <c r="S9" s="50">
-        <f t="shared" si="1"/>
+        <f>acc_mean!G9-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
         <v>0</v>
       </c>
       <c r="T9" s="50">
-        <f t="shared" si="1"/>
+        <f>acc_mean!H9-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
         <v>-8.4628670120899807E-3</v>
       </c>
       <c r="U9" s="50">
-        <f t="shared" si="1"/>
+        <f>acc_mean!I9-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
         <v>-0.45734024179620103</v>
       </c>
       <c r="V9" s="50">
-        <f t="shared" si="1"/>
+        <f>acc_mean!J9-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
         <v>-1.6062176165802966E-2</v>
       </c>
       <c r="W9" s="93">
-        <f t="shared" si="1"/>
+        <f>acc_mean!K9-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="91">
-        <v>0.87512953367875701</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.86822107081174504</v>
-      </c>
-      <c r="F10" s="86">
-        <v>0.87806563039723695</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.86234887737478405</v>
-      </c>
-      <c r="H10" s="86">
-        <v>0.87495682210708103</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.86113989637305699</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.86217616580310896</v>
+      <c r="D10" s="47">
+        <f>acc_mean!D10-MAX(acc_mean!D10,acc_mean!D12)</f>
+        <v>-2.6597582037996004E-2</v>
+      </c>
+      <c r="E10" s="47">
+        <f>acc_mean!E10-MAX(acc_mean!E10,acc_mean!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="47">
+        <f>acc_mean!F10-MAX(acc_mean!F10,acc_mean!F12)</f>
+        <v>-7.2538860103620317E-3</v>
+      </c>
+      <c r="G10" s="47">
+        <f>acc_mean!G10-MAX(acc_mean!G10,acc_mean!G12)</f>
+        <v>-4.4905008635579557E-3</v>
+      </c>
+      <c r="H10" s="47">
+        <f>acc_mean!H10-MAX(acc_mean!H10,acc_mean!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="47">
+        <f>acc_mean!I10-MAX(acc_mean!I10,acc_mean!I12)</f>
+        <v>-0.28480138169257296</v>
+      </c>
+      <c r="J10" s="47">
+        <f>acc_mean!J10-MAX(acc_mean!J10,acc_mean!J12)</f>
+        <v>-3.8169257340242013E-2</v>
+      </c>
+      <c r="K10" s="47">
+        <f>acc_mean!K10-MAX(acc_mean!K10,acc_mean!K12)</f>
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="1"/>
@@ -5169,35 +5580,35 @@
         <v>12</v>
       </c>
       <c r="P10" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!D10-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
         <v>-1.6062176165802966E-2</v>
       </c>
       <c r="Q10" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!E10-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
         <v>-9.6718480138159313E-3</v>
       </c>
       <c r="R10" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!F10-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
         <v>-2.1243523316062052E-2</v>
       </c>
       <c r="S10" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!G10-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
         <v>-2.3834196891191928E-2</v>
       </c>
       <c r="T10" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!H10-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
         <v>-2.9533678756476944E-2</v>
       </c>
       <c r="U10" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!I10-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
         <v>-0.42245250431778902</v>
       </c>
       <c r="V10" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!J10-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
         <v>-2.1761658031087983E-2</v>
       </c>
       <c r="W10" s="94">
-        <f t="shared" si="1"/>
+        <f>acc_mean!K10-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
         <v>-5.8721934369599937E-3</v>
       </c>
     </row>
@@ -5209,29 +5620,37 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="91">
-        <v>0.86839378238342002</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.80328151986183105</v>
-      </c>
-      <c r="F11" s="86">
-        <v>0.85164075993091604</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.82037996545768599</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.81191709844559601</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.83816925734024195</v>
-      </c>
-      <c r="J11" s="86">
-        <v>0.86459412780656297</v>
-      </c>
-      <c r="K11" s="92">
-        <v>0.85630397236614897</v>
+      <c r="D11" s="47">
+        <f>acc_mean!D11-MAX(acc_mean!D9,acc_mean!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="47">
+        <f>acc_mean!E11-MAX(acc_mean!E9,acc_mean!E11)</f>
+        <v>-4.8186528497408898E-2</v>
+      </c>
+      <c r="F11" s="47">
+        <f>acc_mean!F11-MAX(acc_mean!F9,acc_mean!F11)</f>
+        <v>-2.7806563039722954E-2</v>
+      </c>
+      <c r="G11" s="47">
+        <f>acc_mean!G11-MAX(acc_mean!G9,acc_mean!G11)</f>
+        <v>-3.7996545768566037E-2</v>
+      </c>
+      <c r="H11" s="47">
+        <f>acc_mean!H11-MAX(acc_mean!H9,acc_mean!H11)</f>
+        <v>-2.193436960276296E-2</v>
+      </c>
+      <c r="I11" s="47">
+        <f>acc_mean!I11-MAX(acc_mean!I9,acc_mean!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="47">
+        <f>acc_mean!J11-MAX(acc_mean!J9,acc_mean!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="47">
+        <f>acc_mean!K11-MAX(acc_mean!K9,acc_mean!K11)</f>
+        <v>-2.5906735751289878E-3</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="1">
@@ -5241,35 +5660,35 @@
         <v>1</v>
       </c>
       <c r="P11" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!D11-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!E11-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
         <v>-4.2659758203799969E-2</v>
       </c>
       <c r="R11" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!F11-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
         <v>-1.8825561312606931E-2</v>
       </c>
       <c r="S11" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!G11-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
         <v>-9.3264248704659769E-3</v>
       </c>
       <c r="T11" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!H11-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
         <v>-3.2815198618306951E-2</v>
       </c>
       <c r="U11" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!I11-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
         <v>-5.9585492227979042E-2</v>
       </c>
       <c r="V11" s="47">
-        <f t="shared" si="1"/>
+        <f>acc_mean!J11-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
         <v>-1.2435233160622006E-2</v>
       </c>
       <c r="W11" s="94">
-        <f t="shared" si="1"/>
+        <f>acc_mean!K11-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
         <v>0</v>
       </c>
     </row>
@@ -5279,29 +5698,37 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="87">
-        <v>0.90172711571675301</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.86390328151986195</v>
-      </c>
-      <c r="F12" s="88">
-        <v>0.88531951640759898</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.86683937823834201</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0.84283246977547499</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0.78480138169257296</v>
-      </c>
-      <c r="J12" s="88">
-        <v>0.899309153713299</v>
-      </c>
-      <c r="K12" s="49">
-        <v>0.85958549222797898</v>
+      <c r="D12" s="48">
+        <f>acc_mean!D12-MAX(acc_mean!D10,acc_mean!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="48">
+        <f>acc_mean!E12-MAX(acc_mean!E10,acc_mean!E12)</f>
+        <v>-4.3177892918830896E-3</v>
+      </c>
+      <c r="F12" s="48">
+        <f>acc_mean!F12-MAX(acc_mean!F10,acc_mean!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>acc_mean!G12-MAX(acc_mean!G10,acc_mean!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="48">
+        <f>acc_mean!H12-MAX(acc_mean!H10,acc_mean!H12)</f>
+        <v>-3.2124352331606043E-2</v>
+      </c>
+      <c r="I12" s="48">
+        <f>acc_mean!I12-MAX(acc_mean!I10,acc_mean!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="48">
+        <f>acc_mean!J12-MAX(acc_mean!J10,acc_mean!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="48">
+        <f>acc_mean!K12-MAX(acc_mean!K10,acc_mean!K12)</f>
+        <v>-2.590673575129987E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
@@ -5309,35 +5736,35 @@
         <v>12</v>
       </c>
       <c r="P12" s="48">
-        <f t="shared" si="1"/>
+        <f>acc_mean!D12-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
         <v>-4.1450777202070022E-3</v>
       </c>
       <c r="Q12" s="48">
-        <f t="shared" si="1"/>
+        <f>acc_mean!E12-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
         <v>-2.8497409326425083E-2</v>
       </c>
       <c r="R12" s="48">
-        <f t="shared" si="1"/>
+        <f>acc_mean!F12-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
         <v>-8.9810017271160225E-3</v>
       </c>
       <c r="S12" s="48">
-        <f t="shared" si="1"/>
+        <f>acc_mean!G12-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
         <v>-6.3903281519860355E-3</v>
       </c>
       <c r="T12" s="48">
-        <f t="shared" si="1"/>
+        <f>acc_mean!H12-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
         <v>-3.7305699481865018E-2</v>
       </c>
       <c r="U12" s="48">
-        <f t="shared" si="1"/>
+        <f>acc_mean!I12-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
         <v>-0.14386873920552701</v>
       </c>
       <c r="V12" s="48">
-        <f t="shared" si="1"/>
+        <f>acc_mean!J12-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
         <v>-1.2435233160622006E-2</v>
       </c>
       <c r="W12" s="95">
-        <f t="shared" si="1"/>
+        <f>acc_mean!K12-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
         <v>-3.0915371329878982E-2</v>
       </c>
     </row>
@@ -5351,29 +5778,37 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="89">
-        <v>0.86027633851467999</v>
-      </c>
-      <c r="E13" s="51">
-        <v>0.81312607944732296</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0.82746113989637304</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0.82348877374784102</v>
-      </c>
-      <c r="H13" s="90">
-        <v>0.84231433506044895</v>
-      </c>
-      <c r="I13" s="90">
-        <v>0.84231433506044895</v>
-      </c>
-      <c r="J13" s="51">
-        <v>0.83903281519861805</v>
-      </c>
-      <c r="K13" s="52">
-        <v>0.84075993091537105</v>
+      <c r="D13" s="45">
+        <f>acc_mean!D13-MAX(acc_mean!D13,acc_mean!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <f>acc_mean!E13-MAX(acc_mean!E13,acc_mean!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="45">
+        <f>acc_mean!F13-MAX(acc_mean!F13,acc_mean!F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <f>acc_mean!G13-MAX(acc_mean!G13,acc_mean!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="45">
+        <f>acc_mean!H13-MAX(acc_mean!H13,acc_mean!H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="45">
+        <f>acc_mean!I13-MAX(acc_mean!I13,acc_mean!I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
+        <f>acc_mean!J13-MAX(acc_mean!J13,acc_mean!J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="45">
+        <f>acc_mean!K13-MAX(acc_mean!K13,acc_mean!K15)</f>
+        <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>4</v>
@@ -5385,66 +5820,75 @@
         <v>1</v>
       </c>
       <c r="P13" s="50">
-        <f t="shared" ref="P13:W16" si="2">D13-MAX(D5,D9,D13,D17)</f>
+        <f>acc_mean!D13-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
         <v>-3.7996545768570478E-3</v>
       </c>
       <c r="Q13" s="50">
-        <f t="shared" si="2"/>
+        <f>acc_mean!E13-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
         <v>-6.4766839378238017E-2</v>
       </c>
       <c r="R13" s="50">
-        <f t="shared" si="2"/>
+        <f>acc_mean!F13-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
         <v>-5.1986183074265946E-2</v>
       </c>
       <c r="S13" s="50">
-        <f t="shared" si="2"/>
+        <f>acc_mean!G13-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
         <v>-3.4887737478411007E-2</v>
       </c>
       <c r="T13" s="50">
-        <f t="shared" si="2"/>
+        <f>acc_mean!H13-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
         <v>0</v>
       </c>
       <c r="U13" s="50">
-        <f t="shared" si="2"/>
+        <f>acc_mean!I13-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
         <v>-4.0241796200346069E-2</v>
       </c>
       <c r="V13" s="50">
-        <f t="shared" si="2"/>
+        <f>acc_mean!J13-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
         <v>-3.8860103626942921E-2</v>
       </c>
       <c r="W13" s="93">
-        <f t="shared" si="2"/>
+        <f>acc_mean!K13-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
         <v>-1.8134715025906911E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="91">
-        <v>0.87858376511226299</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.86701208981001698</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.87150259067357505</v>
-      </c>
-      <c r="G14" s="86">
-        <v>0.88480138169257305</v>
-      </c>
-      <c r="H14" s="86">
-        <v>0.88549222797927496</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.841968911917098</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.85993091537133004</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0.86804835924006896</v>
+      <c r="D14" s="47">
+        <f>acc_mean!D14-MAX(acc_mean!D14,acc_mean!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="47">
+        <f>acc_mean!E14-MAX(acc_mean!E14,acc_mean!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="47">
+        <f>acc_mean!F14-MAX(acc_mean!F14,acc_mean!F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="47">
+        <f>acc_mean!G14-MAX(acc_mean!G14,acc_mean!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="47">
+        <f>acc_mean!H14-MAX(acc_mean!H14,acc_mean!H16)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="47">
+        <f>acc_mean!I14-MAX(acc_mean!I14,acc_mean!I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="47">
+        <f>acc_mean!J14-MAX(acc_mean!J14,acc_mean!J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="47">
+        <f>acc_mean!K14-MAX(acc_mean!K14,acc_mean!K16)</f>
+        <v>0</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="1"/>
@@ -5452,35 +5896,35 @@
         <v>12</v>
       </c>
       <c r="P14" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!D14-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
         <v>-1.2607944732296983E-2</v>
       </c>
       <c r="Q14" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!E14-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
         <v>-1.0880829015543991E-2</v>
       </c>
       <c r="R14" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!F14-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
         <v>-2.7806563039723953E-2</v>
       </c>
       <c r="S14" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!G14-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
         <v>-1.3816925734029262E-3</v>
       </c>
       <c r="T14" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!H14-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
         <v>-1.8998272884283018E-2</v>
       </c>
       <c r="U14" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!I14-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
         <v>-8.0483592400691029E-2</v>
       </c>
       <c r="V14" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!J14-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
         <v>-2.2970639032814932E-2</v>
       </c>
       <c r="W14" s="94">
-        <f t="shared" si="2"/>
+        <f>acc_mean!K14-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
         <v>0</v>
       </c>
     </row>
@@ -5492,29 +5936,37 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="91">
-        <v>0.76355785837651102</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.34507772020725402</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.28238341968911901</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.51295336787564805</v>
-      </c>
-      <c r="H15" s="86">
-        <v>0.77443868739205501</v>
-      </c>
-      <c r="I15" s="86">
-        <v>0.791191709844559</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0.55975820379965502</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0.56027633851468095</v>
+      <c r="D15" s="47">
+        <f>acc_mean!D15-MAX(acc_mean!D13,acc_mean!D15)</f>
+        <v>-9.6718480138168972E-2</v>
+      </c>
+      <c r="E15" s="47">
+        <f>acc_mean!E15-MAX(acc_mean!E13,acc_mean!E15)</f>
+        <v>-0.46804835924006893</v>
+      </c>
+      <c r="F15" s="47">
+        <f>acc_mean!F15-MAX(acc_mean!F13,acc_mean!F15)</f>
+        <v>-0.54507772020725409</v>
+      </c>
+      <c r="G15" s="47">
+        <f>acc_mean!G15-MAX(acc_mean!G13,acc_mean!G15)</f>
+        <v>-0.31053540587219297</v>
+      </c>
+      <c r="H15" s="47">
+        <f>acc_mean!H15-MAX(acc_mean!H13,acc_mean!H15)</f>
+        <v>-6.7875647668393935E-2</v>
+      </c>
+      <c r="I15" s="47">
+        <f>acc_mean!I15-MAX(acc_mean!I13,acc_mean!I15)</f>
+        <v>-5.112262521588995E-2</v>
+      </c>
+      <c r="J15" s="47">
+        <f>acc_mean!J15-MAX(acc_mean!J13,acc_mean!J15)</f>
+        <v>-0.27927461139896304</v>
+      </c>
+      <c r="K15" s="47">
+        <f>acc_mean!K15-MAX(acc_mean!K13,acc_mean!K15)</f>
+        <v>-0.2804835924006901</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="1">
@@ -5524,35 +5976,35 @@
         <v>1</v>
       </c>
       <c r="P15" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!D15-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
         <v>-0.104835924006909</v>
       </c>
       <c r="Q15" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!E15-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
         <v>-0.500863557858377</v>
       </c>
       <c r="R15" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!F15-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
         <v>-0.58808290155440401</v>
       </c>
       <c r="S15" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!G15-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
         <v>-0.31675302245250392</v>
       </c>
       <c r="T15" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!H15-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
         <v>-7.0293609671847945E-2</v>
       </c>
       <c r="U15" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!I15-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
         <v>-0.10656303972366199</v>
       </c>
       <c r="V15" s="47">
-        <f t="shared" si="2"/>
+        <f>acc_mean!J15-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
         <v>-0.31727115716752996</v>
       </c>
       <c r="W15" s="94">
-        <f t="shared" si="2"/>
+        <f>acc_mean!K15-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
         <v>-0.29602763385146802</v>
       </c>
     </row>
@@ -5562,29 +6014,37 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="87">
-        <v>0.77409326424870495</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.61139896373057001</v>
-      </c>
-      <c r="F16" s="88">
-        <v>0.79689119170984501</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.46683937823834198</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.76597582037996503</v>
-      </c>
-      <c r="I16" s="88">
-        <v>0.77962003454231399</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.717962003454231</v>
-      </c>
-      <c r="K16" s="49">
-        <v>0.48134715025906699</v>
+      <c r="D16" s="48">
+        <f>acc_mean!D16-MAX(acc_mean!D14,acc_mean!D16)</f>
+        <v>-0.10449050086355804</v>
+      </c>
+      <c r="E16" s="48">
+        <f>acc_mean!E16-MAX(acc_mean!E14,acc_mean!E16)</f>
+        <v>-0.25561312607944697</v>
+      </c>
+      <c r="F16" s="48">
+        <f>acc_mean!F16-MAX(acc_mean!F14,acc_mean!F16)</f>
+        <v>-7.4611398963730036E-2</v>
+      </c>
+      <c r="G16" s="48">
+        <f>acc_mean!G16-MAX(acc_mean!G14,acc_mean!G16)</f>
+        <v>-0.41796200345423107</v>
+      </c>
+      <c r="H16" s="48">
+        <f>acc_mean!H16-MAX(acc_mean!H14,acc_mean!H16)</f>
+        <v>-0.11951640759930993</v>
+      </c>
+      <c r="I16" s="48">
+        <f>acc_mean!I16-MAX(acc_mean!I14,acc_mean!I16)</f>
+        <v>-6.2348877374784006E-2</v>
+      </c>
+      <c r="J16" s="48">
+        <f>acc_mean!J16-MAX(acc_mean!J14,acc_mean!J16)</f>
+        <v>-0.14196891191709904</v>
+      </c>
+      <c r="K16" s="48">
+        <f>acc_mean!K16-MAX(acc_mean!K14,acc_mean!K16)</f>
+        <v>-0.38670120898100196</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
@@ -5592,35 +6052,35 @@
         <v>12</v>
       </c>
       <c r="P16" s="48">
-        <f t="shared" si="2"/>
+        <f>acc_mean!D16-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
         <v>-0.13177892918825507</v>
       </c>
       <c r="Q16" s="48">
-        <f t="shared" si="2"/>
+        <f>acc_mean!E16-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
         <v>-0.28100172711571703</v>
       </c>
       <c r="R16" s="48">
-        <f t="shared" si="2"/>
+        <f>acc_mean!F16-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
         <v>-9.7409326424869991E-2</v>
       </c>
       <c r="S16" s="48">
-        <f t="shared" si="2"/>
+        <f>acc_mean!G16-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
         <v>-0.40639032815198606</v>
       </c>
       <c r="T16" s="48">
-        <f t="shared" si="2"/>
+        <f>acc_mean!H16-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
         <v>-0.11416234887737498</v>
       </c>
       <c r="U16" s="48">
-        <f t="shared" si="2"/>
+        <f>acc_mean!I16-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
         <v>-0.14905008635578598</v>
       </c>
       <c r="V16" s="48">
-        <f t="shared" si="2"/>
+        <f>acc_mean!J16-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
         <v>-0.19378238341969001</v>
       </c>
       <c r="W16" s="95">
-        <f t="shared" si="2"/>
+        <f>acc_mean!K16-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
         <v>-0.40915371329879097</v>
       </c>
     </row>
@@ -5634,29 +6094,37 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="50">
-        <v>0.790328151986183</v>
-      </c>
-      <c r="E17" s="90">
-        <v>0.87789291882556098</v>
-      </c>
-      <c r="F17" s="90">
-        <v>0.87806563039723695</v>
-      </c>
-      <c r="G17" s="51">
-        <v>0.82348877374784102</v>
-      </c>
-      <c r="H17" s="51">
-        <v>0.83229706390328095</v>
-      </c>
-      <c r="I17" s="90">
-        <v>0.88255613126079502</v>
-      </c>
-      <c r="J17" s="51">
-        <v>0.85198618307426599</v>
-      </c>
-      <c r="K17" s="52">
-        <v>0.844386873920553</v>
+      <c r="D17" s="45">
+        <f>acc_mean!D17-MAX(acc_mean!D17,acc_mean!D19)</f>
+        <v>-6.148531951640801E-2</v>
+      </c>
+      <c r="E17" s="45">
+        <f>acc_mean!E17-MAX(acc_mean!E17,acc_mean!E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="45">
+        <f>acc_mean!F17-MAX(acc_mean!F17,acc_mean!F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="45">
+        <f>acc_mean!G17-MAX(acc_mean!G17,acc_mean!G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
+        <f>acc_mean!H17-MAX(acc_mean!H17,acc_mean!H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="45">
+        <f>acc_mean!I17-MAX(acc_mean!I17,acc_mean!I19)</f>
+        <v>-7.2538860103620317E-3</v>
+      </c>
+      <c r="J17" s="45">
+        <f>acc_mean!J17-MAX(acc_mean!J17,acc_mean!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="45">
+        <f>acc_mean!K17-MAX(acc_mean!K17,acc_mean!K19)</f>
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>5</v>
@@ -5668,66 +6136,75 @@
         <v>1</v>
       </c>
       <c r="P17" s="50">
-        <f t="shared" ref="P17:W20" si="3">D17-MAX(D5,D9,D13,D17)</f>
+        <f>acc_mean!D17-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
         <v>-7.3747841105354039E-2</v>
       </c>
       <c r="Q17" s="50">
-        <f t="shared" si="3"/>
+        <f>acc_mean!E17-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="50">
-        <f t="shared" si="3"/>
+        <f>acc_mean!F17-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
         <v>-1.381692573402038E-3</v>
       </c>
       <c r="S17" s="50">
-        <f t="shared" si="3"/>
+        <f>acc_mean!G17-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
         <v>-3.4887737478411007E-2</v>
       </c>
       <c r="T17" s="50">
-        <f t="shared" si="3"/>
+        <f>acc_mean!H17-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
         <v>-1.0017271157167995E-2</v>
       </c>
       <c r="U17" s="50">
-        <f t="shared" si="3"/>
+        <f>acc_mean!I17-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
         <v>0</v>
       </c>
       <c r="V17" s="50">
-        <f t="shared" si="3"/>
+        <f>acc_mean!J17-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
         <v>-2.5906735751294985E-2</v>
       </c>
       <c r="W17" s="93">
-        <f t="shared" si="3"/>
+        <f>acc_mean!K17-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
         <v>-1.4507772020724952E-2</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="47">
-        <v>0.79274611398963701</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.87789291882556098</v>
-      </c>
-      <c r="F18" s="86">
-        <v>0.899309153713299</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.87754749568221102</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.88151986183074305</v>
-      </c>
-      <c r="I18" s="86">
-        <v>0.88842832469775501</v>
-      </c>
-      <c r="J18" s="86">
-        <v>0.88290155440414497</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0.86563039723661495</v>
+        <f>acc_mean!D18-MAX(acc_mean!D18,acc_mean!D20)</f>
+        <v>-8.9810017271157006E-2</v>
+      </c>
+      <c r="E18" s="47">
+        <f>acc_mean!E18-MAX(acc_mean!E18,acc_mean!E20)</f>
+        <v>-2.2452504317790334E-3</v>
+      </c>
+      <c r="F18" s="47">
+        <f>acc_mean!F18-MAX(acc_mean!F18,acc_mean!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="47">
+        <f>acc_mean!G18-MAX(acc_mean!G18,acc_mean!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="47">
+        <f>acc_mean!H18-MAX(acc_mean!H18,acc_mean!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="47">
+        <f>acc_mean!I18-MAX(acc_mean!I18,acc_mean!I20)</f>
+        <v>-1.3989637305699021E-2</v>
+      </c>
+      <c r="J18" s="47">
+        <f>acc_mean!J18-MAX(acc_mean!J18,acc_mean!J20)</f>
+        <v>-2.8842832469776036E-2</v>
+      </c>
+      <c r="K18" s="47">
+        <f>acc_mean!K18-MAX(acc_mean!K18,acc_mean!K20)</f>
+        <v>-3.7996545768560486E-3</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="1"/>
@@ -5735,35 +6212,35 @@
         <v>12</v>
       </c>
       <c r="P18" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!D18-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
         <v>-9.8445595854922963E-2</v>
       </c>
       <c r="Q18" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!E18-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!F18-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!G18-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
         <v>-8.6355785837649579E-3</v>
       </c>
       <c r="T18" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!H18-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
         <v>-2.2970639032814932E-2</v>
       </c>
       <c r="U18" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!I18-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
         <v>-3.4024179620034012E-2</v>
       </c>
       <c r="V18" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!J18-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
         <v>0</v>
       </c>
       <c r="W18" s="94">
-        <f t="shared" si="3"/>
+        <f>acc_mean!K18-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
         <v>-2.4179620034540106E-3</v>
       </c>
     </row>
@@ -5775,29 +6252,37 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="91">
-        <v>0.85181347150259101</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.82918825561312604</v>
-      </c>
-      <c r="F19" s="86">
-        <v>0.85457685664939498</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.81053540587219397</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.83005181347150303</v>
-      </c>
-      <c r="I19" s="86">
-        <v>0.88981001727115705</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0.83471502590673596</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0.82797927461139897</v>
+      <c r="D19" s="47">
+        <f>acc_mean!D19-MAX(acc_mean!D17,acc_mean!D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="47">
+        <f>acc_mean!E19-MAX(acc_mean!E17,acc_mean!E19)</f>
+        <v>-4.870466321243494E-2</v>
+      </c>
+      <c r="F19" s="47">
+        <f>acc_mean!F19-MAX(acc_mean!F17,acc_mean!F19)</f>
+        <v>-2.3488773747841973E-2</v>
+      </c>
+      <c r="G19" s="47">
+        <f>acc_mean!G19-MAX(acc_mean!G17,acc_mean!G19)</f>
+        <v>-1.2953367875647048E-2</v>
+      </c>
+      <c r="H19" s="47">
+        <f>acc_mean!H19-MAX(acc_mean!H17,acc_mean!H19)</f>
+        <v>-2.2452504317779232E-3</v>
+      </c>
+      <c r="I19" s="47">
+        <f>acc_mean!I19-MAX(acc_mean!I17,acc_mean!I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="47">
+        <f>acc_mean!J19-MAX(acc_mean!J17,acc_mean!J19)</f>
+        <v>-1.7271157167530027E-2</v>
+      </c>
+      <c r="K19" s="47">
+        <f>acc_mean!K19-MAX(acc_mean!K17,acc_mean!K19)</f>
+        <v>-1.6407599309154031E-2</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="1">
@@ -5807,35 +6292,35 @@
         <v>1</v>
       </c>
       <c r="P19" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!D19-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
         <v>-1.6580310880829008E-2</v>
       </c>
       <c r="Q19" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!E19-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
         <v>-1.6753022452504984E-2</v>
       </c>
       <c r="R19" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!F19-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
         <v>-1.5889464594127989E-2</v>
       </c>
       <c r="S19" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!G19-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
         <v>-1.9170984455957996E-2</v>
       </c>
       <c r="T19" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!H19-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
         <v>-1.4680483592399929E-2</v>
       </c>
       <c r="U19" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!I19-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
         <v>-7.9447322970639389E-3</v>
       </c>
       <c r="V19" s="47">
-        <f t="shared" si="3"/>
+        <f>acc_mean!J19-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
         <v>-4.2314335060449015E-2</v>
       </c>
       <c r="W19" s="94">
-        <f t="shared" si="3"/>
+        <f>acc_mean!K19-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
         <v>-2.8324697754749995E-2</v>
       </c>
     </row>
@@ -5845,29 +6330,37 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="87">
-        <v>0.88255613126079402</v>
-      </c>
-      <c r="E20" s="88">
-        <v>0.88013816925734001</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0.84490500863557905</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.87322970639032804</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.87409326424870504</v>
-      </c>
-      <c r="I20" s="88">
-        <v>0.90241796200345403</v>
-      </c>
-      <c r="J20" s="88">
-        <v>0.91174438687392101</v>
-      </c>
-      <c r="K20" s="49">
-        <v>0.86943005181347099</v>
+      <c r="D20" s="48">
+        <f>acc_mean!D20-MAX(acc_mean!D18,acc_mean!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="48">
+        <f>acc_mean!E20-MAX(acc_mean!E18,acc_mean!E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="48">
+        <f>acc_mean!F20-MAX(acc_mean!F18,acc_mean!F20)</f>
+        <v>-5.4404145077719956E-2</v>
+      </c>
+      <c r="G20" s="48">
+        <f>acc_mean!G20-MAX(acc_mean!G18,acc_mean!G20)</f>
+        <v>-4.3177892918829786E-3</v>
+      </c>
+      <c r="H20" s="48">
+        <f>acc_mean!H20-MAX(acc_mean!H18,acc_mean!H20)</f>
+        <v>-7.4265975820380081E-3</v>
+      </c>
+      <c r="I20" s="48">
+        <f>acc_mean!I20-MAX(acc_mean!I18,acc_mean!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="48">
+        <f>acc_mean!J20-MAX(acc_mean!J18,acc_mean!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="48">
+        <f>acc_mean!K20-MAX(acc_mean!K18,acc_mean!K20)</f>
+        <v>0</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
@@ -5875,62 +6368,40 @@
         <v>12</v>
       </c>
       <c r="P20" s="48">
-        <f t="shared" si="3"/>
+        <f>acc_mean!D20-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
         <v>-2.3316062176165997E-2</v>
       </c>
       <c r="Q20" s="48">
-        <f t="shared" si="3"/>
+        <f>acc_mean!E20-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
         <v>-1.2262521588947028E-2</v>
       </c>
       <c r="R20" s="48">
-        <f t="shared" si="3"/>
+        <f>acc_mean!F20-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
         <v>-4.9395509499135959E-2</v>
       </c>
       <c r="S20" s="48">
-        <f t="shared" si="3"/>
+        <f>acc_mean!G20-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
         <v>0</v>
       </c>
       <c r="T20" s="48">
-        <f t="shared" si="3"/>
+        <f>acc_mean!H20-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
         <v>-6.0449050086349709E-3</v>
       </c>
       <c r="U20" s="48">
-        <f t="shared" si="3"/>
+        <f>acc_mean!I20-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
         <v>-2.6252158894645938E-2</v>
       </c>
       <c r="V20" s="48">
-        <f t="shared" si="3"/>
+        <f>acc_mean!J20-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
         <v>0</v>
       </c>
       <c r="W20" s="95">
-        <f t="shared" si="3"/>
+        <f>acc_mean!K20-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
         <v>-2.1070811744386964E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
       <c r="M22" s="98" t="s">
         <v>34</v>
       </c>
@@ -5946,39 +6417,6 @@
       <c r="W22" s="100"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="M23" s="96" t="s">
         <v>35</v>
       </c>
@@ -6014,47 +6452,6 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="45">
-        <f>D5-MAX(D5,D7)</f>
-        <v>-6.3903281519860355E-3</v>
-      </c>
-      <c r="E24" s="45">
-        <f t="shared" ref="E24:K25" si="4">E5-MAX(E5,E7)</f>
-        <v>-9.4991364421420643E-3</v>
-      </c>
-      <c r="F24" s="45">
-        <f t="shared" si="4"/>
-        <v>-1.4162348877373998E-2</v>
-      </c>
-      <c r="G24" s="45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="45">
-        <f t="shared" si="4"/>
-        <v>-1.1053540587218968E-2</v>
-      </c>
-      <c r="I24" s="45">
-        <f t="shared" si="4"/>
-        <v>-4.3696027633850942E-2</v>
-      </c>
-      <c r="J24" s="45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="M24" s="2" t="s">
         <v>1</v>
       </c>
@@ -6065,153 +6462,78 @@
         <v>1</v>
       </c>
       <c r="P24" s="45">
-        <f>D5-MAX(D5,D6)</f>
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D6)</f>
         <v>-3.8514680483592967E-2</v>
       </c>
       <c r="Q24" s="45">
-        <f t="shared" ref="Q24:W24" si="5">E5-MAX(E5,E6)</f>
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E6)</f>
         <v>-3.2987910189982039E-2</v>
       </c>
       <c r="R24" s="45">
-        <f t="shared" si="5"/>
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F6)</f>
         <v>-3.7478411053539995E-2</v>
       </c>
       <c r="S24" s="45">
-        <f t="shared" si="5"/>
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G6)</f>
         <v>-5.0086355785837977E-2</v>
       </c>
       <c r="T24" s="45">
-        <f t="shared" si="5"/>
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H6)</f>
         <v>-7.0811744386873987E-2</v>
       </c>
       <c r="U24" s="45">
-        <f t="shared" si="5"/>
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I6)</f>
         <v>-6.8393782383418977E-2</v>
       </c>
       <c r="V24" s="45">
-        <f t="shared" si="5"/>
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J6)</f>
         <v>0</v>
       </c>
       <c r="W24" s="45">
-        <f t="shared" si="5"/>
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K6)</f>
         <v>-2.8497409326424972E-2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="47">
-        <f>D6-MAX(D6,D8)</f>
-        <v>-1.468048359240004E-2</v>
-      </c>
-      <c r="E25" s="47">
-        <f t="shared" si="4"/>
-        <v>-2.2970639032816043E-2</v>
-      </c>
-      <c r="F25" s="47">
-        <f t="shared" si="4"/>
-        <v>-5.181347150260418E-4</v>
-      </c>
-      <c r="G25" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="47">
-        <f t="shared" si="4"/>
-        <v>-6.2176165803109473E-3</v>
-      </c>
-      <c r="J25" s="47">
-        <f t="shared" si="4"/>
-        <v>-3.229706390328102E-2</v>
-      </c>
-      <c r="K25" s="47">
-        <f t="shared" si="4"/>
-        <v>-2.7979274611397931E-2</v>
-      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P25" s="47">
-        <f>D6-MAX(D5,D6)</f>
+        <f>acc_mean!D6-MAX(acc_mean!D5,acc_mean!D6)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="47">
-        <f t="shared" ref="Q25:W25" si="6">E6-MAX(E5,E6)</f>
+        <f>acc_mean!E6-MAX(acc_mean!E5,acc_mean!E6)</f>
         <v>0</v>
       </c>
       <c r="R25" s="47">
-        <f t="shared" si="6"/>
+        <f>acc_mean!F6-MAX(acc_mean!F5,acc_mean!F6)</f>
         <v>0</v>
       </c>
       <c r="S25" s="47">
-        <f t="shared" si="6"/>
+        <f>acc_mean!G6-MAX(acc_mean!G5,acc_mean!G6)</f>
         <v>0</v>
       </c>
       <c r="T25" s="47">
-        <f t="shared" si="6"/>
+        <f>acc_mean!H6-MAX(acc_mean!H5,acc_mean!H6)</f>
         <v>0</v>
       </c>
       <c r="U25" s="47">
-        <f t="shared" si="6"/>
+        <f>acc_mean!I6-MAX(acc_mean!I5,acc_mean!I6)</f>
         <v>0</v>
       </c>
       <c r="V25" s="47">
-        <f t="shared" si="6"/>
+        <f>acc_mean!J6-MAX(acc_mean!J5,acc_mean!J6)</f>
         <v>-8.2901554404140043E-3</v>
       </c>
       <c r="W25" s="47">
-        <f t="shared" si="6"/>
+        <f>acc_mean!K6-MAX(acc_mean!K5,acc_mean!K6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="47">
-        <f>D7-MAX(D5,D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="47">
-        <f t="shared" ref="E26:K27" si="7">E7-MAX(E5,E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="47">
-        <f t="shared" si="7"/>
-        <v>-6.3903281519860355E-3</v>
-      </c>
-      <c r="H26" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="47">
-        <f t="shared" si="7"/>
-        <v>-8.6355785837599619E-4</v>
-      </c>
-      <c r="K26" s="47">
-        <f t="shared" si="7"/>
-        <v>-1.7789291882557068E-2</v>
-      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="1">
         <v>2</v>
@@ -6220,156 +6542,78 @@
         <v>1</v>
       </c>
       <c r="P26" s="45">
-        <f>D7-MAX(D7,D8)</f>
+        <f>acc_mean!D7-MAX(acc_mean!D7,acc_mean!D8)</f>
         <v>-4.6804835924006971E-2</v>
       </c>
       <c r="Q26" s="45">
-        <f t="shared" ref="Q26:W26" si="8">E7-MAX(E7,E8)</f>
+        <f>acc_mean!E7-MAX(acc_mean!E7,acc_mean!E8)</f>
         <v>-4.6459412780656018E-2</v>
       </c>
       <c r="R26" s="45">
-        <f t="shared" si="8"/>
+        <f>acc_mean!F7-MAX(acc_mean!F7,acc_mean!F8)</f>
         <v>-2.3834196891192039E-2</v>
       </c>
       <c r="S26" s="45">
-        <f t="shared" si="8"/>
+        <f>acc_mean!G7-MAX(acc_mean!G7,acc_mean!G8)</f>
         <v>-2.5906735751294985E-2</v>
       </c>
       <c r="T26" s="45">
-        <f t="shared" si="8"/>
+        <f>acc_mean!H7-MAX(acc_mean!H7,acc_mean!H8)</f>
         <v>-3.5405872193437049E-2</v>
       </c>
       <c r="U26" s="45">
-        <f t="shared" si="8"/>
+        <f>acc_mean!I7-MAX(acc_mean!I7,acc_mean!I8)</f>
         <v>-3.0915371329878982E-2</v>
       </c>
       <c r="V26" s="45">
-        <f t="shared" si="8"/>
+        <f>acc_mean!J7-MAX(acc_mean!J7,acc_mean!J8)</f>
         <v>-2.4870466321243012E-2</v>
       </c>
       <c r="W26" s="45">
-        <f t="shared" si="8"/>
+        <f>acc_mean!K7-MAX(acc_mean!K7,acc_mean!K8)</f>
         <v>-7.426597582037997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="48">
-        <f>D8-MAX(D6,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="48">
-        <f t="shared" si="7"/>
-        <v>-3.0569948186529028E-2</v>
-      </c>
-      <c r="H27" s="48">
-        <f t="shared" si="7"/>
-        <v>-2.435233160621797E-2</v>
-      </c>
-      <c r="I27" s="48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="M27" s="5"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P27" s="47">
-        <f>D8-MAX(D7,D8)</f>
+        <f>acc_mean!D8-MAX(acc_mean!D7,acc_mean!D8)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="47">
-        <f t="shared" ref="Q27:W27" si="9">E8-MAX(E7,E8)</f>
+        <f>acc_mean!E8-MAX(acc_mean!E7,acc_mean!E8)</f>
         <v>0</v>
       </c>
       <c r="R27" s="47">
-        <f t="shared" si="9"/>
+        <f>acc_mean!F8-MAX(acc_mean!F7,acc_mean!F8)</f>
         <v>0</v>
       </c>
       <c r="S27" s="47">
-        <f t="shared" si="9"/>
+        <f>acc_mean!G8-MAX(acc_mean!G7,acc_mean!G8)</f>
         <v>0</v>
       </c>
       <c r="T27" s="47">
-        <f t="shared" si="9"/>
+        <f>acc_mean!H8-MAX(acc_mean!H7,acc_mean!H8)</f>
         <v>0</v>
       </c>
       <c r="U27" s="47">
-        <f t="shared" si="9"/>
+        <f>acc_mean!I8-MAX(acc_mean!I7,acc_mean!I8)</f>
         <v>0</v>
       </c>
       <c r="V27" s="47">
-        <f t="shared" si="9"/>
+        <f>acc_mean!J8-MAX(acc_mean!J7,acc_mean!J8)</f>
         <v>0</v>
       </c>
       <c r="W27" s="47">
-        <f t="shared" si="9"/>
+        <f>acc_mean!K8-MAX(acc_mean!K7,acc_mean!K8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="45">
-        <f>D9-MAX(D9,D11)</f>
-        <v>-4.3177892918829786E-3</v>
-      </c>
-      <c r="E28" s="45">
-        <f t="shared" ref="E28:K29" si="10">E9-MAX(E9,E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="45">
-        <f t="shared" si="10"/>
-        <v>-0.41295336787564796</v>
-      </c>
-      <c r="J28" s="45">
-        <f t="shared" si="10"/>
-        <v>-2.7633851468049642E-3</v>
-      </c>
-      <c r="K28" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="M28" s="2" t="s">
         <v>3</v>
       </c>
@@ -6380,153 +6624,78 @@
         <v>1</v>
       </c>
       <c r="P28" s="45">
-        <f>D9-MAX(D9,D10)</f>
+        <f>acc_mean!D9-MAX(acc_mean!D9,acc_mean!D10)</f>
         <v>-1.1053540587219968E-2</v>
       </c>
       <c r="Q28" s="45">
-        <f t="shared" ref="Q28:W28" si="11">E9-MAX(E9,E10)</f>
+        <f>acc_mean!E9-MAX(acc_mean!E9,acc_mean!E10)</f>
         <v>-1.6753022452505095E-2</v>
       </c>
       <c r="R28" s="45">
-        <f t="shared" si="11"/>
+        <f>acc_mean!F9-MAX(acc_mean!F9,acc_mean!F10)</f>
         <v>0</v>
       </c>
       <c r="S28" s="45">
-        <f t="shared" si="11"/>
+        <f>acc_mean!G9-MAX(acc_mean!G9,acc_mean!G10)</f>
         <v>-3.972366148532025E-3</v>
       </c>
       <c r="T28" s="45">
-        <f t="shared" si="11"/>
+        <f>acc_mean!H9-MAX(acc_mean!H9,acc_mean!H10)</f>
         <v>-4.1105354058722066E-2</v>
       </c>
       <c r="U28" s="45">
-        <f t="shared" si="11"/>
+        <f>acc_mean!I9-MAX(acc_mean!I9,acc_mean!I10)</f>
         <v>-7.4784110535406012E-2</v>
       </c>
       <c r="V28" s="45">
-        <f t="shared" si="11"/>
+        <f>acc_mean!J9-MAX(acc_mean!J9,acc_mean!J10)</f>
         <v>0</v>
       </c>
       <c r="W28" s="45">
-        <f t="shared" si="11"/>
+        <f>acc_mean!K9-MAX(acc_mean!K9,acc_mean!K10)</f>
         <v>-3.281519861831006E-3</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="47">
-        <f>D10-MAX(D10,D12)</f>
-        <v>-2.6597582037996004E-2</v>
-      </c>
-      <c r="E29" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="47">
-        <f t="shared" si="10"/>
-        <v>-7.2538860103620317E-3</v>
-      </c>
-      <c r="G29" s="47">
-        <f t="shared" si="10"/>
-        <v>-4.4905008635579557E-3</v>
-      </c>
-      <c r="H29" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="47">
-        <f t="shared" si="10"/>
-        <v>-0.28480138169257296</v>
-      </c>
-      <c r="J29" s="47">
-        <f t="shared" si="10"/>
-        <v>-3.8169257340242013E-2</v>
-      </c>
-      <c r="K29" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P29" s="47">
-        <f>D10-MAX(D9,D10)</f>
+        <f>acc_mean!D10-MAX(acc_mean!D9,acc_mean!D10)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="47">
-        <f t="shared" ref="Q29:W29" si="12">E10-MAX(E9,E10)</f>
+        <f>acc_mean!E10-MAX(acc_mean!E9,acc_mean!E10)</f>
         <v>0</v>
       </c>
       <c r="R29" s="47">
-        <f t="shared" si="12"/>
+        <f>acc_mean!F10-MAX(acc_mean!F9,acc_mean!F10)</f>
         <v>-1.381692573402038E-3</v>
       </c>
       <c r="S29" s="47">
-        <f t="shared" si="12"/>
+        <f>acc_mean!G10-MAX(acc_mean!G9,acc_mean!G10)</f>
         <v>0</v>
       </c>
       <c r="T29" s="47">
-        <f t="shared" si="12"/>
+        <f>acc_mean!H10-MAX(acc_mean!H9,acc_mean!H10)</f>
         <v>0</v>
       </c>
       <c r="U29" s="47">
-        <f t="shared" si="12"/>
+        <f>acc_mean!I10-MAX(acc_mean!I9,acc_mean!I10)</f>
         <v>0</v>
       </c>
       <c r="V29" s="47">
-        <f t="shared" si="12"/>
+        <f>acc_mean!J10-MAX(acc_mean!J9,acc_mean!J10)</f>
         <v>-6.90846286701019E-4</v>
       </c>
       <c r="W29" s="47">
-        <f t="shared" si="12"/>
+        <f>acc_mean!K10-MAX(acc_mean!K9,acc_mean!K10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="47">
-        <f>D11-MAX(D9,D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="47">
-        <f t="shared" ref="E30:K31" si="13">E11-MAX(E9,E11)</f>
-        <v>-4.8186528497408898E-2</v>
-      </c>
-      <c r="F30" s="47">
-        <f t="shared" si="13"/>
-        <v>-2.7806563039722954E-2</v>
-      </c>
-      <c r="G30" s="47">
-        <f t="shared" si="13"/>
-        <v>-3.7996545768566037E-2</v>
-      </c>
-      <c r="H30" s="47">
-        <f t="shared" si="13"/>
-        <v>-2.193436960276296E-2</v>
-      </c>
-      <c r="I30" s="47">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="47">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="47">
-        <f t="shared" si="13"/>
-        <v>-2.5906735751289878E-3</v>
-      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="1">
         <v>2</v>
@@ -6535,156 +6704,78 @@
         <v>1</v>
       </c>
       <c r="P30" s="45">
-        <f>D11-MAX(D11,D12)</f>
+        <f>acc_mean!D11-MAX(acc_mean!D11,acc_mean!D12)</f>
         <v>-3.3333333333332993E-2</v>
       </c>
       <c r="Q30" s="45">
-        <f t="shared" ref="Q30:W30" si="14">E11-MAX(E11,E12)</f>
+        <f>acc_mean!E11-MAX(acc_mean!E11,acc_mean!E12)</f>
         <v>-6.0621761658030904E-2</v>
       </c>
       <c r="R30" s="45">
-        <f t="shared" si="14"/>
+        <f>acc_mean!F11-MAX(acc_mean!F11,acc_mean!F12)</f>
         <v>-3.3678756476682947E-2</v>
       </c>
       <c r="S30" s="45">
-        <f t="shared" si="14"/>
+        <f>acc_mean!G11-MAX(acc_mean!G11,acc_mean!G12)</f>
         <v>-4.6459412780656018E-2</v>
       </c>
       <c r="T30" s="45">
-        <f t="shared" si="14"/>
+        <f>acc_mean!H11-MAX(acc_mean!H11,acc_mean!H12)</f>
         <v>-3.0915371329878982E-2</v>
       </c>
       <c r="U30" s="45">
-        <f t="shared" si="14"/>
+        <f>acc_mean!I11-MAX(acc_mean!I11,acc_mean!I12)</f>
         <v>0</v>
       </c>
       <c r="V30" s="45">
-        <f t="shared" si="14"/>
+        <f>acc_mean!J11-MAX(acc_mean!J11,acc_mean!J12)</f>
         <v>-3.471502590673603E-2</v>
       </c>
       <c r="W30" s="45">
-        <f t="shared" si="14"/>
+        <f>acc_mean!K11-MAX(acc_mean!K11,acc_mean!K12)</f>
         <v>-3.2815198618300068E-3</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="48">
-        <f>D12-MAX(D10,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="48">
-        <f t="shared" si="13"/>
-        <v>-4.3177892918830896E-3</v>
-      </c>
-      <c r="F31" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="48">
-        <f t="shared" si="13"/>
-        <v>-3.2124352331606043E-2</v>
-      </c>
-      <c r="I31" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="48">
-        <f t="shared" si="13"/>
-        <v>-2.590673575129987E-3</v>
-      </c>
       <c r="M31" s="5"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P31" s="47">
-        <f>D12-MAX(D11,D12)</f>
+        <f>acc_mean!D12-MAX(acc_mean!D11,acc_mean!D12)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="47">
-        <f t="shared" ref="Q31:W31" si="15">E12-MAX(E11,E12)</f>
+        <f>acc_mean!E12-MAX(acc_mean!E11,acc_mean!E12)</f>
         <v>0</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" si="15"/>
+        <f>acc_mean!F12-MAX(acc_mean!F11,acc_mean!F12)</f>
         <v>0</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" si="15"/>
+        <f>acc_mean!G12-MAX(acc_mean!G11,acc_mean!G12)</f>
         <v>0</v>
       </c>
       <c r="T31" s="47">
-        <f t="shared" si="15"/>
+        <f>acc_mean!H12-MAX(acc_mean!H11,acc_mean!H12)</f>
         <v>0</v>
       </c>
       <c r="U31" s="47">
-        <f t="shared" si="15"/>
+        <f>acc_mean!I12-MAX(acc_mean!I11,acc_mean!I12)</f>
         <v>-5.3367875647668983E-2</v>
       </c>
       <c r="V31" s="47">
-        <f t="shared" si="15"/>
+        <f>acc_mean!J12-MAX(acc_mean!J11,acc_mean!J12)</f>
         <v>0</v>
       </c>
       <c r="W31" s="47">
-        <f t="shared" si="15"/>
+        <f>acc_mean!K12-MAX(acc_mean!K11,acc_mean!K12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="45">
-        <f>D13-MAX(D13,D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="45">
-        <f t="shared" ref="E32:K33" si="16">E13-MAX(E13,E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="M32" s="2" t="s">
         <v>4</v>
       </c>
@@ -6695,153 +6786,78 @@
         <v>1</v>
       </c>
       <c r="P32" s="45">
-        <f>D13-MAX(D13,D14)</f>
+        <f>acc_mean!D13-MAX(acc_mean!D13,acc_mean!D14)</f>
         <v>-1.8307426597582999E-2</v>
       </c>
       <c r="Q32" s="45">
-        <f t="shared" ref="Q32:W32" si="17">E13-MAX(E13,E14)</f>
+        <f>acc_mean!E13-MAX(acc_mean!E13,acc_mean!E14)</f>
         <v>-5.3886010362694026E-2</v>
       </c>
       <c r="R32" s="45">
-        <f t="shared" si="17"/>
+        <f>acc_mean!F13-MAX(acc_mean!F13,acc_mean!F14)</f>
         <v>-4.4041450777202007E-2</v>
       </c>
       <c r="S32" s="45">
-        <f t="shared" si="17"/>
+        <f>acc_mean!G13-MAX(acc_mean!G13,acc_mean!G14)</f>
         <v>-6.1312607944732034E-2</v>
       </c>
       <c r="T32" s="45">
-        <f t="shared" si="17"/>
+        <f>acc_mean!H13-MAX(acc_mean!H13,acc_mean!H14)</f>
         <v>-4.3177892918826011E-2</v>
       </c>
       <c r="U32" s="45">
-        <f t="shared" si="17"/>
+        <f>acc_mean!I13-MAX(acc_mean!I13,acc_mean!I14)</f>
         <v>0</v>
       </c>
       <c r="V32" s="45">
-        <f t="shared" si="17"/>
+        <f>acc_mean!J13-MAX(acc_mean!J13,acc_mean!J14)</f>
         <v>-2.0898100172711986E-2</v>
       </c>
       <c r="W32" s="45">
-        <f t="shared" si="17"/>
+        <f>acc_mean!K13-MAX(acc_mean!K13,acc_mean!K14)</f>
         <v>-2.7288428324697911E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="47">
-        <f>D14-MAX(D14,D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M33" s="4"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P33" s="47">
-        <f>D14-MAX(D13,D14)</f>
+        <f>acc_mean!D14-MAX(acc_mean!D13,acc_mean!D14)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="47">
-        <f t="shared" ref="Q33:W33" si="18">E14-MAX(E13,E14)</f>
+        <f>acc_mean!E14-MAX(acc_mean!E13,acc_mean!E14)</f>
         <v>0</v>
       </c>
       <c r="R33" s="47">
-        <f t="shared" si="18"/>
+        <f>acc_mean!F14-MAX(acc_mean!F13,acc_mean!F14)</f>
         <v>0</v>
       </c>
       <c r="S33" s="47">
-        <f t="shared" si="18"/>
+        <f>acc_mean!G14-MAX(acc_mean!G13,acc_mean!G14)</f>
         <v>0</v>
       </c>
       <c r="T33" s="47">
-        <f t="shared" si="18"/>
+        <f>acc_mean!H14-MAX(acc_mean!H13,acc_mean!H14)</f>
         <v>0</v>
       </c>
       <c r="U33" s="47">
-        <f t="shared" si="18"/>
+        <f>acc_mean!I14-MAX(acc_mean!I13,acc_mean!I14)</f>
         <v>-3.4542314335095359E-4</v>
       </c>
       <c r="V33" s="47">
-        <f t="shared" si="18"/>
+        <f>acc_mean!J14-MAX(acc_mean!J13,acc_mean!J14)</f>
         <v>0</v>
       </c>
       <c r="W33" s="47">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="47">
-        <f>D15-MAX(D13,D15)</f>
-        <v>-9.6718480138168972E-2</v>
-      </c>
-      <c r="E34" s="47">
-        <f t="shared" ref="E34:K35" si="19">E15-MAX(E13,E15)</f>
-        <v>-0.46804835924006893</v>
-      </c>
-      <c r="F34" s="47">
-        <f t="shared" si="19"/>
-        <v>-0.54507772020725409</v>
-      </c>
-      <c r="G34" s="47">
-        <f t="shared" si="19"/>
-        <v>-0.31053540587219297</v>
-      </c>
-      <c r="H34" s="47">
-        <f t="shared" si="19"/>
-        <v>-6.7875647668393935E-2</v>
-      </c>
-      <c r="I34" s="47">
-        <f t="shared" si="19"/>
-        <v>-5.112262521588995E-2</v>
-      </c>
-      <c r="J34" s="47">
-        <f t="shared" si="19"/>
-        <v>-0.27927461139896304</v>
-      </c>
-      <c r="K34" s="47">
-        <f t="shared" si="19"/>
-        <v>-0.2804835924006901</v>
-      </c>
+        <f>acc_mean!K14-MAX(acc_mean!K13,acc_mean!K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M34" s="4"/>
       <c r="N34" s="1">
         <v>2</v>
@@ -6850,156 +6866,78 @@
         <v>1</v>
       </c>
       <c r="P34" s="45">
-        <f>D15-MAX(D15,D16)</f>
+        <f>acc_mean!D15-MAX(acc_mean!D15,acc_mean!D16)</f>
         <v>-1.0535405872193926E-2</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" ref="Q34:W34" si="20">E15-MAX(E15,E16)</f>
+        <f>acc_mean!E15-MAX(acc_mean!E15,acc_mean!E16)</f>
         <v>-0.26632124352331599</v>
       </c>
       <c r="R34" s="45">
-        <f t="shared" si="20"/>
+        <f>acc_mean!F15-MAX(acc_mean!F15,acc_mean!F16)</f>
         <v>-0.51450777202072606</v>
       </c>
       <c r="S34" s="45">
-        <f t="shared" si="20"/>
+        <f>acc_mean!G15-MAX(acc_mean!G15,acc_mean!G16)</f>
         <v>0</v>
       </c>
       <c r="T34" s="45">
-        <f t="shared" si="20"/>
+        <f>acc_mean!H15-MAX(acc_mean!H15,acc_mean!H16)</f>
         <v>0</v>
       </c>
       <c r="U34" s="45">
-        <f t="shared" si="20"/>
+        <f>acc_mean!I15-MAX(acc_mean!I15,acc_mean!I16)</f>
         <v>0</v>
       </c>
       <c r="V34" s="45">
-        <f t="shared" si="20"/>
+        <f>acc_mean!J15-MAX(acc_mean!J15,acc_mean!J16)</f>
         <v>-0.15820379965457598</v>
       </c>
       <c r="W34" s="45">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="48">
-        <f>D16-MAX(D14,D16)</f>
-        <v>-0.10449050086355804</v>
-      </c>
-      <c r="E35" s="48">
-        <f t="shared" si="19"/>
-        <v>-0.25561312607944697</v>
-      </c>
-      <c r="F35" s="48">
-        <f t="shared" si="19"/>
-        <v>-7.4611398963730036E-2</v>
-      </c>
-      <c r="G35" s="48">
-        <f t="shared" si="19"/>
-        <v>-0.41796200345423107</v>
-      </c>
-      <c r="H35" s="48">
-        <f t="shared" si="19"/>
-        <v>-0.11951640759930993</v>
-      </c>
-      <c r="I35" s="48">
-        <f t="shared" si="19"/>
-        <v>-6.2348877374784006E-2</v>
-      </c>
-      <c r="J35" s="48">
-        <f t="shared" si="19"/>
-        <v>-0.14196891191709904</v>
-      </c>
-      <c r="K35" s="48">
-        <f t="shared" si="19"/>
-        <v>-0.38670120898100196</v>
-      </c>
+        <f>acc_mean!K15-MAX(acc_mean!K15,acc_mean!K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M35" s="5"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P35" s="47">
-        <f>D16-MAX(D15,D16)</f>
+        <f>acc_mean!D16-MAX(acc_mean!D15,acc_mean!D16)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="47">
-        <f t="shared" ref="Q35:W35" si="21">E16-MAX(E15,E16)</f>
+        <f>acc_mean!E16-MAX(acc_mean!E15,acc_mean!E16)</f>
         <v>0</v>
       </c>
       <c r="R35" s="47">
-        <f t="shared" si="21"/>
+        <f>acc_mean!F16-MAX(acc_mean!F15,acc_mean!F16)</f>
         <v>0</v>
       </c>
       <c r="S35" s="47">
-        <f t="shared" si="21"/>
+        <f>acc_mean!G16-MAX(acc_mean!G15,acc_mean!G16)</f>
         <v>-4.6113989637306063E-2</v>
       </c>
       <c r="T35" s="47">
-        <f t="shared" si="21"/>
+        <f>acc_mean!H16-MAX(acc_mean!H15,acc_mean!H16)</f>
         <v>-8.4628670120899807E-3</v>
       </c>
       <c r="U35" s="47">
-        <f t="shared" si="21"/>
+        <f>acc_mean!I16-MAX(acc_mean!I15,acc_mean!I16)</f>
         <v>-1.157167530224501E-2</v>
       </c>
       <c r="V35" s="47">
-        <f t="shared" si="21"/>
+        <f>acc_mean!J16-MAX(acc_mean!J15,acc_mean!J16)</f>
         <v>0</v>
       </c>
       <c r="W35" s="47">
-        <f t="shared" si="21"/>
+        <f>acc_mean!K16-MAX(acc_mean!K15,acc_mean!K16)</f>
         <v>-7.8929188255613958E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="45">
-        <f>D17-MAX(D17,D19)</f>
-        <v>-6.148531951640801E-2</v>
-      </c>
-      <c r="E36" s="45">
-        <f t="shared" ref="E36:K37" si="22">E17-MAX(E17,E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="45">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="45">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="45">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="45">
-        <f t="shared" si="22"/>
-        <v>-7.2538860103620317E-3</v>
-      </c>
-      <c r="J36" s="45">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="45">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M36" s="4" t="s">
         <v>5</v>
       </c>
@@ -7010,153 +6948,78 @@
         <v>1</v>
       </c>
       <c r="P36" s="45">
-        <f>D17-MAX(D17,D18)</f>
+        <f>acc_mean!D17-MAX(acc_mean!D17,acc_mean!D18)</f>
         <v>-2.4179620034540106E-3</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" ref="Q36:W36" si="23">E17-MAX(E17,E18)</f>
+        <f>acc_mean!E17-MAX(acc_mean!E17,acc_mean!E18)</f>
         <v>0</v>
       </c>
       <c r="R36" s="45">
-        <f t="shared" si="23"/>
+        <f>acc_mean!F17-MAX(acc_mean!F17,acc_mean!F18)</f>
         <v>-2.1243523316062052E-2</v>
       </c>
       <c r="S36" s="45">
-        <f t="shared" si="23"/>
+        <f>acc_mean!G17-MAX(acc_mean!G17,acc_mean!G18)</f>
         <v>-5.4058721934370002E-2</v>
       </c>
       <c r="T36" s="45">
-        <f t="shared" si="23"/>
+        <f>acc_mean!H17-MAX(acc_mean!H17,acc_mean!H18)</f>
         <v>-4.9222797927462092E-2</v>
       </c>
       <c r="U36" s="45">
-        <f t="shared" si="23"/>
+        <f>acc_mean!I17-MAX(acc_mean!I17,acc_mean!I18)</f>
         <v>-5.8721934369599937E-3</v>
       </c>
       <c r="V36" s="45">
-        <f t="shared" si="23"/>
+        <f>acc_mean!J17-MAX(acc_mean!J17,acc_mean!J18)</f>
         <v>-3.0915371329878982E-2</v>
       </c>
       <c r="W36" s="45">
-        <f t="shared" si="23"/>
+        <f>acc_mean!K17-MAX(acc_mean!K17,acc_mean!K18)</f>
         <v>-2.1243523316061941E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="47">
-        <f>D18-MAX(D18,D20)</f>
-        <v>-8.9810017271157006E-2</v>
-      </c>
-      <c r="E37" s="47">
-        <f t="shared" si="22"/>
-        <v>-2.2452504317790334E-3</v>
-      </c>
-      <c r="F37" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="47">
-        <f t="shared" si="22"/>
-        <v>-1.3989637305699021E-2</v>
-      </c>
-      <c r="J37" s="47">
-        <f t="shared" si="22"/>
-        <v>-2.8842832469776036E-2</v>
-      </c>
-      <c r="K37" s="47">
-        <f t="shared" si="22"/>
-        <v>-3.7996545768560486E-3</v>
-      </c>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P37" s="47">
-        <f>D18-MAX(D17,D18)</f>
+        <f>acc_mean!D18-MAX(acc_mean!D17,acc_mean!D18)</f>
         <v>0</v>
       </c>
       <c r="Q37" s="47">
-        <f t="shared" ref="Q37:W37" si="24">E18-MAX(E17,E18)</f>
+        <f>acc_mean!E18-MAX(acc_mean!E17,acc_mean!E18)</f>
         <v>0</v>
       </c>
       <c r="R37" s="47">
-        <f t="shared" si="24"/>
+        <f>acc_mean!F18-MAX(acc_mean!F17,acc_mean!F18)</f>
         <v>0</v>
       </c>
       <c r="S37" s="47">
-        <f t="shared" si="24"/>
+        <f>acc_mean!G18-MAX(acc_mean!G17,acc_mean!G18)</f>
         <v>0</v>
       </c>
       <c r="T37" s="47">
-        <f t="shared" si="24"/>
+        <f>acc_mean!H18-MAX(acc_mean!H17,acc_mean!H18)</f>
         <v>0</v>
       </c>
       <c r="U37" s="47">
-        <f t="shared" si="24"/>
+        <f>acc_mean!I18-MAX(acc_mean!I17,acc_mean!I18)</f>
         <v>0</v>
       </c>
       <c r="V37" s="47">
-        <f t="shared" si="24"/>
+        <f>acc_mean!J18-MAX(acc_mean!J17,acc_mean!J18)</f>
         <v>0</v>
       </c>
       <c r="W37" s="47">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="47">
-        <f>D19-MAX(D17,D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="47">
-        <f t="shared" ref="E38:K39" si="25">E19-MAX(E17,E19)</f>
-        <v>-4.870466321243494E-2</v>
-      </c>
-      <c r="F38" s="47">
-        <f t="shared" si="25"/>
-        <v>-2.3488773747841973E-2</v>
-      </c>
-      <c r="G38" s="47">
-        <f t="shared" si="25"/>
-        <v>-1.2953367875647048E-2</v>
-      </c>
-      <c r="H38" s="47">
-        <f t="shared" si="25"/>
-        <v>-2.2452504317779232E-3</v>
-      </c>
-      <c r="I38" s="47">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="47">
-        <f t="shared" si="25"/>
-        <v>-1.7271157167530027E-2</v>
-      </c>
-      <c r="K38" s="47">
-        <f t="shared" si="25"/>
-        <v>-1.6407599309154031E-2</v>
-      </c>
+        <f>acc_mean!K18-MAX(acc_mean!K17,acc_mean!K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
       <c r="N38" s="1">
         <v>2</v>
@@ -7165,115 +7028,864 @@
         <v>1</v>
       </c>
       <c r="P38" s="45">
-        <f>D19-MAX(D19,D20)</f>
+        <f>acc_mean!D19-MAX(acc_mean!D19,acc_mean!D20)</f>
         <v>-3.0742659758203006E-2</v>
       </c>
       <c r="Q38" s="45">
-        <f t="shared" ref="Q38:W38" si="26">E19-MAX(E19,E20)</f>
+        <f>acc_mean!E19-MAX(acc_mean!E19,acc_mean!E20)</f>
         <v>-5.0949913644213973E-2</v>
       </c>
       <c r="R38" s="45">
-        <f t="shared" si="26"/>
+        <f>acc_mean!F19-MAX(acc_mean!F19,acc_mean!F20)</f>
         <v>0</v>
       </c>
       <c r="S38" s="45">
-        <f t="shared" si="26"/>
+        <f>acc_mean!G19-MAX(acc_mean!G19,acc_mean!G20)</f>
         <v>-6.2694300518134072E-2</v>
       </c>
       <c r="T38" s="45">
-        <f t="shared" si="26"/>
+        <f>acc_mean!H19-MAX(acc_mean!H19,acc_mean!H20)</f>
         <v>-4.4041450777202007E-2</v>
       </c>
       <c r="U38" s="45">
-        <f t="shared" si="26"/>
+        <f>acc_mean!I19-MAX(acc_mean!I19,acc_mean!I20)</f>
         <v>-1.2607944732296983E-2</v>
       </c>
       <c r="V38" s="45">
-        <f t="shared" si="26"/>
+        <f>acc_mean!J19-MAX(acc_mean!J19,acc_mean!J20)</f>
         <v>-7.7029360967185045E-2</v>
       </c>
       <c r="W38" s="45">
-        <f t="shared" si="26"/>
+        <f>acc_mean!K19-MAX(acc_mean!K19,acc_mean!K20)</f>
         <v>-4.145077720207202E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="48">
-        <f>D20-MAX(D18,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="48">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="48">
-        <f t="shared" si="25"/>
-        <v>-5.4404145077719956E-2</v>
-      </c>
-      <c r="G39" s="48">
-        <f t="shared" si="25"/>
-        <v>-4.3177892918829786E-3</v>
-      </c>
-      <c r="H39" s="48">
-        <f t="shared" si="25"/>
-        <v>-7.4265975820380081E-3</v>
-      </c>
-      <c r="I39" s="48">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="48">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="48">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
+    <row r="39" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M39" s="5"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P39" s="47">
-        <f>D20-MAX(D19,D20)</f>
+        <f>acc_mean!D20-MAX(acc_mean!D19,acc_mean!D20)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="47">
-        <f t="shared" ref="Q39:W39" si="27">E20-MAX(E19,E20)</f>
+        <f>acc_mean!E20-MAX(acc_mean!E19,acc_mean!E20)</f>
         <v>0</v>
       </c>
       <c r="R39" s="47">
-        <f t="shared" si="27"/>
+        <f>acc_mean!F20-MAX(acc_mean!F19,acc_mean!F20)</f>
         <v>-9.6718480138159313E-3</v>
       </c>
       <c r="S39" s="47">
-        <f t="shared" si="27"/>
+        <f>acc_mean!G20-MAX(acc_mean!G19,acc_mean!G20)</f>
         <v>0</v>
       </c>
       <c r="T39" s="47">
-        <f t="shared" si="27"/>
+        <f>acc_mean!H20-MAX(acc_mean!H19,acc_mean!H20)</f>
         <v>0</v>
       </c>
       <c r="U39" s="47">
-        <f t="shared" si="27"/>
+        <f>acc_mean!I20-MAX(acc_mean!I19,acc_mean!I20)</f>
         <v>0</v>
       </c>
       <c r="V39" s="47">
-        <f t="shared" si="27"/>
+        <f>acc_mean!J20-MAX(acc_mean!J19,acc_mean!J20)</f>
         <v>0</v>
       </c>
       <c r="W39" s="47">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <f>acc_mean!K20-MAX(acc_mean!K19,acc_mean!K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="M22:W22"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="84">
+        <v>0.85267702936096701</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.83644214162348896</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.85630397236614897</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.836096718480138</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.83367875647668399</v>
+      </c>
+      <c r="I5" s="85">
+        <v>0.85405872193437005</v>
+      </c>
+      <c r="J5" s="85">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="K5" s="46">
+        <v>0.83402417962003506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0.89119170984455998</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.86943005181347099</v>
+      </c>
+      <c r="F6" s="86">
+        <v>0.89378238341968896</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.88618307426597598</v>
+      </c>
+      <c r="H6" s="86">
+        <v>0.90449050086355798</v>
+      </c>
+      <c r="I6" s="86">
+        <v>0.92245250431778902</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.86960276338514697</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.86252158894646003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0.85906735751295304</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.84594127806563102</v>
+      </c>
+      <c r="F7" s="86">
+        <v>0.87046632124352297</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.82970639032815197</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.84473229706390296</v>
+      </c>
+      <c r="I7" s="86">
+        <v>0.89775474956822099</v>
+      </c>
+      <c r="J7" s="86">
+        <v>0.87702936096718498</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.81623488773747799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="87">
+        <v>0.90587219343696002</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.89240069084628704</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.89430051813471501</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.85561312607944695</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.88013816925734001</v>
+      </c>
+      <c r="I8" s="88">
+        <v>0.92867012089809997</v>
+      </c>
+      <c r="J8" s="88">
+        <v>0.90189982728842799</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0.89050086355785796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="89">
+        <v>0.86407599309153704</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0.85146804835923995</v>
+      </c>
+      <c r="F9" s="90">
+        <v>0.87944732297063899</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0.85837651122625203</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0.83385146804835897</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0.42521588946459399</v>
+      </c>
+      <c r="J9" s="90">
+        <v>0.86183074265975801</v>
+      </c>
+      <c r="K9" s="52">
+        <v>0.85889464594127796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="91">
+        <v>0.87512953367875701</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.86822107081174504</v>
+      </c>
+      <c r="F10" s="86">
+        <v>0.87806563039723695</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.86234887737478405</v>
+      </c>
+      <c r="H10" s="86">
+        <v>0.87495682210708103</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.86113989637305699</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.86217616580310896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="91">
+        <v>0.86839378238342002</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.80328151986183105</v>
+      </c>
+      <c r="F11" s="86">
+        <v>0.85164075993091604</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.82037996545768599</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.81191709844559601</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.83816925734024195</v>
+      </c>
+      <c r="J11" s="86">
+        <v>0.86459412780656297</v>
+      </c>
+      <c r="K11" s="92">
+        <v>0.85630397236614897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="87">
+        <v>0.90172711571675301</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.86390328151986195</v>
+      </c>
+      <c r="F12" s="88">
+        <v>0.88531951640759898</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.86683937823834201</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.84283246977547499</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.78480138169257296</v>
+      </c>
+      <c r="J12" s="88">
+        <v>0.899309153713299</v>
+      </c>
+      <c r="K12" s="49">
+        <v>0.85958549222797898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="89">
+        <v>0.86027633851467999</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0.81312607944732296</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.82746113989637304</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0.82348877374784102</v>
+      </c>
+      <c r="H13" s="90">
+        <v>0.84231433506044895</v>
+      </c>
+      <c r="I13" s="90">
+        <v>0.84231433506044895</v>
+      </c>
+      <c r="J13" s="51">
+        <v>0.83903281519861805</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0.84075993091537105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="91">
+        <v>0.87858376511226299</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.86701208981001698</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.87150259067357505</v>
+      </c>
+      <c r="G14" s="86">
+        <v>0.88480138169257305</v>
+      </c>
+      <c r="H14" s="86">
+        <v>0.88549222797927496</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.841968911917098</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.85993091537133004</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.86804835924006896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="91">
+        <v>0.76355785837651102</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.34507772020725402</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.28238341968911901</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.51295336787564805</v>
+      </c>
+      <c r="H15" s="86">
+        <v>0.77443868739205501</v>
+      </c>
+      <c r="I15" s="86">
+        <v>0.791191709844559</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.55975820379965502</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.56027633851468095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="87">
+        <v>0.77409326424870495</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.61139896373057001</v>
+      </c>
+      <c r="F16" s="88">
+        <v>0.79689119170984501</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.46683937823834198</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.76597582037996503</v>
+      </c>
+      <c r="I16" s="88">
+        <v>0.77962003454231399</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.717962003454231</v>
+      </c>
+      <c r="K16" s="49">
+        <v>0.48134715025906699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.790328151986183</v>
+      </c>
+      <c r="E17" s="90">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="F17" s="90">
+        <v>0.87806563039723695</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0.82348877374784102</v>
+      </c>
+      <c r="H17" s="51">
+        <v>0.83229706390328095</v>
+      </c>
+      <c r="I17" s="90">
+        <v>0.88255613126079502</v>
+      </c>
+      <c r="J17" s="51">
+        <v>0.85198618307426599</v>
+      </c>
+      <c r="K17" s="52">
+        <v>0.844386873920553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0.79274611398963701</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="F18" s="86">
+        <v>0.899309153713299</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.87754749568221102</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.88151986183074305</v>
+      </c>
+      <c r="I18" s="86">
+        <v>0.88842832469775501</v>
+      </c>
+      <c r="J18" s="86">
+        <v>0.88290155440414497</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.86563039723661495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="91">
+        <v>0.85181347150259101</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.82918825561312604</v>
+      </c>
+      <c r="F19" s="86">
+        <v>0.85457685664939498</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.81053540587219397</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.83005181347150303</v>
+      </c>
+      <c r="I19" s="86">
+        <v>0.88981001727115705</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.83471502590673596</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.82797927461139897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="87">
+        <v>0.88255613126079402</v>
+      </c>
+      <c r="E20" s="88">
+        <v>0.88013816925734001</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.84490500863557905</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.87322970639032804</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.87409326424870504</v>
+      </c>
+      <c r="I20" s="88">
+        <v>0.90241796200345403</v>
+      </c>
+      <c r="J20" s="88">
+        <v>0.91174438687392101</v>
+      </c>
+      <c r="K20" s="49">
+        <v>0.86943005181347099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -7283,7 +7895,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7293,7 +7905,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7303,7 +7915,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7313,7 +7925,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7323,7 +7935,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7333,7 +7945,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7343,7 +7955,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7353,7 +7965,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7414,12 +8026,9 @@
       <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="M3:W3"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7427,10 +8036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5CD397-A860-45CD-AB1F-382D2CA5649F}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8037,6 +8646,168 @@
         <v>5.3190927115455901E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
@@ -8051,7 +8822,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8635,8 +9406,165 @@
         <v>0.87564766839378205</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -8820,8 +9748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8831,7 +9759,7 @@
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -8900,28 +9828,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="65">
         <v>16</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="54">
         <v>19</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="54">
         <v>19</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="54">
         <v>35</v>
       </c>
-      <c r="H5" s="107">
+      <c r="H5" s="54">
         <v>46</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="54">
         <v>6</v>
       </c>
-      <c r="J5" s="107">
+      <c r="J5" s="54">
         <v>7</v>
       </c>
-      <c r="K5" s="108">
+      <c r="K5" s="67">
         <v>22</v>
       </c>
     </row>
@@ -8930,28 +9858,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="71">
         <v>24</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="19">
         <v>53</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="19">
         <v>39</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="19">
         <v>3</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="19">
         <v>4</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="19">
         <v>270</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="19">
         <v>14</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="70">
         <v>9</v>
       </c>
     </row>
@@ -8963,28 +9891,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="71">
         <v>11</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="19">
         <v>12</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="19">
         <v>17</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="19">
         <v>15</v>
       </c>
-      <c r="H7" s="110">
+      <c r="H7" s="19">
         <v>6</v>
       </c>
-      <c r="I7" s="110">
+      <c r="I7" s="19">
         <v>19</v>
       </c>
-      <c r="J7" s="110">
+      <c r="J7" s="19">
         <v>5</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="70">
         <v>12</v>
       </c>
     </row>
@@ -8994,28 +9922,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="112">
+      <c r="D8" s="83">
         <v>20</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="42">
         <v>23</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="42">
         <v>19</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="42">
         <v>16</v>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="42">
         <v>13</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="42">
         <v>109</v>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="42">
         <v>16</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="74">
         <v>38</v>
       </c>
     </row>
@@ -9029,28 +9957,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="75">
         <v>46</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="76">
         <v>4</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="76">
         <v>13</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="76">
         <v>18</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="76">
         <v>8</v>
       </c>
-      <c r="I9" s="116">
-        <v>1</v>
-      </c>
-      <c r="J9" s="116">
+      <c r="I9" s="76">
+        <v>1</v>
+      </c>
+      <c r="J9" s="76">
         <v>3</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="82">
         <v>10</v>
       </c>
     </row>
@@ -9059,28 +9987,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="71">
         <v>18</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="19">
         <v>9</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="19">
         <v>89</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="19">
         <v>49</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="19">
         <v>48</v>
       </c>
-      <c r="I10" s="110">
-        <v>1</v>
-      </c>
-      <c r="J10" s="110">
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
         <v>49</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="70">
         <v>27</v>
       </c>
     </row>
@@ -9092,28 +10020,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="71">
         <v>3</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="19">
         <v>23</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="19">
         <v>7</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="19">
         <v>19</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="19">
         <v>9</v>
       </c>
-      <c r="I11" s="110">
-        <v>2</v>
-      </c>
-      <c r="J11" s="110">
+      <c r="I11" s="19">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19">
         <v>4</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="70">
         <v>4</v>
       </c>
     </row>
@@ -9123,28 +10051,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="83">
         <v>18</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="42">
         <v>31</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="42">
         <v>15</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="42">
         <v>6</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="42">
         <v>4</v>
       </c>
-      <c r="I12" s="113">
-        <v>2</v>
-      </c>
-      <c r="J12" s="113">
+      <c r="I12" s="42">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42">
         <v>11</v>
       </c>
-      <c r="K12" s="114">
+      <c r="K12" s="74">
         <v>23</v>
       </c>
     </row>
@@ -9158,28 +10086,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="75">
         <v>4</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="76">
         <v>61</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="76">
         <v>9</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="76">
         <v>11</v>
       </c>
-      <c r="H13" s="116">
+      <c r="H13" s="76">
         <v>32</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="76">
         <v>11</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J13" s="76">
         <v>9</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="82">
         <v>10</v>
       </c>
     </row>
@@ -9188,28 +10116,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="109">
+      <c r="D14" s="71">
         <v>11</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="19">
         <v>17</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="19">
         <v>47</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="19">
         <v>9</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="19">
         <v>9</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="19">
         <v>25</v>
       </c>
-      <c r="J14" s="110">
+      <c r="J14" s="19">
         <v>14</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="70">
         <v>59</v>
       </c>
     </row>
@@ -9221,28 +10149,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="109">
-        <v>2</v>
-      </c>
-      <c r="E15" s="110">
-        <v>2</v>
-      </c>
-      <c r="F15" s="110">
-        <v>2</v>
-      </c>
-      <c r="G15" s="110">
-        <v>2</v>
-      </c>
-      <c r="H15" s="110">
-        <v>2</v>
-      </c>
-      <c r="I15" s="110">
-        <v>2</v>
-      </c>
-      <c r="J15" s="110">
-        <v>2</v>
-      </c>
-      <c r="K15" s="111">
+      <c r="D15" s="71">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="70">
         <v>2</v>
       </c>
     </row>
@@ -9252,28 +10180,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="112">
-        <v>2</v>
-      </c>
-      <c r="E16" s="113">
-        <v>2</v>
-      </c>
-      <c r="F16" s="113">
+      <c r="D16" s="83">
+        <v>2</v>
+      </c>
+      <c r="E16" s="42">
+        <v>2</v>
+      </c>
+      <c r="F16" s="42">
         <v>11</v>
       </c>
-      <c r="G16" s="113">
-        <v>2</v>
-      </c>
-      <c r="H16" s="113">
-        <v>2</v>
-      </c>
-      <c r="I16" s="113">
-        <v>2</v>
-      </c>
-      <c r="J16" s="113">
-        <v>2</v>
-      </c>
-      <c r="K16" s="114">
+      <c r="G16" s="42">
+        <v>2</v>
+      </c>
+      <c r="H16" s="42">
+        <v>2</v>
+      </c>
+      <c r="I16" s="42">
+        <v>2</v>
+      </c>
+      <c r="J16" s="42">
+        <v>2</v>
+      </c>
+      <c r="K16" s="74">
         <v>2</v>
       </c>
     </row>
@@ -9287,28 +10215,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="75">
         <v>3</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="76">
         <v>168</v>
       </c>
-      <c r="F17" s="116">
+      <c r="F17" s="76">
         <v>10</v>
       </c>
-      <c r="G17" s="116">
+      <c r="G17" s="76">
         <v>101</v>
       </c>
-      <c r="H17" s="116">
+      <c r="H17" s="76">
         <v>134</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="76">
         <v>41</v>
       </c>
-      <c r="J17" s="116">
+      <c r="J17" s="76">
         <v>11</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="82">
         <v>150</v>
       </c>
     </row>
@@ -9317,28 +10245,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="71">
         <v>260</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="19">
         <v>139</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="19">
         <v>26</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="19">
         <v>106</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="19">
         <v>120</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="19">
         <v>67</v>
       </c>
-      <c r="J18" s="110">
+      <c r="J18" s="19">
         <v>11</v>
       </c>
-      <c r="K18" s="111">
+      <c r="K18" s="70">
         <v>137</v>
       </c>
     </row>
@@ -9350,28 +10278,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="71">
         <v>4</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="19">
         <v>8</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="19">
         <v>42</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="19">
         <v>6</v>
       </c>
-      <c r="H19" s="110">
+      <c r="H19" s="19">
         <v>5</v>
       </c>
-      <c r="I19" s="110">
+      <c r="I19" s="19">
         <v>4</v>
       </c>
-      <c r="J19" s="110">
+      <c r="J19" s="19">
         <v>8</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="70">
         <v>14</v>
       </c>
     </row>
@@ -9381,33 +10309,190 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="83">
         <v>20</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="42">
         <v>15</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="42">
         <v>16</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="42">
         <v>3</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="42">
         <v>4</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="42">
         <v>6</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="42">
         <v>22</v>
       </c>
-      <c r="K20" s="114">
+      <c r="K20" s="74">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9592,7 +10677,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10176,8 +11261,165 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -10362,7 +11604,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10946,8 +12188,165 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -11132,7 +12531,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11716,8 +13115,165 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -11902,7 +13458,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FEA85B-1E53-4112-AA0B-B50616B2916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80786063-2532-4F57-BDDB-1F05AA39AB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -941,6 +941,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,30 +990,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,19 +1293,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1910,28 +1910,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1941,28 +1941,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1972,14 +1972,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -1987,14 +1987,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -2004,14 +2004,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -2019,14 +2019,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -2295,61 +2295,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="102" t="s">
+      <c r="E3" s="111"/>
+      <c r="F3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="102" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="102" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="102" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="102" t="s">
+      <c r="M3" s="111"/>
+      <c r="N3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="102" t="s">
+      <c r="O3" s="111"/>
+      <c r="P3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="102" t="s">
+      <c r="Q3" s="111"/>
+      <c r="R3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="104"/>
+      <c r="S3" s="112"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3506,19 +3506,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4127,14 +4127,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4142,14 +4142,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4159,14 +4159,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4174,14 +4174,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4191,14 +4191,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4206,14 +4206,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4223,14 +4223,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -4238,14 +4238,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4271,19 +4271,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4892,14 +4892,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4907,14 +4907,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4924,14 +4924,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4939,14 +4939,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4956,14 +4956,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4971,14 +4971,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4988,14 +4988,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -5003,14 +5003,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5041,32 +5041,32 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
-      <c r="M3" s="98" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
+      <c r="M3" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="100"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="108"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -6402,19 +6402,19 @@
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M22" s="98" t="s">
+      <c r="M22" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="100"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="108"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M23" s="96" t="s">
@@ -7113,8 +7113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7135,35 +7135,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -7767,28 +7767,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97">
+        <v>0.89119170984455998</v>
+      </c>
+      <c r="E23" s="98">
+        <v>0.86943005181347099</v>
+      </c>
+      <c r="F23" s="98">
+        <v>0.89378238341968896</v>
+      </c>
+      <c r="G23" s="98">
+        <v>0.88618307426597598</v>
+      </c>
+      <c r="H23" s="98">
+        <v>0.90449050086355798</v>
+      </c>
+      <c r="I23" s="98">
+        <v>0.92245250431778902</v>
+      </c>
+      <c r="J23" s="98">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="K23" s="99">
+        <v>0.86252158894646003</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100">
+        <v>0.90587219343696002</v>
+      </c>
+      <c r="E24" s="101">
+        <v>0.89240069084628704</v>
+      </c>
+      <c r="F24" s="101">
+        <v>0.89430051813471501</v>
+      </c>
+      <c r="G24" s="101">
+        <v>0.85561312607944695</v>
+      </c>
+      <c r="H24" s="101">
+        <v>0.88013816925734001</v>
+      </c>
+      <c r="I24" s="101">
+        <v>0.92867012089809997</v>
+      </c>
+      <c r="J24" s="101">
+        <v>0.90189982728842799</v>
+      </c>
+      <c r="K24" s="102">
+        <v>0.89050086355785796</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -7798,28 +7830,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97">
+        <v>0.87512953367875701</v>
+      </c>
+      <c r="E25" s="98">
+        <v>0.86822107081174504</v>
+      </c>
+      <c r="F25" s="98">
+        <v>0.87944732297063899</v>
+      </c>
+      <c r="G25" s="98">
+        <v>0.86234887737478405</v>
+      </c>
+      <c r="H25" s="98">
+        <v>0.87495682210708103</v>
+      </c>
+      <c r="I25" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="98">
+        <v>0.86183074265975801</v>
+      </c>
+      <c r="K25" s="99">
+        <v>0.86217616580310896</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100">
+        <v>0.90172711571675301</v>
+      </c>
+      <c r="E26" s="101">
+        <v>0.86390328151986195</v>
+      </c>
+      <c r="F26" s="101">
+        <v>0.88531951640759898</v>
+      </c>
+      <c r="G26" s="101">
+        <v>0.86683937823834201</v>
+      </c>
+      <c r="H26" s="101">
+        <v>0.84283246977547499</v>
+      </c>
+      <c r="I26" s="101">
+        <v>0.83816925734024195</v>
+      </c>
+      <c r="J26" s="101">
+        <v>0.899309153713299</v>
+      </c>
+      <c r="K26" s="102">
+        <v>0.85958549222797898</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -7829,14 +7893,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97">
+        <v>0.87858376511226299</v>
+      </c>
+      <c r="E27" s="98">
+        <v>0.86701208981001698</v>
+      </c>
+      <c r="F27" s="98">
+        <v>0.87150259067357505</v>
+      </c>
+      <c r="G27" s="98">
+        <v>0.88480138169257305</v>
+      </c>
+      <c r="H27" s="98">
+        <v>0.88549222797927496</v>
+      </c>
+      <c r="I27" s="98">
+        <v>0.84231433506044895</v>
+      </c>
+      <c r="J27" s="98">
+        <v>0.85993091537133004</v>
+      </c>
+      <c r="K27" s="99">
+        <v>0.86804835924006896</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -7844,14 +7924,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100">
+        <v>0.77409326424870495</v>
+      </c>
+      <c r="E28" s="101">
+        <v>0.61139896373057001</v>
+      </c>
+      <c r="F28" s="101">
+        <v>0.79689119170984501</v>
+      </c>
+      <c r="G28" s="101">
+        <v>0.51295336787564805</v>
+      </c>
+      <c r="H28" s="101">
+        <v>0.77443868739205501</v>
+      </c>
+      <c r="I28" s="101">
+        <v>0.791191709844559</v>
+      </c>
+      <c r="J28" s="101">
+        <v>0.717962003454231</v>
+      </c>
+      <c r="K28" s="102">
+        <v>0.56027633851468095</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -7861,14 +7957,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="D29" s="103">
+        <v>0.79274611398963701</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.899309153713299</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.87754749568221102</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.88151986183074305</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.88842832469775501</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.88290155440414497</v>
+      </c>
+      <c r="K29" s="104">
+        <v>0.86563039723661495</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -7876,14 +7988,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100">
+        <v>0.88255613126079402</v>
+      </c>
+      <c r="E30" s="101">
+        <v>0.88013816925734001</v>
+      </c>
+      <c r="F30" s="101">
+        <v>0.85457685664939498</v>
+      </c>
+      <c r="G30" s="101">
+        <v>0.87322970639032804</v>
+      </c>
+      <c r="H30" s="101">
+        <v>0.87409326424870504</v>
+      </c>
+      <c r="I30" s="101">
+        <v>0.90241796200345403</v>
+      </c>
+      <c r="J30" s="101">
+        <v>0.91174438687392101</v>
+      </c>
+      <c r="K30" s="102">
+        <v>0.86943005181347099</v>
+      </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
@@ -8039,7 +8167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8057,19 +8185,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -8077,19 +8205,19 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -8688,14 +8816,30 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97">
+        <v>4.2788495511944802E-2</v>
+      </c>
+      <c r="E23" s="98">
+        <v>3.5462695040305602E-2</v>
+      </c>
+      <c r="F23" s="98">
+        <v>3.25693504546265E-2</v>
+      </c>
+      <c r="G23" s="98">
+        <v>3.5993780314161797E-2</v>
+      </c>
+      <c r="H23" s="98">
+        <v>3.3786099594715603E-2</v>
+      </c>
+      <c r="I23" s="98">
+        <v>1.23058257323665E-2</v>
+      </c>
+      <c r="J23" s="98">
+        <v>7.6110976062704797E-2</v>
+      </c>
+      <c r="K23" s="99">
+        <v>7.0608786565813597E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -8703,14 +8847,30 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100">
+        <v>3.4158780366309899E-2</v>
+      </c>
+      <c r="E24" s="101">
+        <v>3.00808053255281E-2</v>
+      </c>
+      <c r="F24" s="101">
+        <v>3.1896356348196403E-2</v>
+      </c>
+      <c r="G24" s="101">
+        <v>5.9329490470541799E-2</v>
+      </c>
+      <c r="H24" s="101">
+        <v>4.75450276627171E-2</v>
+      </c>
+      <c r="I24" s="101">
+        <v>2.1309649902165301E-2</v>
+      </c>
+      <c r="J24" s="101">
+        <v>3.01550865042849E-2</v>
+      </c>
+      <c r="K24" s="102">
+        <v>3.5945404961161803E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -8720,14 +8880,30 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97">
+        <v>3.5722034569767303E-2</v>
+      </c>
+      <c r="E25" s="98">
+        <v>8.7643630574284995E-2</v>
+      </c>
+      <c r="F25" s="98">
+        <v>2.2677233246521399E-2</v>
+      </c>
+      <c r="G25" s="98">
+        <v>4.7123856398196301E-2</v>
+      </c>
+      <c r="H25" s="98">
+        <v>4.33058935567468E-2</v>
+      </c>
+      <c r="I25" s="98">
+        <v>0.39414687013612798</v>
+      </c>
+      <c r="J25" s="98">
+        <v>3.7690011061215702E-2</v>
+      </c>
+      <c r="K25" s="99">
+        <v>7.7418121207890503E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -8735,14 +8911,30 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100">
+        <v>4.5792638401643403E-2</v>
+      </c>
+      <c r="E26" s="101">
+        <v>3.6144020191137799E-2</v>
+      </c>
+      <c r="F26" s="101">
+        <v>2.3416416937499001E-2</v>
+      </c>
+      <c r="G26" s="101">
+        <v>4.4485664319080603E-2</v>
+      </c>
+      <c r="H26" s="101">
+        <v>6.2823133520800198E-2</v>
+      </c>
+      <c r="I26" s="101">
+        <v>0.15970409909161201</v>
+      </c>
+      <c r="J26" s="101">
+        <v>3.51043321099287E-2</v>
+      </c>
+      <c r="K26" s="102">
+        <v>7.2621285334136004E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -8752,14 +8944,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97">
+        <v>3.4619468621401597E-2</v>
+      </c>
+      <c r="E27" s="98">
+        <v>3.75137237942312E-2</v>
+      </c>
+      <c r="F27" s="98">
+        <v>2.9199097751376302E-2</v>
+      </c>
+      <c r="G27" s="98">
+        <v>4.0217451082638501E-2</v>
+      </c>
+      <c r="H27" s="98">
+        <v>4.47427059668997E-2</v>
+      </c>
+      <c r="I27" s="98">
+        <v>3.5170360307989597E-2</v>
+      </c>
+      <c r="J27" s="98">
+        <v>7.7189385374219099E-2</v>
+      </c>
+      <c r="K27" s="99">
+        <v>4.5046497788515001E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -8767,14 +8975,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100">
+        <v>0.26533929071968798</v>
+      </c>
+      <c r="E28" s="101">
+        <v>0.365503463516896</v>
+      </c>
+      <c r="F28" s="101">
+        <v>0.13317394967899401</v>
+      </c>
+      <c r="G28" s="101">
+        <v>0.36488995555502002</v>
+      </c>
+      <c r="H28" s="101">
+        <v>0.27745194034564402</v>
+      </c>
+      <c r="I28" s="101">
+        <v>0.16087114350569401</v>
+      </c>
+      <c r="J28" s="101">
+        <v>0.25420245104004202</v>
+      </c>
+      <c r="K28" s="102">
+        <v>0.39284887009292502</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -8784,14 +9008,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="D29" s="103">
+        <v>0.19599022212167</v>
+      </c>
+      <c r="E29" s="16">
+        <v>7.1850458677384904E-2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>3.8092810837237499E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2.9919507057879401E-2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5.0702605851674798E-2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>6.8041442632727003E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>6.1245946663548802E-2</v>
+      </c>
+      <c r="K29" s="104">
+        <v>4.8590340696011702E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -8799,14 +9039,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100">
+        <v>4.6457664943769801E-2</v>
+      </c>
+      <c r="E30" s="101">
+        <v>4.7468284695804601E-2</v>
+      </c>
+      <c r="F30" s="101">
+        <v>2.3439052435232199E-2</v>
+      </c>
+      <c r="G30" s="101">
+        <v>6.1995729571322503E-2</v>
+      </c>
+      <c r="H30" s="101">
+        <v>7.6460288189190595E-2</v>
+      </c>
+      <c r="I30" s="101">
+        <v>6.2102826744178503E-2</v>
+      </c>
+      <c r="J30" s="101">
+        <v>2.4606937685458002E-2</v>
+      </c>
+      <c r="K30" s="102">
+        <v>5.3190927115455901E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8840,19 +9096,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9448,28 +9704,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -9479,28 +9735,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -9510,14 +9766,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -9525,14 +9781,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -9542,14 +9798,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -9557,14 +9813,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9748,8 +10004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9757,30 +10013,27 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10376,28 +10629,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97">
+        <v>24</v>
+      </c>
+      <c r="E23" s="98">
+        <v>53</v>
+      </c>
+      <c r="F23" s="98">
+        <v>39</v>
+      </c>
+      <c r="G23" s="98">
+        <v>3</v>
+      </c>
+      <c r="H23" s="98">
+        <v>4</v>
+      </c>
+      <c r="I23" s="98">
+        <v>270</v>
+      </c>
+      <c r="J23" s="98">
+        <v>7</v>
+      </c>
+      <c r="K23" s="99">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100">
+        <v>20</v>
+      </c>
+      <c r="E24" s="101">
+        <v>23</v>
+      </c>
+      <c r="F24" s="101">
+        <v>19</v>
+      </c>
+      <c r="G24" s="101">
+        <v>16</v>
+      </c>
+      <c r="H24" s="101">
+        <v>13</v>
+      </c>
+      <c r="I24" s="101">
+        <v>109</v>
+      </c>
+      <c r="J24" s="101">
+        <v>16</v>
+      </c>
+      <c r="K24" s="102">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -10407,28 +10692,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97">
+        <v>18</v>
+      </c>
+      <c r="E25" s="98">
+        <v>9</v>
+      </c>
+      <c r="F25" s="98">
+        <v>13</v>
+      </c>
+      <c r="G25" s="98">
+        <v>49</v>
+      </c>
+      <c r="H25" s="98">
+        <v>48</v>
+      </c>
+      <c r="I25" s="98">
+        <v>1</v>
+      </c>
+      <c r="J25" s="98">
+        <v>3</v>
+      </c>
+      <c r="K25" s="99">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100">
+        <v>18</v>
+      </c>
+      <c r="E26" s="101">
+        <v>31</v>
+      </c>
+      <c r="F26" s="101">
+        <v>15</v>
+      </c>
+      <c r="G26" s="101">
+        <v>6</v>
+      </c>
+      <c r="H26" s="101">
+        <v>4</v>
+      </c>
+      <c r="I26" s="101">
+        <v>2</v>
+      </c>
+      <c r="J26" s="101">
+        <v>11</v>
+      </c>
+      <c r="K26" s="102">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -10438,14 +10755,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97">
+        <v>11</v>
+      </c>
+      <c r="E27" s="98">
+        <v>17</v>
+      </c>
+      <c r="F27" s="98">
+        <v>47</v>
+      </c>
+      <c r="G27" s="98">
+        <v>9</v>
+      </c>
+      <c r="H27" s="98">
+        <v>9</v>
+      </c>
+      <c r="I27" s="98">
+        <v>11</v>
+      </c>
+      <c r="J27" s="98">
+        <v>14</v>
+      </c>
+      <c r="K27" s="99">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -10453,14 +10786,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100">
+        <v>2</v>
+      </c>
+      <c r="E28" s="101">
+        <v>2</v>
+      </c>
+      <c r="F28" s="101">
+        <v>11</v>
+      </c>
+      <c r="G28" s="101">
+        <v>2</v>
+      </c>
+      <c r="H28" s="101">
+        <v>2</v>
+      </c>
+      <c r="I28" s="101">
+        <v>2</v>
+      </c>
+      <c r="J28" s="101">
+        <v>2</v>
+      </c>
+      <c r="K28" s="102">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -10470,14 +10819,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="D29" s="103">
+        <v>260</v>
+      </c>
+      <c r="E29" s="16">
+        <v>139</v>
+      </c>
+      <c r="F29" s="16">
+        <v>26</v>
+      </c>
+      <c r="G29" s="16">
+        <v>106</v>
+      </c>
+      <c r="H29" s="16">
+        <v>120</v>
+      </c>
+      <c r="I29" s="16">
+        <v>67</v>
+      </c>
+      <c r="J29" s="16">
+        <v>11</v>
+      </c>
+      <c r="K29" s="104">
+        <v>137</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -10485,14 +10850,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100">
+        <v>20</v>
+      </c>
+      <c r="E30" s="101">
+        <v>15</v>
+      </c>
+      <c r="F30" s="101">
+        <v>42</v>
+      </c>
+      <c r="G30" s="101">
+        <v>3</v>
+      </c>
+      <c r="H30" s="101">
+        <v>4</v>
+      </c>
+      <c r="I30" s="101">
+        <v>6</v>
+      </c>
+      <c r="J30" s="101">
+        <v>22</v>
+      </c>
+      <c r="K30" s="102">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -10677,7 +11058,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10685,29 +11066,29 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11303,28 +11684,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97">
+        <v>21.3</v>
+      </c>
+      <c r="E23" s="98">
+        <v>35.1</v>
+      </c>
+      <c r="F23" s="98">
+        <v>21.4</v>
+      </c>
+      <c r="G23" s="98">
+        <v>30</v>
+      </c>
+      <c r="H23" s="98">
+        <v>24.7</v>
+      </c>
+      <c r="I23" s="98">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="J23" s="98">
+        <v>10.9</v>
+      </c>
+      <c r="K23" s="99">
+        <v>19.600000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100">
+        <v>19.3</v>
+      </c>
+      <c r="E24" s="101">
+        <v>22.9</v>
+      </c>
+      <c r="F24" s="101">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G24" s="101">
+        <v>19.8</v>
+      </c>
+      <c r="H24" s="101">
+        <v>26</v>
+      </c>
+      <c r="I24" s="101">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="J24" s="101">
+        <v>12.2</v>
+      </c>
+      <c r="K24" s="102">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -11334,28 +11747,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97">
+        <v>20.6</v>
+      </c>
+      <c r="E25" s="98">
+        <v>12.9</v>
+      </c>
+      <c r="F25" s="98">
+        <v>22.6</v>
+      </c>
+      <c r="G25" s="98">
+        <v>31.6</v>
+      </c>
+      <c r="H25" s="98">
+        <v>27.2</v>
+      </c>
+      <c r="I25" s="98">
+        <v>1</v>
+      </c>
+      <c r="J25" s="98">
+        <v>11.8</v>
+      </c>
+      <c r="K25" s="99">
+        <v>31.3</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100">
+        <v>11.6</v>
+      </c>
+      <c r="E26" s="101">
+        <v>22.9</v>
+      </c>
+      <c r="F26" s="101">
+        <v>15.5</v>
+      </c>
+      <c r="G26" s="101">
+        <v>26.4</v>
+      </c>
+      <c r="H26" s="101">
+        <v>21.8</v>
+      </c>
+      <c r="I26" s="101">
+        <v>2</v>
+      </c>
+      <c r="J26" s="101">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K26" s="102">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -11365,14 +11810,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E27" s="98">
+        <v>31.1</v>
+      </c>
+      <c r="F27" s="98">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G27" s="98">
+        <v>31.6</v>
+      </c>
+      <c r="H27" s="98">
+        <v>26.7</v>
+      </c>
+      <c r="I27" s="98">
+        <v>25.3</v>
+      </c>
+      <c r="J27" s="98">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K27" s="99">
+        <v>37.6</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -11380,14 +11841,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100">
+        <v>2</v>
+      </c>
+      <c r="E28" s="101">
+        <v>2</v>
+      </c>
+      <c r="F28" s="101">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G28" s="101">
+        <v>2</v>
+      </c>
+      <c r="H28" s="101">
+        <v>2</v>
+      </c>
+      <c r="I28" s="101">
+        <v>2</v>
+      </c>
+      <c r="J28" s="101">
+        <v>2</v>
+      </c>
+      <c r="K28" s="102">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -11397,14 +11874,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="D29" s="103">
+        <v>117.6</v>
+      </c>
+      <c r="E29" s="16">
+        <v>123.9</v>
+      </c>
+      <c r="F29" s="16">
+        <v>18.3</v>
+      </c>
+      <c r="G29" s="16">
+        <v>71.8</v>
+      </c>
+      <c r="H29" s="16">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I29" s="16">
+        <v>31.8</v>
+      </c>
+      <c r="J29" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="K29" s="104">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -11412,14 +11905,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="100">
+        <v>26.8</v>
+      </c>
+      <c r="E30" s="101">
+        <v>22.5</v>
+      </c>
+      <c r="F30" s="101">
+        <v>29.5</v>
+      </c>
+      <c r="G30" s="101">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H30" s="101">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I30" s="101">
+        <v>14</v>
+      </c>
+      <c r="J30" s="101">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K30" s="102">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -11604,7 +12113,1063 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54">
+        <v>1</v>
+      </c>
+      <c r="H5" s="54">
+        <v>1</v>
+      </c>
+      <c r="I5" s="66">
+        <v>1</v>
+      </c>
+      <c r="J5" s="66">
+        <v>1</v>
+      </c>
+      <c r="K5" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="68">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4</v>
+      </c>
+      <c r="H6" s="69">
+        <v>2</v>
+      </c>
+      <c r="I6" s="69">
+        <v>7</v>
+      </c>
+      <c r="J6" s="69">
+        <v>4</v>
+      </c>
+      <c r="K6" s="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="69">
+        <v>1</v>
+      </c>
+      <c r="G7" s="69">
+        <v>1</v>
+      </c>
+      <c r="H7" s="69">
+        <v>1</v>
+      </c>
+      <c r="I7" s="69">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="72">
+        <v>7</v>
+      </c>
+      <c r="E8" s="42">
+        <v>5</v>
+      </c>
+      <c r="F8" s="73">
+        <v>3</v>
+      </c>
+      <c r="G8" s="42">
+        <v>9</v>
+      </c>
+      <c r="H8" s="42">
+        <v>10</v>
+      </c>
+      <c r="I8" s="73">
+        <v>5</v>
+      </c>
+      <c r="J8" s="73">
+        <v>9</v>
+      </c>
+      <c r="K8" s="74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="75">
+        <v>1</v>
+      </c>
+      <c r="E9" s="76">
+        <v>1</v>
+      </c>
+      <c r="F9" s="76">
+        <v>1</v>
+      </c>
+      <c r="G9" s="76">
+        <v>1</v>
+      </c>
+      <c r="H9" s="77">
+        <v>1</v>
+      </c>
+      <c r="I9" s="76">
+        <v>1</v>
+      </c>
+      <c r="J9" s="77">
+        <v>1</v>
+      </c>
+      <c r="K9" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="71">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5</v>
+      </c>
+      <c r="F10" s="69">
+        <v>9</v>
+      </c>
+      <c r="G10" s="69">
+        <v>10</v>
+      </c>
+      <c r="H10" s="69">
+        <v>7</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5</v>
+      </c>
+      <c r="J10" s="19">
+        <v>6</v>
+      </c>
+      <c r="K10" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="68">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="69">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="72">
+        <v>7</v>
+      </c>
+      <c r="E12" s="42">
+        <v>8</v>
+      </c>
+      <c r="F12" s="42">
+        <v>7</v>
+      </c>
+      <c r="G12" s="42">
+        <v>2</v>
+      </c>
+      <c r="H12" s="42">
+        <v>8</v>
+      </c>
+      <c r="I12" s="73">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42">
+        <v>8</v>
+      </c>
+      <c r="K12" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="81">
+        <v>1</v>
+      </c>
+      <c r="E13" s="76">
+        <v>1</v>
+      </c>
+      <c r="F13" s="76">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77">
+        <v>1</v>
+      </c>
+      <c r="H13" s="76">
+        <v>1</v>
+      </c>
+      <c r="I13" s="76">
+        <v>1</v>
+      </c>
+      <c r="J13" s="77">
+        <v>1</v>
+      </c>
+      <c r="K13" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="71">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19">
+        <v>7</v>
+      </c>
+      <c r="F14" s="19">
+        <v>9</v>
+      </c>
+      <c r="G14" s="19">
+        <v>9</v>
+      </c>
+      <c r="H14" s="69">
+        <v>3</v>
+      </c>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
+      <c r="J14" s="69">
+        <v>6</v>
+      </c>
+      <c r="K14" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="68">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="69">
+        <v>1</v>
+      </c>
+      <c r="I15" s="69">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="83">
+        <v>6</v>
+      </c>
+      <c r="E16" s="73">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42">
+        <v>2</v>
+      </c>
+      <c r="G16" s="42">
+        <v>6</v>
+      </c>
+      <c r="H16" s="73">
+        <v>2</v>
+      </c>
+      <c r="I16" s="42">
+        <v>3</v>
+      </c>
+      <c r="J16" s="42">
+        <v>10</v>
+      </c>
+      <c r="K16" s="80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="75">
+        <v>1</v>
+      </c>
+      <c r="E17" s="77">
+        <v>1</v>
+      </c>
+      <c r="F17" s="76">
+        <v>1</v>
+      </c>
+      <c r="G17" s="76">
+        <v>1</v>
+      </c>
+      <c r="H17" s="76">
+        <v>1</v>
+      </c>
+      <c r="I17" s="77">
+        <v>1</v>
+      </c>
+      <c r="J17" s="77">
+        <v>1</v>
+      </c>
+      <c r="K17" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="71">
+        <v>6</v>
+      </c>
+      <c r="E18" s="69">
+        <v>10</v>
+      </c>
+      <c r="F18" s="69">
+        <v>8</v>
+      </c>
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="19">
+        <v>9</v>
+      </c>
+      <c r="I18" s="19">
+        <v>7</v>
+      </c>
+      <c r="J18" s="69">
+        <v>7</v>
+      </c>
+      <c r="K18" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="71">
+        <v>1</v>
+      </c>
+      <c r="E19" s="69">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="69">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="69">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="83">
+        <v>9</v>
+      </c>
+      <c r="E20" s="73">
+        <v>4</v>
+      </c>
+      <c r="F20" s="42">
+        <v>4</v>
+      </c>
+      <c r="G20" s="42">
+        <v>2</v>
+      </c>
+      <c r="H20" s="73">
+        <v>3</v>
+      </c>
+      <c r="I20" s="42">
+        <v>6</v>
+      </c>
+      <c r="J20" s="73">
+        <v>6</v>
+      </c>
+      <c r="K20" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="97">
+        <v>2</v>
+      </c>
+      <c r="E23" s="98">
+        <v>10</v>
+      </c>
+      <c r="F23" s="98">
+        <v>4</v>
+      </c>
+      <c r="G23" s="98">
+        <v>4</v>
+      </c>
+      <c r="H23" s="98">
+        <v>2</v>
+      </c>
+      <c r="I23" s="98">
+        <v>7</v>
+      </c>
+      <c r="J23" s="98">
+        <v>1</v>
+      </c>
+      <c r="K23" s="99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="100">
+        <v>7</v>
+      </c>
+      <c r="E24" s="101">
+        <v>5</v>
+      </c>
+      <c r="F24" s="101">
+        <v>3</v>
+      </c>
+      <c r="G24" s="101">
+        <v>9</v>
+      </c>
+      <c r="H24" s="101">
+        <v>10</v>
+      </c>
+      <c r="I24" s="101">
+        <v>5</v>
+      </c>
+      <c r="J24" s="101">
+        <v>9</v>
+      </c>
+      <c r="K24" s="102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="97">
+        <v>6</v>
+      </c>
+      <c r="E25" s="98">
+        <v>5</v>
+      </c>
+      <c r="F25" s="98">
+        <v>1</v>
+      </c>
+      <c r="G25" s="98">
+        <v>10</v>
+      </c>
+      <c r="H25" s="98">
+        <v>7</v>
+      </c>
+      <c r="I25" s="98">
+        <v>5</v>
+      </c>
+      <c r="J25" s="98">
+        <v>1</v>
+      </c>
+      <c r="K25" s="99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="100">
+        <v>7</v>
+      </c>
+      <c r="E26" s="101">
+        <v>8</v>
+      </c>
+      <c r="F26" s="101">
+        <v>7</v>
+      </c>
+      <c r="G26" s="101">
+        <v>2</v>
+      </c>
+      <c r="H26" s="101">
+        <v>8</v>
+      </c>
+      <c r="I26" s="101">
+        <v>1</v>
+      </c>
+      <c r="J26" s="101">
+        <v>8</v>
+      </c>
+      <c r="K26" s="102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="97">
+        <v>3</v>
+      </c>
+      <c r="E27" s="98">
+        <v>7</v>
+      </c>
+      <c r="F27" s="98">
+        <v>9</v>
+      </c>
+      <c r="G27" s="98">
+        <v>9</v>
+      </c>
+      <c r="H27" s="98">
+        <v>3</v>
+      </c>
+      <c r="I27" s="98">
+        <v>1</v>
+      </c>
+      <c r="J27" s="98">
+        <v>6</v>
+      </c>
+      <c r="K27" s="99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="100">
+        <v>6</v>
+      </c>
+      <c r="E28" s="101">
+        <v>10</v>
+      </c>
+      <c r="F28" s="101">
+        <v>2</v>
+      </c>
+      <c r="G28" s="101">
+        <v>1</v>
+      </c>
+      <c r="H28" s="101">
+        <v>1</v>
+      </c>
+      <c r="I28" s="101">
+        <v>1</v>
+      </c>
+      <c r="J28" s="101">
+        <v>10</v>
+      </c>
+      <c r="K28" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="103">
+        <v>6</v>
+      </c>
+      <c r="E29" s="16">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16">
+        <v>8</v>
+      </c>
+      <c r="G29" s="16">
+        <v>10</v>
+      </c>
+      <c r="H29" s="16">
+        <v>9</v>
+      </c>
+      <c r="I29" s="16">
+        <v>7</v>
+      </c>
+      <c r="J29" s="16">
+        <v>7</v>
+      </c>
+      <c r="K29" s="104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="100">
+        <v>9</v>
+      </c>
+      <c r="E30" s="101">
+        <v>4</v>
+      </c>
+      <c r="F30" s="101">
+        <v>1</v>
+      </c>
+      <c r="G30" s="101">
+        <v>2</v>
+      </c>
+      <c r="H30" s="101">
+        <v>3</v>
+      </c>
+      <c r="I30" s="101">
+        <v>6</v>
+      </c>
+      <c r="J30" s="101">
+        <v>6</v>
+      </c>
+      <c r="K30" s="102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11622,19 +13187,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="A1" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11713,28 +13278,28 @@
         <v>12</v>
       </c>
       <c r="D6" s="68">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="E6" s="19">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="F6" s="19">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="G6" s="19">
-        <v>4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H6" s="69">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="I6" s="69">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="J6" s="69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K6" s="70">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -11777,28 +13342,28 @@
         <v>12</v>
       </c>
       <c r="D8" s="72">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="E8" s="42">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="F8" s="73">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="G8" s="42">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="H8" s="42">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="I8" s="73">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J8" s="73">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="K8" s="74">
-        <v>9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -11842,28 +13407,28 @@
         <v>12</v>
       </c>
       <c r="D10" s="71">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="E10" s="19">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F10" s="69">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="G10" s="69">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="H10" s="69">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I10" s="19">
         <v>5</v>
       </c>
       <c r="J10" s="19">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="K10" s="70">
-        <v>5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -11906,28 +13471,28 @@
         <v>12</v>
       </c>
       <c r="D12" s="72">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="E12" s="42">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="F12" s="42">
-        <v>7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G12" s="42">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H12" s="42">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I12" s="73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="42">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="K12" s="80">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -11971,28 +13536,28 @@
         <v>12</v>
       </c>
       <c r="D14" s="71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" s="19">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F14" s="19">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="G14" s="19">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="H14" s="69">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="I14" s="19">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J14" s="69">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="K14" s="79">
-        <v>9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -12035,28 +13600,28 @@
         <v>12</v>
       </c>
       <c r="D16" s="83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="73">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" s="42">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="G16" s="42">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H16" s="73">
-        <v>2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I16" s="42">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="J16" s="42">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="K16" s="80">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -12100,28 +13665,28 @@
         <v>12</v>
       </c>
       <c r="D18" s="71">
-        <v>6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E18" s="69">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="F18" s="69">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="G18" s="19">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="H18" s="19">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="I18" s="19">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J18" s="69">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="K18" s="70">
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -12164,28 +13729,28 @@
         <v>12</v>
       </c>
       <c r="D20" s="83">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="E20" s="73">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20" s="42">
-        <v>4</v>
+        <v>7.7</v>
       </c>
       <c r="G20" s="42">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H20" s="73">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="I20" s="42">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J20" s="73">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K20" s="74">
-        <v>10</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -12230,28 +13795,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="D23" s="97">
+        <v>3.8</v>
+      </c>
+      <c r="E23" s="98">
+        <v>6.3</v>
+      </c>
+      <c r="F23" s="98">
+        <v>6.3</v>
+      </c>
+      <c r="G23" s="98">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H23" s="98">
+        <v>6.4</v>
+      </c>
+      <c r="I23" s="98">
+        <v>5.7</v>
+      </c>
+      <c r="J23" s="98">
+        <v>1</v>
+      </c>
+      <c r="K23" s="99">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="D24" s="100">
+        <v>6.3</v>
+      </c>
+      <c r="E24" s="101">
+        <v>6.1</v>
+      </c>
+      <c r="F24" s="101">
+        <v>5.9</v>
+      </c>
+      <c r="G24" s="101">
+        <v>6.8</v>
+      </c>
+      <c r="H24" s="101">
+        <v>6.1</v>
+      </c>
+      <c r="I24" s="101">
+        <v>6.5</v>
+      </c>
+      <c r="J24" s="101">
+        <v>7.4</v>
+      </c>
+      <c r="K24" s="102">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -12261,28 +13858,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="97">
+        <v>5.8</v>
+      </c>
+      <c r="E25" s="98">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F25" s="98">
+        <v>1</v>
+      </c>
+      <c r="G25" s="98">
+        <v>7.4</v>
+      </c>
+      <c r="H25" s="98">
+        <v>6.8</v>
+      </c>
+      <c r="I25" s="98">
+        <v>5</v>
+      </c>
+      <c r="J25" s="98">
+        <v>1</v>
+      </c>
+      <c r="K25" s="99">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="D26" s="100">
+        <v>5.3</v>
+      </c>
+      <c r="E26" s="101">
+        <v>6.3</v>
+      </c>
+      <c r="F26" s="101">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G26" s="101">
+        <v>5.3</v>
+      </c>
+      <c r="H26" s="101">
+        <v>6.5</v>
+      </c>
+      <c r="I26" s="101">
+        <v>1</v>
+      </c>
+      <c r="J26" s="101">
+        <v>6.4</v>
+      </c>
+      <c r="K26" s="102">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -12292,14 +13921,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="97">
+        <v>7</v>
+      </c>
+      <c r="E27" s="98">
+        <v>6.5</v>
+      </c>
+      <c r="F27" s="98">
+        <v>7.3</v>
+      </c>
+      <c r="G27" s="98">
+        <v>7.6</v>
+      </c>
+      <c r="H27" s="98">
+        <v>6.7</v>
+      </c>
+      <c r="I27" s="98">
+        <v>1</v>
+      </c>
+      <c r="J27" s="98">
+        <v>5.4</v>
+      </c>
+      <c r="K27" s="99">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -12307,14 +13952,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="100">
+        <v>7</v>
+      </c>
+      <c r="E28" s="101">
+        <v>5</v>
+      </c>
+      <c r="F28" s="101">
+        <v>3.1</v>
+      </c>
+      <c r="G28" s="101">
+        <v>1</v>
+      </c>
+      <c r="H28" s="101">
+        <v>1</v>
+      </c>
+      <c r="I28" s="101">
+        <v>1</v>
+      </c>
+      <c r="J28" s="101">
+        <v>7.2</v>
+      </c>
+      <c r="K28" s="102">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -12324,14 +13985,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
+      <c r="D29" s="103">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E29" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="G29" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="I29" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="K29" s="104">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -12339,941 +14016,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="65">
-        <v>1</v>
-      </c>
-      <c r="E5" s="66">
-        <v>1</v>
-      </c>
-      <c r="F5" s="54">
-        <v>1</v>
-      </c>
-      <c r="G5" s="54">
-        <v>1</v>
-      </c>
-      <c r="H5" s="54">
-        <v>1</v>
-      </c>
-      <c r="I5" s="66">
-        <v>1</v>
-      </c>
-      <c r="J5" s="66">
-        <v>1</v>
-      </c>
-      <c r="K5" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="68">
-        <v>3.8</v>
-      </c>
-      <c r="E6" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="F6" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="G6" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H6" s="69">
+      <c r="D30" s="100">
+        <v>6.6</v>
+      </c>
+      <c r="E30" s="101">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F30" s="101">
+        <v>1</v>
+      </c>
+      <c r="G30" s="101">
         <v>6.4</v>
       </c>
-      <c r="I6" s="69">
-        <v>5.7</v>
-      </c>
-      <c r="J6" s="69">
-        <v>4.2</v>
-      </c>
-      <c r="K6" s="70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="71">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="69">
-        <v>1</v>
-      </c>
-      <c r="G7" s="69">
-        <v>1</v>
-      </c>
-      <c r="H7" s="69">
-        <v>1</v>
-      </c>
-      <c r="I7" s="69">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="72">
-        <v>6.3</v>
-      </c>
-      <c r="E8" s="42">
-        <v>6.1</v>
-      </c>
-      <c r="F8" s="73">
+      <c r="H30" s="101">
+        <v>6.6</v>
+      </c>
+      <c r="I30" s="101">
+        <v>5.5</v>
+      </c>
+      <c r="J30" s="101">
+        <v>6.2</v>
+      </c>
+      <c r="K30" s="102">
         <v>5.9</v>
       </c>
-      <c r="G8" s="42">
-        <v>6.8</v>
-      </c>
-      <c r="H8" s="42">
-        <v>6.1</v>
-      </c>
-      <c r="I8" s="73">
-        <v>6.5</v>
-      </c>
-      <c r="J8" s="73">
-        <v>7.4</v>
-      </c>
-      <c r="K8" s="74">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="75">
-        <v>1</v>
-      </c>
-      <c r="E9" s="76">
-        <v>1</v>
-      </c>
-      <c r="F9" s="76">
-        <v>1</v>
-      </c>
-      <c r="G9" s="76">
-        <v>1</v>
-      </c>
-      <c r="H9" s="77">
-        <v>1</v>
-      </c>
-      <c r="I9" s="76">
-        <v>1</v>
-      </c>
-      <c r="J9" s="77">
-        <v>1</v>
-      </c>
-      <c r="K9" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="71">
-        <v>5.8</v>
-      </c>
-      <c r="E10" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F10" s="69">
-        <v>6.1</v>
-      </c>
-      <c r="G10" s="69">
-        <v>7.4</v>
-      </c>
-      <c r="H10" s="69">
-        <v>6.8</v>
-      </c>
-      <c r="I10" s="19">
-        <v>5</v>
-      </c>
-      <c r="J10" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="K10" s="70">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="68">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="69">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="72">
-        <v>5.3</v>
-      </c>
-      <c r="E12" s="42">
-        <v>6.3</v>
-      </c>
-      <c r="F12" s="42">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G12" s="42">
-        <v>5.3</v>
-      </c>
-      <c r="H12" s="42">
-        <v>6.5</v>
-      </c>
-      <c r="I12" s="73">
-        <v>5</v>
-      </c>
-      <c r="J12" s="42">
-        <v>6.4</v>
-      </c>
-      <c r="K12" s="80">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="81">
-        <v>1</v>
-      </c>
-      <c r="E13" s="76">
-        <v>1</v>
-      </c>
-      <c r="F13" s="76">
-        <v>1</v>
-      </c>
-      <c r="G13" s="77">
-        <v>1</v>
-      </c>
-      <c r="H13" s="76">
-        <v>1</v>
-      </c>
-      <c r="I13" s="76">
-        <v>1</v>
-      </c>
-      <c r="J13" s="77">
-        <v>1</v>
-      </c>
-      <c r="K13" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="71">
-        <v>7</v>
-      </c>
-      <c r="E14" s="19">
-        <v>6.5</v>
-      </c>
-      <c r="F14" s="19">
-        <v>7.3</v>
-      </c>
-      <c r="G14" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="H14" s="69">
-        <v>6.7</v>
-      </c>
-      <c r="I14" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="J14" s="69">
-        <v>5.4</v>
-      </c>
-      <c r="K14" s="79">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="68">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="69">
-        <v>1</v>
-      </c>
-      <c r="I15" s="69">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="83">
-        <v>7</v>
-      </c>
-      <c r="E16" s="73">
-        <v>5</v>
-      </c>
-      <c r="F16" s="42">
-        <v>3.1</v>
-      </c>
-      <c r="G16" s="42">
-        <v>5.5</v>
-      </c>
-      <c r="H16" s="73">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I16" s="42">
-        <v>6.2</v>
-      </c>
-      <c r="J16" s="42">
-        <v>7.2</v>
-      </c>
-      <c r="K16" s="80">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="75">
-        <v>1</v>
-      </c>
-      <c r="E17" s="77">
-        <v>1</v>
-      </c>
-      <c r="F17" s="76">
-        <v>1</v>
-      </c>
-      <c r="G17" s="76">
-        <v>1</v>
-      </c>
-      <c r="H17" s="76">
-        <v>1</v>
-      </c>
-      <c r="I17" s="77">
-        <v>1</v>
-      </c>
-      <c r="J17" s="77">
-        <v>1</v>
-      </c>
-      <c r="K17" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="71">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E18" s="69">
-        <v>6.2</v>
-      </c>
-      <c r="F18" s="69">
-        <v>5.9</v>
-      </c>
-      <c r="G18" s="19">
-        <v>7.1</v>
-      </c>
-      <c r="H18" s="19">
-        <v>5.8</v>
-      </c>
-      <c r="I18" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="J18" s="69">
-        <v>4.8</v>
-      </c>
-      <c r="K18" s="70">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="71">
-        <v>1</v>
-      </c>
-      <c r="E19" s="69">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="69">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="69">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="83">
-        <v>6.6</v>
-      </c>
-      <c r="E20" s="73">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F20" s="42">
-        <v>7.7</v>
-      </c>
-      <c r="G20" s="42">
-        <v>6.4</v>
-      </c>
-      <c r="H20" s="73">
-        <v>6.6</v>
-      </c>
-      <c r="I20" s="42">
-        <v>5.5</v>
-      </c>
-      <c r="J20" s="73">
-        <v>6.2</v>
-      </c>
-      <c r="K20" s="74">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="113"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -13482,24 +14248,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13509,29 +14275,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="102" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="103"/>
-      <c r="O3" s="102" t="s">
+      <c r="N3" s="111"/>
+      <c r="O3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="104"/>
+      <c r="P3" s="112"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80786063-2532-4F57-BDDB-1F05AA39AB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8886214-9FF6-49EA-B0AB-E013CA7A4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,6 +992,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7113,8 +7128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7773,16 +7788,16 @@
       <c r="E23" s="98">
         <v>0.86943005181347099</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="114">
         <v>0.89378238341968896</v>
       </c>
       <c r="G23" s="98">
         <v>0.88618307426597598</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="114">
         <v>0.90449050086355798</v>
       </c>
-      <c r="I23" s="98">
+      <c r="I23" s="114">
         <v>0.92245250431778902</v>
       </c>
       <c r="J23" s="98">
@@ -7797,7 +7812,7 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="116">
         <v>0.90587219343696002</v>
       </c>
       <c r="E24" s="101">
@@ -7812,10 +7827,10 @@
       <c r="H24" s="101">
         <v>0.88013816925734001</v>
       </c>
-      <c r="I24" s="101">
+      <c r="I24" s="115">
         <v>0.92867012089809997</v>
       </c>
-      <c r="J24" s="101">
+      <c r="J24" s="115">
         <v>0.90189982728842799</v>
       </c>
       <c r="K24" s="102">
@@ -7830,19 +7845,19 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="97">
+      <c r="D25" s="117">
         <v>0.87512953367875701</v>
       </c>
       <c r="E25" s="98">
         <v>0.86822107081174504</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="114">
         <v>0.87944732297063899</v>
       </c>
       <c r="G25" s="98">
         <v>0.86234887737478405</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="114">
         <v>0.87495682210708103</v>
       </c>
       <c r="I25" s="98">
@@ -7860,13 +7875,13 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="100">
+      <c r="D26" s="116">
         <v>0.90172711571675301</v>
       </c>
       <c r="E26" s="101">
         <v>0.86390328151986195</v>
       </c>
-      <c r="F26" s="101">
+      <c r="F26" s="115">
         <v>0.88531951640759898</v>
       </c>
       <c r="G26" s="101">
@@ -7878,7 +7893,7 @@
       <c r="I26" s="101">
         <v>0.83816925734024195</v>
       </c>
-      <c r="J26" s="101">
+      <c r="J26" s="115">
         <v>0.899309153713299</v>
       </c>
       <c r="K26" s="102">
@@ -7893,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="97">
+      <c r="D27" s="117">
         <v>0.87858376511226299</v>
       </c>
       <c r="E27" s="98">
@@ -7902,10 +7917,10 @@
       <c r="F27" s="98">
         <v>0.87150259067357505</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="114">
         <v>0.88480138169257305</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="114">
         <v>0.88549222797927496</v>
       </c>
       <c r="I27" s="98">
@@ -7924,13 +7939,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="100">
+      <c r="D28" s="116">
         <v>0.77409326424870495</v>
       </c>
       <c r="E28" s="101">
         <v>0.61139896373057001</v>
       </c>
-      <c r="F28" s="101">
+      <c r="F28" s="115">
         <v>0.79689119170984501</v>
       </c>
       <c r="G28" s="101">
@@ -7939,7 +7954,7 @@
       <c r="H28" s="101">
         <v>0.77443868739205501</v>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="115">
         <v>0.791191709844559</v>
       </c>
       <c r="J28" s="101">
@@ -7963,19 +7978,19 @@
       <c r="E29" s="16">
         <v>0.87789291882556098</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="118">
         <v>0.899309153713299</v>
       </c>
       <c r="G29" s="16">
         <v>0.87754749568221102</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="118">
         <v>0.88151986183074305</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="118">
         <v>0.88842832469775501</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="118">
         <v>0.88290155440414497</v>
       </c>
       <c r="K29" s="104">
@@ -7988,10 +8003,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="100">
+      <c r="D30" s="116">
         <v>0.88255613126079402</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E30" s="115">
         <v>0.88013816925734001</v>
       </c>
       <c r="F30" s="101">
@@ -8003,10 +8018,10 @@
       <c r="H30" s="101">
         <v>0.87409326424870504</v>
       </c>
-      <c r="I30" s="101">
+      <c r="I30" s="115">
         <v>0.90241796200345403</v>
       </c>
-      <c r="J30" s="101">
+      <c r="J30" s="115">
         <v>0.91174438687392101</v>
       </c>
       <c r="K30" s="102">

--- a/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8886214-9FF6-49EA-B0AB-E013CA7A4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F8201-CB76-4C61-BFD5-DB35ED338639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,6 +965,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,19 +1007,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1308,19 +1332,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2310,61 +2334,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="110" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="110" t="s">
+      <c r="G3" s="116"/>
+      <c r="H3" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="110" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="110" t="s">
+      <c r="K3" s="116"/>
+      <c r="L3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="110" t="s">
+      <c r="M3" s="116"/>
+      <c r="N3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="110" t="s">
+      <c r="O3" s="116"/>
+      <c r="P3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="110" t="s">
+      <c r="Q3" s="116"/>
+      <c r="R3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="112"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3521,19 +3545,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4286,19 +4310,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5056,32 +5080,32 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
-      <c r="M3" s="106" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="M3" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="108"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="113"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -6417,19 +6441,19 @@
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M22" s="106" t="s">
+      <c r="M22" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="108"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="113"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M23" s="96" t="s">
@@ -7128,7 +7152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -7150,35 +7174,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -7788,16 +7812,16 @@
       <c r="E23" s="98">
         <v>0.86943005181347099</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="105">
         <v>0.89378238341968896</v>
       </c>
       <c r="G23" s="98">
         <v>0.88618307426597598</v>
       </c>
-      <c r="H23" s="114">
+      <c r="H23" s="105">
         <v>0.90449050086355798</v>
       </c>
-      <c r="I23" s="114">
+      <c r="I23" s="105">
         <v>0.92245250431778902</v>
       </c>
       <c r="J23" s="98">
@@ -7812,7 +7836,7 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="116">
+      <c r="D24" s="107">
         <v>0.90587219343696002</v>
       </c>
       <c r="E24" s="101">
@@ -7827,10 +7851,10 @@
       <c r="H24" s="101">
         <v>0.88013816925734001</v>
       </c>
-      <c r="I24" s="115">
+      <c r="I24" s="106">
         <v>0.92867012089809997</v>
       </c>
-      <c r="J24" s="115">
+      <c r="J24" s="106">
         <v>0.90189982728842799</v>
       </c>
       <c r="K24" s="102">
@@ -7845,19 +7869,19 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="117">
+      <c r="D25" s="108">
         <v>0.87512953367875701</v>
       </c>
       <c r="E25" s="98">
         <v>0.86822107081174504</v>
       </c>
-      <c r="F25" s="114">
+      <c r="F25" s="105">
         <v>0.87944732297063899</v>
       </c>
       <c r="G25" s="98">
         <v>0.86234887737478405</v>
       </c>
-      <c r="H25" s="114">
+      <c r="H25" s="105">
         <v>0.87495682210708103</v>
       </c>
       <c r="I25" s="98">
@@ -7875,13 +7899,13 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="116">
+      <c r="D26" s="107">
         <v>0.90172711571675301</v>
       </c>
       <c r="E26" s="101">
         <v>0.86390328151986195</v>
       </c>
-      <c r="F26" s="115">
+      <c r="F26" s="106">
         <v>0.88531951640759898</v>
       </c>
       <c r="G26" s="101">
@@ -7893,7 +7917,7 @@
       <c r="I26" s="101">
         <v>0.83816925734024195</v>
       </c>
-      <c r="J26" s="115">
+      <c r="J26" s="106">
         <v>0.899309153713299</v>
       </c>
       <c r="K26" s="102">
@@ -7908,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="117">
+      <c r="D27" s="108">
         <v>0.87858376511226299</v>
       </c>
       <c r="E27" s="98">
@@ -7917,10 +7941,10 @@
       <c r="F27" s="98">
         <v>0.87150259067357505</v>
       </c>
-      <c r="G27" s="114">
+      <c r="G27" s="105">
         <v>0.88480138169257305</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="105">
         <v>0.88549222797927496</v>
       </c>
       <c r="I27" s="98">
@@ -7939,13 +7963,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="116">
+      <c r="D28" s="107">
         <v>0.77409326424870495</v>
       </c>
       <c r="E28" s="101">
         <v>0.61139896373057001</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="106">
         <v>0.79689119170984501</v>
       </c>
       <c r="G28" s="101">
@@ -7954,7 +7978,7 @@
       <c r="H28" s="101">
         <v>0.77443868739205501</v>
       </c>
-      <c r="I28" s="115">
+      <c r="I28" s="106">
         <v>0.791191709844559</v>
       </c>
       <c r="J28" s="101">
@@ -7978,19 +8002,19 @@
       <c r="E29" s="16">
         <v>0.87789291882556098</v>
       </c>
-      <c r="F29" s="118">
+      <c r="F29" s="109">
         <v>0.899309153713299</v>
       </c>
       <c r="G29" s="16">
         <v>0.87754749568221102</v>
       </c>
-      <c r="H29" s="118">
+      <c r="H29" s="109">
         <v>0.88151986183074305</v>
       </c>
-      <c r="I29" s="118">
+      <c r="I29" s="109">
         <v>0.88842832469775501</v>
       </c>
-      <c r="J29" s="118">
+      <c r="J29" s="109">
         <v>0.88290155440414497</v>
       </c>
       <c r="K29" s="104">
@@ -8003,10 +8027,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="116">
+      <c r="D30" s="107">
         <v>0.88255613126079402</v>
       </c>
-      <c r="E30" s="115">
+      <c r="E30" s="106">
         <v>0.88013816925734001</v>
       </c>
       <c r="F30" s="101">
@@ -8018,10 +8042,10 @@
       <c r="H30" s="101">
         <v>0.87409326424870504</v>
       </c>
-      <c r="I30" s="115">
+      <c r="I30" s="106">
         <v>0.90241796200345403</v>
       </c>
-      <c r="J30" s="115">
+      <c r="J30" s="106">
         <v>0.91174438687392101</v>
       </c>
       <c r="K30" s="102">
@@ -8200,19 +8224,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -8220,19 +8244,19 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -9111,19 +9135,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10019,8 +10043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10028,27 +10052,27 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10644,28 +10668,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="97">
+      <c r="D23" s="119">
         <v>24</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="120">
         <v>53</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="120">
         <v>39</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G23" s="120">
         <v>3</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="120">
         <v>4</v>
       </c>
-      <c r="I23" s="98">
+      <c r="I23" s="120">
         <v>270</v>
       </c>
-      <c r="J23" s="98">
+      <c r="J23" s="120">
         <v>7</v>
       </c>
-      <c r="K23" s="99">
+      <c r="K23" s="121">
         <v>9</v>
       </c>
     </row>
@@ -10674,28 +10698,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="122">
         <v>20</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="123">
         <v>23</v>
       </c>
-      <c r="F24" s="101">
+      <c r="F24" s="123">
         <v>19</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="123">
         <v>16</v>
       </c>
-      <c r="H24" s="101">
+      <c r="H24" s="123">
         <v>13</v>
       </c>
-      <c r="I24" s="101">
+      <c r="I24" s="123">
         <v>109</v>
       </c>
-      <c r="J24" s="101">
+      <c r="J24" s="123">
         <v>16</v>
       </c>
-      <c r="K24" s="102">
+      <c r="K24" s="124">
         <v>38</v>
       </c>
     </row>
@@ -10707,28 +10731,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="97">
+      <c r="D25" s="119">
         <v>18</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="120">
         <v>9</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="120">
         <v>13</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="120">
         <v>49</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="120">
         <v>48</v>
       </c>
-      <c r="I25" s="98">
-        <v>1</v>
-      </c>
-      <c r="J25" s="98">
+      <c r="I25" s="120">
+        <v>1</v>
+      </c>
+      <c r="J25" s="120">
         <v>3</v>
       </c>
-      <c r="K25" s="99">
+      <c r="K25" s="121">
         <v>27</v>
       </c>
     </row>
@@ -10737,28 +10761,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="100">
+      <c r="D26" s="122">
         <v>18</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="123">
         <v>31</v>
       </c>
-      <c r="F26" s="101">
+      <c r="F26" s="123">
         <v>15</v>
       </c>
-      <c r="G26" s="101">
+      <c r="G26" s="123">
         <v>6</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H26" s="123">
         <v>4</v>
       </c>
-      <c r="I26" s="101">
-        <v>2</v>
-      </c>
-      <c r="J26" s="101">
+      <c r="I26" s="123">
+        <v>2</v>
+      </c>
+      <c r="J26" s="123">
         <v>11</v>
       </c>
-      <c r="K26" s="102">
+      <c r="K26" s="124">
         <v>23</v>
       </c>
     </row>
@@ -10770,28 +10794,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="97">
+      <c r="D27" s="119">
         <v>11</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="120">
         <v>17</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="120">
         <v>47</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="120">
         <v>9</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="120">
         <v>9</v>
       </c>
-      <c r="I27" s="98">
+      <c r="I27" s="120">
         <v>11</v>
       </c>
-      <c r="J27" s="98">
+      <c r="J27" s="120">
         <v>14</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="121">
         <v>59</v>
       </c>
     </row>
@@ -10801,28 +10825,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="100">
-        <v>2</v>
-      </c>
-      <c r="E28" s="101">
-        <v>2</v>
-      </c>
-      <c r="F28" s="101">
+      <c r="D28" s="122">
+        <v>2</v>
+      </c>
+      <c r="E28" s="123">
+        <v>2</v>
+      </c>
+      <c r="F28" s="123">
         <v>11</v>
       </c>
-      <c r="G28" s="101">
-        <v>2</v>
-      </c>
-      <c r="H28" s="101">
-        <v>2</v>
-      </c>
-      <c r="I28" s="101">
-        <v>2</v>
-      </c>
-      <c r="J28" s="101">
-        <v>2</v>
-      </c>
-      <c r="K28" s="102">
+      <c r="G28" s="123">
+        <v>2</v>
+      </c>
+      <c r="H28" s="123">
+        <v>2</v>
+      </c>
+      <c r="I28" s="123">
+        <v>2</v>
+      </c>
+      <c r="J28" s="123">
+        <v>2</v>
+      </c>
+      <c r="K28" s="124">
         <v>2</v>
       </c>
     </row>
@@ -10834,28 +10858,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="103">
+      <c r="D29" s="125">
         <v>260</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="11">
         <v>139</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="11">
         <v>26</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>106</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="11">
         <v>120</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="11">
         <v>67</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="11">
         <v>11</v>
       </c>
-      <c r="K29" s="104">
+      <c r="K29" s="126">
         <v>137</v>
       </c>
     </row>
@@ -10865,28 +10889,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="100">
+      <c r="D30" s="122">
         <v>20</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E30" s="123">
         <v>15</v>
       </c>
-      <c r="F30" s="101">
+      <c r="F30" s="123">
         <v>42</v>
       </c>
-      <c r="G30" s="101">
+      <c r="G30" s="123">
         <v>3</v>
       </c>
-      <c r="H30" s="101">
+      <c r="H30" s="123">
         <v>4</v>
       </c>
-      <c r="I30" s="101">
+      <c r="I30" s="123">
         <v>6</v>
       </c>
-      <c r="J30" s="101">
+      <c r="J30" s="123">
         <v>22</v>
       </c>
-      <c r="K30" s="102">
+      <c r="K30" s="124">
         <v>26</v>
       </c>
     </row>
@@ -11091,19 +11115,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12147,19 +12171,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13202,19 +13226,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14263,24 +14287,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14290,29 +14314,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="K3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="110" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="110" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="112"/>
+      <c r="P3" s="117"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
